--- a/Paper/results.xlsx
+++ b/Paper/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="123">
   <si>
     <t>instance_number</t>
   </si>
@@ -43,1044 +43,1021 @@
     <t>ranked diagnoses</t>
   </si>
   <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>[0, 1]</t>
+    <t>Wasted Effort</t>
+  </si>
+  <si>
+    <t>Weighted Precision 10</t>
+  </si>
+  <si>
+    <t>Weighted Precision 20</t>
+  </si>
+  <si>
+    <t>Weighted Precision 30</t>
+  </si>
+  <si>
+    <t>Weighted Precision 40</t>
+  </si>
+  <si>
+    <t>Weighted Precision 50</t>
+  </si>
+  <si>
+    <t>Weighted Precision 60</t>
+  </si>
+  <si>
+    <t>Weighted Precision 70</t>
+  </si>
+  <si>
+    <t>Weighted Precision 80</t>
+  </si>
+  <si>
+    <t>Weighted Precision 90</t>
+  </si>
+  <si>
+    <t>Weighted Precision 100</t>
+  </si>
+  <si>
+    <t>Weighted Recall 10</t>
+  </si>
+  <si>
+    <t>Weighted Recall 20</t>
+  </si>
+  <si>
+    <t>Weighted Recall 30</t>
+  </si>
+  <si>
+    <t>Weighted Recall 40</t>
+  </si>
+  <si>
+    <t>Weighted Recall 50</t>
+  </si>
+  <si>
+    <t>Weighted Recall 60</t>
+  </si>
+  <si>
+    <t>Weighted Recall 70</t>
+  </si>
+  <si>
+    <t>Weighted Recall 80</t>
+  </si>
+  <si>
+    <t>Weighted Recall 90</t>
+  </si>
+  <si>
+    <t>Weighted Recall 100</t>
+  </si>
+  <si>
+    <t>[0, 2]</t>
   </si>
   <si>
     <t>MRSD</t>
   </si>
   <si>
+    <t>[2]_x000D_
+[0, 3]_x000D_
+[1, 4]_x000D_
+[3, 4]_x000D_
+[3, 6]</t>
+  </si>
+  <si>
+    <t>[[2], 0.43475183048166494]_x000D_
+[[0, 3], 0.43475183048166494]_x000D_
+[[3, 4], 0.06440275035594667]_x000D_
+[[3, 6], 0.06440275035463298]_x000D_
+[[1, 4], 0.0016908383260905405]</t>
+  </si>
+  <si>
+    <t>DMRSD_I1D1R1</t>
+  </si>
+  <si>
+    <t>[[0, 3], 0.7706040116554856]_x000D_
+[[3, 4], 0.11192299193301931]_x000D_
+[[3, 6], 0.11192299193301931]_x000D_
+[[2], 0.003010171920529241]_x000D_
+[[1, 4], 0.002539832557946547]</t>
+  </si>
+  <si>
+    <t>[2]_x000D_
+[3, 4]_x000D_
+[4, 6]_x000D_
+[0, 1, 3]_x000D_
+[0, 3, 6]_x000D_
+[1, 3, 5]_x000D_
+[3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[[3, 4], 0.16662688247299556]_x000D_
+[[4, 6], 0.16662688247299556]_x000D_
+[[0, 1, 3], 0.16662688247299556]_x000D_
+[[0, 3, 6], 0.16662688247299556]_x000D_
+[[1, 3, 5], 0.16662688247299556]_x000D_
+[[3, 5, 6], 0.16662688247299556]_x000D_
+[[2], 0.00023870516202666127]</t>
+  </si>
+  <si>
+    <t>[[3, 4], 0.16663954434499592]_x000D_
+[[4, 6], 0.16663954434499592]_x000D_
+[[0, 1, 3], 0.16663954434499592]_x000D_
+[[0, 3, 6], 0.16663954434499592]_x000D_
+[[1, 3, 5], 0.16663954434499592]_x000D_
+[[3, 5, 6], 0.16663954434499592]_x000D_
+[[2], 0.00016273393002441008]</t>
+  </si>
+  <si>
     <t>[0, 1]_x000D_
+[0, 2]_x000D_
+[0, 6]_x000D_
+[1, 2]_x000D_
+[2, 3]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.7343945387458801]_x000D_
+[[1, 2], 0.10879120724848133]_x000D_
+[[0, 6], 0.1087908660207159]_x000D_
+[[0, 1], 0.04589461351970618]_x000D_
+[[2, 3], 0.0021287744652164595]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.859577930130561]_x000D_
+[[0, 6], 0.12484561757357594]_x000D_
+[[1, 2], 0.009438108922738246]_x000D_
+[[0, 1], 0.004249622335240201]_x000D_
+[[2, 3], 0.0018887210378845337]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 4]_x000D_
+[2, 3]_x000D_
+[3, 4]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.25]_x000D_
+[[0, 4], 0.25]_x000D_
+[[2, 3], 0.25]_x000D_
+[[3, 4], 0.25]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 5]_x000D_
+[1, 5]_x000D_
+[2, 4]_x000D_
+[2, 5]_x000D_
+[2, 6]_x000D_
+[3, 5]_x000D_
+[5, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.5614609796624805]_x000D_
+[[2, 5], 0.14036524491562008]_x000D_
+[[2, 6], 0.14036522716404748]_x000D_
+[[2, 4], 0.08317392226373312]_x000D_
+[[0, 5], 0.051723697830882216]_x000D_
+[[5, 6], 0.011450651180556576]_x000D_
+[[1, 5], 0.00991354149683897]_x000D_
+[[3, 5], 0.0015467354858410935]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.6042841984754629]_x000D_
+[[2, 5], 0.1509488276027312]_x000D_
+[[2, 6], 0.14301586825756718]_x000D_
+[[0, 5], 0.08840671232466889]_x000D_
+[[5, 6], 0.005875670793715385]_x000D_
+[[1, 5], 0.002987489018341827]_x000D_
+[[2, 4], 0.002987489018341827]_x000D_
+[[3, 5], 0.0014937445091709135]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 4]_x000D_
+[0, 6]_x000D_
+[1, 4]_x000D_
+[3, 4]_x000D_
+[4, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.16666666673910327]_x000D_
+[[0, 4], 0.16666666673910327]_x000D_
+[[1, 4], 0.16666666673910327]_x000D_
+[[3, 4], 0.16666666673910327]_x000D_
+[[4, 6], 0.16666666673910327]_x000D_
+[[0, 6], 0.16666666630448362]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.16666666666666666]_x000D_
+[[0, 4], 0.16666666666666666]_x000D_
+[[0, 6], 0.16666666666666666]_x000D_
+[[1, 4], 0.16666666666666666]_x000D_
+[[3, 4], 0.16666666666666666]_x000D_
+[[4, 6], 0.16666666666666666]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 5]_x000D_
+[2, 4]_x000D_
+[2, 6]_x000D_
+[3, 4]_x000D_
+[3, 6]_x000D_
+[5, 6]_x000D_
+[0, 1, 3]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.25125299957014363]_x000D_
+[[2, 6], 0.25125299957014363]_x000D_
+[[3, 6], 0.25125299957014363]_x000D_
+[[0, 1, 3], 0.0628132498925359]_x000D_
+[[2, 4], 0.06281323910621486]_x000D_
+[[5, 6], 0.0628132391061771]_x000D_
+[[3, 4], 0.03721886786889116]_x000D_
+[[0, 5], 0.02058240531575004]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.2603569714134883]_x000D_
+[[2, 6], 0.2603569714134883]_x000D_
+[[3, 6], 0.2603569714134883]_x000D_
+[[0, 1, 3], 0.0649278247228065]_x000D_
+[[2, 4], 0.058271781980177295]_x000D_
+[[5, 6], 0.058271781980177274]_x000D_
+[[3, 4], 0.036599586941100264]_x000D_
+[[0, 5], 0.0008581101352739482]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 3]_x000D_
+[1, 2]_x000D_
 [1, 3]_x000D_
-[3, 5]_x000D_
-[2, 3, 4]_x000D_
-[2, 3, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.20000000009043092]_x000D_
-[[3, 5], 0.20000000009043092]_x000D_
-[[2, 3, 4], 0.20000000009043092]_x000D_
-[[2, 3, 6], 0.20000000009043092]_x000D_
-[[1, 3], 0.1999999996382763]</t>
-  </si>
-  <si>
-    <t>DMRSD_I1D1R1</t>
-  </si>
-  <si>
-    <t>[[1, 3], 0.33254176053908135]_x000D_
-[[2, 3, 4], 0.33254176053908135]_x000D_
-[[2, 3, 6], 0.33254176053908135]_x000D_
-[[0, 1], 0.001644035803446386]_x000D_
-[[3, 5], 0.000730682579309505]</t>
+[2, 6]_x000D_
+[3, 6]_x000D_
+[4, 6]_x000D_
+[5, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.22923499223982116]_x000D_
+[[0, 3], 0.22923499223982116]_x000D_
+[[1, 2], 0.22923499223982116]_x000D_
+[[1, 3], 0.22923499223982116]_x000D_
+[[2, 6], 0.03395727375948018]_x000D_
+[[3, 6], 0.033957273749566905]_x000D_
+[[5, 6], 0.01448113179096603]_x000D_
+[[4, 6], 0.0006643517407022861]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.2331782283925103]_x000D_
+[[0, 3], 0.2331782283925103]_x000D_
+[[1, 2], 0.2331782283925103]_x000D_
+[[1, 3], 0.2331782283925103]_x000D_
+[[2, 6], 0.032778944986534296]_x000D_
+[[3, 6], 0.032778944986534296]_x000D_
+[[5, 6], 0.0011527976379268393]_x000D_
+[[4, 6], 0.0005763988189634196]</t>
   </si>
   <si>
     <t>[4]_x000D_
-[0, 1]_x000D_
 [0, 2]_x000D_
 [0, 3]_x000D_
 [0, 5]_x000D_
-[0, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.5265198093552185]_x000D_
-[[0, 5], 0.1316299523388046]_x000D_
-[[0, 6], 0.13162995233880456]_x000D_
-[[0, 3], 0.1316299435957075]_x000D_
-[[0, 2], 0.07800013388345149]_x000D_
-[[4], 0.0005902084880133438]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.5319514952681127]_x000D_
-[[0, 5], 0.13288028175289432]_x000D_
-[[0, 6], 0.13288028175289432]_x000D_
-[[0, 3], 0.12717548815587376]_x000D_
-[[0, 2], 0.07459296918812722]_x000D_
-[[4], 0.0005194838820977663]</t>
+[0, 6]_x000D_
+[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[[4], 0.27411327107866273]_x000D_
+[[0, 2], 0.27411327107866273]_x000D_
+[[0, 3], 0.27411327107866273]_x000D_
+[[0, 5], 0.06852831759967763]_x000D_
+[[0, 6], 0.06852831562763552]_x000D_
+[[1, 2, 3], 0.04060355353669863]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.441039746545707]_x000D_
+[[0, 3], 0.441039746545707]_x000D_
+[[0, 6], 0.11006943630179782]_x000D_
+[[1, 2, 3], 0.0048361504643858666]_x000D_
+[[4], 0.001722811509944168]_x000D_
+[[0, 5], 0.001292108632458126]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[2]_x000D_
+[6]_x000D_
+[3, 4]</t>
+  </si>
+  <si>
+    <t>[[0], 0.3326482717453131]_x000D_
+[[2], 0.3326482717453131]_x000D_
+[[6], 0.3326482717453131]_x000D_
+[[3, 4], 0.002055184764060685]</t>
+  </si>
+  <si>
+    <t>[[3, 4], 0.34521155203873716]_x000D_
+[[0], 0.2182628159870876]_x000D_
+[[2], 0.2182628159870876]_x000D_
+[[6], 0.2182628159870876]</t>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 5]_x000D_
+[1, 4]_x000D_
+[2, 4]_x000D_
+[0, 3, 4]_x000D_
+[3, 4, 6]_x000D_
+[3, 4, 7]_x000D_
+[4, 5, 6]_x000D_
+[4, 5, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.3437732041428882]_x000D_
+[[1, 4], 0.3437732041428882]_x000D_
+[[4, 5, 6], 0.08594330103572205]_x000D_
+[[0, 5], 0.05092936357672418]_x000D_
+[[2, 4], 0.05092936357672418]_x000D_
+[[0, 3, 4], 0.05092934331142756]_x000D_
+[[3, 4, 6], 0.05092905895358071]_x000D_
+[[4, 5, 7], 0.021485811941118732]_x000D_
+[[3, 4, 7], 0.001307349318926292]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.40920916976578825]_x000D_
+[[1, 4], 0.40920916976578825]_x000D_
+[[4, 5, 6], 0.10168996877250196]_x000D_
+[[0, 3, 4], 0.06062341280246422]_x000D_
+[[4, 5, 7], 0.005297987307906857]_x000D_
+[[0, 5], 0.004439743560233504]_x000D_
+[[2, 4], 0.004439743560233504]_x000D_
+[[3, 4, 6], 0.003713994438024135]_x000D_
+[[3, 4, 7], 0.0013768100270592698]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
+[0, 3]_x000D_
+[0, 5]_x000D_
+[0, 7]_x000D_
+[1, 4]_x000D_
+[2, 3]_x000D_
+[2, 4]_x000D_
+[2, 7]_x000D_
+[1, 3, 5]_x000D_
+[3, 4, 6]_x000D_
+[3, 5, 6]_x000D_
+[4, 5, 6]_x000D_
+[4, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.5843171646906116]_x000D_
+[[0, 7], 0.14607928899295503]_x000D_
+[[0, 5], 0.08656394213283027]_x000D_
+[[0, 3], 0.08656230624718117]_x000D_
+[[0, 2], 0.08655909067567753]_x000D_
+[[4, 6, 7], 0.0015548069295382614]_x000D_
+[[2, 4], 0.001470908783447924]_x000D_
+[[2, 7], 0.0013695045289110535]_x000D_
+[[1, 4], 0.0012605270360997387]_x000D_
+[[3, 4, 6], 0.0011406659252713707]_x000D_
+[[2, 3], 0.0009881950085182454]_x000D_
+[[4, 5, 6], 0.0009812832513066562]_x000D_
+[[3, 5, 6], 0.0006485332632738185]_x000D_
+[[1, 3, 5], 0.0005037825343772375]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.7034740452984805]_x000D_
+[[0, 7], 0.17411981626433148]_x000D_
+[[0, 2], 0.10085889051360312]_x000D_
+[[0, 3], 0.006948787510896712]_x000D_
+[[0, 5], 0.003091438675628088]_x000D_
+[[4, 6, 7], 0.0018033392274497179]_x000D_
+[[2, 4], 0.0017389342550407994]_x000D_
+[[2, 7], 0.001545719337814044]_x000D_
+[[1, 4], 0.0013739727447235946]_x000D_
+[[3, 4, 6], 0.0013525044205872886]_x000D_
+[[2, 3], 0.001159289503360533]_x000D_
+[[4, 5, 6], 0.001159289503360533]_x000D_
+[[3, 5, 6], 0.000772859668907022]_x000D_
+[[1, 3, 5], 0.0006011130758165727]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
+[1, 3]_x000D_
+[1, 4]_x000D_
+[2, 3]_x000D_
+[2, 4]_x000D_
+[3, 5]_x000D_
+[4, 5]_x000D_
+[0, 5, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.6996878473786059]_x000D_
+[[1, 4], 0.17492193972291437]_x000D_
+[[1, 3], 0.10364985249895936]_x000D_
+[[0, 2], 0.011101488675911585]_x000D_
+[[2, 4], 0.0028073222089444374]_x000D_
+[[4, 5], 0.002721228402454179]_x000D_
+[[0, 5, 7], 0.002568174009929294]_x000D_
+[[2, 3], 0.0013278519823652433]_x000D_
+[[3, 5], 0.0012142951199157468]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.7896000825005199]_x000D_
+[[1, 4], 0.18687455614420456]_x000D_
+[[1, 3], 0.008669756775759797]_x000D_
+[[0, 2], 0.003903662517245002]_x000D_
+[[2, 4], 0.002927746887933752]_x000D_
+[[0, 5, 7], 0.002656659213125071]_x000D_
+[[4, 5], 0.002602441678163335]_x000D_
+[[2, 3], 0.001463873443966876]_x000D_
+[[3, 5], 0.0013012208390816675]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[1, 3, 6]_x000D_
+[2, 3, 6]_x000D_
+[2, 6, 7]_x000D_
+[3, 4, 6]_x000D_
+[3, 5, 6]_x000D_
+[4, 6, 7]_x000D_
+[5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0], 0.99268061247902]_x000D_
+[[1, 3, 6], 0.003548631081621504]_x000D_
+[[3, 4, 6], 0.00083963031793393]_x000D_
+[[3, 5, 6], 0.00083963031793393]_x000D_
+[[2, 3, 6], 0.0007203090642599508]_x000D_
+[[4, 6, 7], 0.0004799843029583175]_x000D_
+[[5, 6, 7], 0.0004799843029583175]_x000D_
+[[2, 6, 7], 0.00041121813331389815]</t>
+  </si>
+  <si>
+    <t>[[0], 0.35359116022099446]_x000D_
+[[1, 3, 6], 0.30455801104972374]_x000D_
+[[3, 4, 6], 0.07613950276243094]_x000D_
+[[3, 5, 6], 0.07613950276243094]_x000D_
+[[2, 3, 6], 0.06526243093922653]_x000D_
+[[4, 6, 7], 0.04350828729281768]_x000D_
+[[5, 6, 7], 0.04350828729281768]_x000D_
+[[2, 6, 7], 0.03729281767955801]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[1, 3]_x000D_
+[0, 2, 7]_x000D_
+[1, 2, 5]_x000D_
+[1, 2, 6]_x000D_
+[1, 4, 5]_x000D_
+[1, 4, 6]_x000D_
+[2, 3, 7]_x000D_
+[2, 5, 7]_x000D_
+[2, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.23735928144488316]_x000D_
+[[1, 2, 5], 0.23735928144488316]_x000D_
+[[1, 4, 5], 0.23735928144488316]_x000D_
+[[2, 5, 7], 0.059339820361220784]_x000D_
+[[1, 2, 6], 0.059339819964118724]_x000D_
+[[0, 2, 7], 0.059339547371245874]_x000D_
+[[1, 4, 6], 0.0592587995029785]_x000D_
+[[1, 3], 0.03516433799183455]_x000D_
+[[2, 3, 7], 0.014834812194658134]_x000D_
+[[2, 6, 7], 0.0006450182792940802]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.26571488516539943]_x000D_
+[[1, 2, 5], 0.26571488516539943]_x000D_
+[[1, 4, 5], 0.26571488516539943]_x000D_
+[[2, 5, 7], 0.06642026341865691]_x000D_
+[[0, 2, 7], 0.06636925921443566]_x000D_
+[[1, 2, 6], 0.06635900678033942]_x000D_
+[[1, 4, 6], 0.0011920192907505407]_x000D_
+[[2, 3, 7], 0.0010430168794067231]_x000D_
+[[1, 3], 0.000875769274837132]_x000D_
+[[2, 6, 7], 0.0005960096453752704]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[1, 3]</t>
+  </si>
+  <si>
+    <t>[[0], 0.5]_x000D_
+[[1, 3], 0.5]</t>
+  </si>
+  <si>
+    <t>[[1, 3], 0.9980506822612085]_x000D_
+[[0], 0.001949317738791423]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[1, 3]_x000D_
+[1, 4]_x000D_
+[1, 6]_x000D_
+[1, 7]_x000D_
+[6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.19047619069703223]_x000D_
+[[1, 4], 0.19047619069703223]_x000D_
+[[1, 6], 0.19047619069703223]_x000D_
+[[1, 7], 0.19047619069703223]_x000D_
+[[6, 7], 0.19047619069703223]_x000D_
+[[1, 3], 0.04761904651483885]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.19986825090882476]_x000D_
+[[1, 4], 0.19986825090882476]_x000D_
+[[1, 6], 0.19986825090882476]_x000D_
+[[1, 7], 0.19986825090882476]_x000D_
+[[6, 7], 0.19986825090882476]_x000D_
+[[1, 3], 0.0006587454558762535]</t>
+  </si>
+  <si>
+    <t>[1]_x000D_
+[4]</t>
+  </si>
+  <si>
+    <t>[[1], 0.9976471784035029]_x000D_
+[[4], 0.0023528215964971812]</t>
+  </si>
+  <si>
+    <t>[[1], 0.9980506822612085]_x000D_
+[[4], 0.001949317738791423]</t>
   </si>
   <si>
     <t>[1]_x000D_
 [0, 2]_x000D_
+[0, 4]_x000D_
+[0, 5]_x000D_
+[0, 7]_x000D_
+[2, 4]_x000D_
+[2, 6]_x000D_
+[2, 7]_x000D_
+[3, 4]_x000D_
+[4, 6]_x000D_
+[4, 7]_x000D_
+[5, 6]_x000D_
+[5, 7]</t>
+  </si>
+  <si>
+    <t>[[1], 0.22252233186745113]_x000D_
+[[0, 4], 0.22252233186745113]_x000D_
+[[0, 5], 0.22252233186745113]_x000D_
+[[4, 7], 0.05563058296686277]_x000D_
+[[3, 4], 0.055630577575378315]_x000D_
+[[2, 4], 0.055630573413940884]_x000D_
+[[4, 6], 0.05563057341392457]_x000D_
+[[5, 6], 0.032962907039864535]_x000D_
+[[0, 2], 0.032962907039620716]_x000D_
+[[0, 7], 0.019393270334356554]_x000D_
+[[5, 7], 0.019393270300888023]_x000D_
+[[2, 7], 0.004188527011297457]_x000D_
+[[2, 6], 0.0010098153015127606]</t>
+  </si>
+  <si>
+    <t>[[0, 4], 0.28398464348014474]_x000D_
+[[0, 5], 0.28398464348014474]_x000D_
+[[3, 4], 0.07076006035905005]_x000D_
+[[4, 7], 0.06649169735562807]_x000D_
+[[2, 4], 0.06356000817167307]_x000D_
+[[4, 6], 0.06356000817167307]_x000D_
+[[0, 7], 0.042069171849867915]_x000D_
+[[5, 7], 0.042069171849867915]_x000D_
+[[0, 2], 0.039921038382652096]_x000D_
+[[5, 6], 0.039921038382652096]_x000D_
+[[2, 7], 0.00207087839928888]_x000D_
+[[2, 6], 0.001052982610560229]_x000D_
+[[1], 0.0005546575067971577]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 7]_x000D_
+[1, 2]_x000D_
+[1, 3]_x000D_
+[0, 2, 6]_x000D_
+[0, 3, 6]_x000D_
+[0, 4, 6]_x000D_
+[0, 5, 6]_x000D_
+[2, 4, 6]_x000D_
+[2, 4, 7]_x000D_
+[3, 4, 6]_x000D_
+[3, 4, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.4111811797976197]_x000D_
+[[1, 2], 0.4111811797976197]_x000D_
+[[1, 3], 0.10279528812157047]_x000D_
+[[0, 2, 6], 0.06091567010649944]_x000D_
+[[0, 4, 6], 0.0023491878913195906]_x000D_
+[[0, 3, 6], 0.0023491878896824323]_x000D_
+[[2, 4, 7], 0.0022783149245108806]_x000D_
+[[2, 4, 6], 0.001967056734696717]_x000D_
+[[0, 7], 0.0016859117247782465]_x000D_
+[[0, 5, 6], 0.0013308467086465127]_x000D_
+[[3, 4, 7], 0.0010564928949903928]_x000D_
+[[3, 4, 6], 0.0009096834080660591]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.4375192823230934]_x000D_
+[[1, 2], 0.4375192823230934]_x000D_
+[[1, 3], 0.1045992516272608]_x000D_
+[[0, 2, 6], 0.006291796037530541]_x000D_
+[[0, 3, 6], 0.002499664510463933]_x000D_
+[[0, 4, 6], 0.002499664510463933]_x000D_
+[[2, 4, 7], 0.0024242517915234415]_x000D_
+[[2, 4, 6], 0.0018926500936675564]_x000D_
+[[0, 7], 0.001442019118984805]_x000D_
+[[0, 5, 6], 0.0012617667291117043]_x000D_
+[[3, 4, 7], 0.0011040458879727412]_x000D_
+[[3, 4, 6], 0.0009463250468337782]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[1, 2]_x000D_
+[1, 4]_x000D_
+[1, 5]_x000D_
+[1, 6]_x000D_
+[2, 4]_x000D_
+[3, 4]_x000D_
+[4, 7]_x000D_
+[4, 8]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.12497762009623892]_x000D_
+[[1, 4], 0.12497762009623892]_x000D_
+[[1, 5], 0.12497762009623892]_x000D_
+[[1, 6], 0.12497762009623892]_x000D_
+[[2, 4], 0.12497762009623892]_x000D_
+[[4, 7], 0.12497762009623892]_x000D_
+[[4, 8], 0.12497762009623892]_x000D_
+[[3, 4], 0.12497761977033256]_x000D_
+[[0], 0.00017903955599489832]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.14273642026397176]_x000D_
+[[1, 4], 0.14273642026397176]_x000D_
+[[1, 5], 0.14273642026397176]_x000D_
+[[1, 6], 0.14273642026397176]_x000D_
+[[2, 4], 0.14273642026397176]_x000D_
+[[3, 4], 0.14273642026397176]_x000D_
+[[4, 7], 0.14273642026397176]_x000D_
+[[4, 8], 0.0007056671167835519]_x000D_
+[[0], 0.00013939103541403493]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 5]_x000D_
+[0, 6]_x000D_
+[0, 7]_x000D_
+[2, 8]_x000D_
+[7, 8]_x000D_
+[1, 5, 8]_x000D_
+[1, 6, 8]_x000D_
+[3, 5, 8]_x000D_
+[3, 6, 8]_x000D_
+[4, 5, 8]_x000D_
+[4, 6, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.21807168620345674]_x000D_
+[[0, 6], 0.21807168620345674]_x000D_
+[[2, 8], 0.21807168584986225]_x000D_
+[[3, 6, 8], 0.05451792155086418]_x000D_
+[[4, 6, 8], 0.05451792155086418]_x000D_
+[[1, 6, 8], 0.05451792155086417]_x000D_
+[[0, 7], 0.05451791874155011]_x000D_
+[[0, 5], 0.05451791626723215]_x000D_
+[[7, 8], 0.03230691647458618]_x000D_
+[[4, 5, 8], 0.013629480316976018]_x000D_
+[[3, 5, 8], 0.01362947264519766]_x000D_
+[[1, 5, 8], 0.013629472645089553]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.24761469621990917]_x000D_
+[[0, 6], 0.24761469621990917]_x000D_
+[[2, 8], 0.24761469621990917]_x000D_
+[[4, 6, 8], 0.0618957923227355]_x000D_
+[[1, 6, 8], 0.06182005047497999]_x000D_
+[[0, 5], 0.06169781096467507]_x000D_
+[[3, 6, 8], 0.061231418960956865]_x000D_
+[[1, 5, 8], 0.0033006183229158355]_x000D_
+[[3, 5, 8], 0.0033006183229158355]_x000D_
+[[4, 5, 8], 0.0018693197451602952]_x000D_
+[[0, 7], 0.0012241693355598538]_x000D_
+[[7, 8], 0.0008161128903732358]</t>
+  </si>
+  <si>
+    <t>[2]_x000D_
+[0, 1]_x000D_
 [0, 3]_x000D_
+[0, 5]_x000D_
+[0, 7]_x000D_
+[0, 8]</t>
+  </si>
+  <si>
+    <t>[[2], 0.2666666711632509]_x000D_
+[[0, 7], 0.2666666711632509]_x000D_
+[[0, 8], 0.2666666711632509]_x000D_
+[[0, 5], 0.06666666779081272]_x000D_
+[[0, 1], 0.06666665935972446]_x000D_
+[[0, 3], 0.06666665935971028]</t>
+  </si>
+  <si>
+    <t>[[0, 7], 0.3666974540754738]_x000D_
+[[0, 8], 0.3666974540754738]_x000D_
+[[0, 5], 0.09160019559877129]_x000D_
+[[0, 1], 0.08678624216014932]_x000D_
+[[0, 3], 0.08678624216014932]_x000D_
+[[2], 0.0014324119299823196]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 6]_x000D_
+[0, 7]_x000D_
+[1, 2, 4]_x000D_
+[1, 2, 6]_x000D_
+[1, 3, 6]_x000D_
+[2, 4, 7]_x000D_
+[2, 4, 8]_x000D_
+[2, 6, 7]_x000D_
+[2, 6, 8]_x000D_
+[3, 4, 7]_x000D_
+[3, 6, 7]_x000D_
+[3, 6, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.10208005718421855]_x000D_
+[[0, 6], 0.10208005718421855]_x000D_
+[[0, 7], 0.10208005718421855]_x000D_
+[[1, 2, 4], 0.10208005718421855]_x000D_
+[[1, 2, 6], 0.10208005718421855]_x000D_
+[[2, 4, 7], 0.10208005718421855]_x000D_
+[[2, 4, 8], 0.10208005718421855]_x000D_
+[[2, 6, 7], 0.10208005718421855]_x000D_
+[[2, 6, 8], 0.10208005718421855]_x000D_
+[[1, 3, 6], 0.025520014296054633]_x000D_
+[[3, 6, 8], 0.025520014296054633]_x000D_
+[[3, 4, 7], 0.015122118285142365]_x000D_
+[[3, 6, 7], 0.015117338464781381]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.11552508951113456]_x000D_
+[[0, 6], 0.11552508951113456]_x000D_
+[[1, 2, 4], 0.11552508951113456]_x000D_
+[[1, 2, 6], 0.11552508951113456]_x000D_
+[[2, 4, 7], 0.11552508951113456]_x000D_
+[[2, 4, 8], 0.11552508951113456]_x000D_
+[[2, 6, 7], 0.11552508951113456]_x000D_
+[[2, 6, 8], 0.11552508951113456]_x000D_
+[[3, 6, 8], 0.028733465269937523]_x000D_
+[[1, 3, 6], 0.02859674262335082]_x000D_
+[[3, 6, 7], 0.017052606509710824]_x000D_
+[[3, 4, 7], 0.0009087908919086516]_x000D_
+[[0, 7], 0.0005076786160157281]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
 [0, 4]_x000D_
 [0, 5]_x000D_
 [0, 6]_x000D_
 [2, 3]_x000D_
-[2, 4]_x000D_
-[2, 5]_x000D_
-[2, 6]_x000D_
+[3, 4]_x000D_
+[1, 3, 6]_x000D_
+[3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.125]_x000D_
+[[0, 4], 0.125]_x000D_
+[[0, 5], 0.125]_x000D_
+[[0, 6], 0.125]_x000D_
+[[2, 3], 0.125]_x000D_
+[[3, 4], 0.125]_x000D_
+[[1, 3, 6], 0.125]_x000D_
+[[3, 5, 6], 0.125]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.16639246034164076]_x000D_
+[[0, 4], 0.16639246034164076]_x000D_
+[[0, 6], 0.16639246034164076]_x000D_
+[[2, 3], 0.16639246034164076]_x000D_
+[[1, 3, 6], 0.16639246034164076]_x000D_
+[[3, 5, 6], 0.16639246034164076]_x000D_
+[[0, 5], 0.0008226189750776918]_x000D_
+[[3, 4], 0.0008226189750776918]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 3]_x000D_
+[0, 7]_x000D_
+[1, 3]_x000D_
 [3, 4]_x000D_
 [3, 5]_x000D_
 [3, 6]_x000D_
-[4, 6]</t>
-  </si>
-  <si>
-    <t>[[1], 0.5605646689880881]_x000D_
-[[0, 4], 0.1401411444208711]_x000D_
-[[0, 3], 0.08304046320222694]_x000D_
-[[0, 6], 0.08304046320154324]_x000D_
-[[0, 5], 0.059107350349791]_x000D_
-[[0, 2], 0.059107350346807676]_x000D_
-[[3, 4], 0.0045468714970259266]_x000D_
-[[4, 6], 0.0045468714970259266]_x000D_
-[[3, 6], 0.0021049059123660254]_x000D_
-[[2, 4], 0.0014676667150998962]_x000D_
-[[3, 5], 0.0007004327807446103]_x000D_
-[[2, 3], 0.0007004327806650317]_x000D_
-[[2, 6], 0.0007004327806650316]_x000D_
-[[2, 5], 0.00023094552707944303]</t>
-  </si>
-  <si>
-    <t>[[1], 0.639034329472981]_x000D_
-[[0, 4], 0.15445852426966497]_x000D_
-[[0, 3], 0.091620002047698]_x000D_
-[[0, 6], 0.091620002047698]_x000D_
-[[3, 4], 0.005183357321421162]_x000D_
-[[4, 6], 0.005183357321421162]_x000D_
-[[0, 2], 0.0031592883720282876]_x000D_
-[[0, 5], 0.0031592883720282876]_x000D_
-[[3, 6], 0.0023694662790212156]_x000D_
-[[2, 4], 0.0015796441860141438]_x000D_
-[[2, 3], 0.0007898220930070719]_x000D_
-[[2, 6], 0.0007898220930070719]_x000D_
-[[3, 5], 0.0007898220930070719]_x000D_
-[[2, 5], 0.0002632740310023573]</t>
+[3, 7]_x000D_
+[3, 8]_x000D_
+[1, 2, 4]_x000D_
+[1, 2, 6]_x000D_
+[1, 4, 7]_x000D_
+[1, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.1525422909414012]_x000D_
+[[0, 3], 0.1525422909414012]_x000D_
+[[0, 7], 0.1525422909414012]_x000D_
+[[3, 4], 0.1525422909414012]_x000D_
+[[3, 7], 0.1525422909414012]_x000D_
+[[3, 8], 0.038135572640753096]_x000D_
+[[3, 5], 0.03813557154332105]_x000D_
+[[3, 6], 0.03813557020231748]_x000D_
+[[1, 2, 4], 0.0381355680284147]_x000D_
+[[1, 3], 0.0381355679124776]_x000D_
+[[1, 4, 7], 0.03813551487275732]_x000D_
+[[1, 6, 7], 0.004677177718830525]_x000D_
+[[1, 2, 6], 0.003798002374122382]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.1600316497221386]_x000D_
+[[0, 3], 0.1600316497221386]_x000D_
+[[0, 7], 0.1600316497221386]_x000D_
+[[3, 4], 0.1600316497221386]_x000D_
+[[3, 7], 0.1600316497221386]_x000D_
+[[3, 5], 0.03993878922097801]_x000D_
+[[1, 2, 4], 0.0396831857625694]_x000D_
+[[1, 4, 7], 0.039315048850596876]_x000D_
+[[3, 6], 0.038259321300610244]_x000D_
+[[1, 3], 0.03787467120842122]_x000D_
+[[1, 6, 7], 0.002336244092861384]_x000D_
+[[1, 2, 6], 0.0019656482294745123]_x000D_
+[[3, 8], 0.00046884272379532795]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 7]_x000D_
+[1, 2]_x000D_
+[1, 7]_x000D_
+[2, 4, 5]_x000D_
+[2, 4, 8]_x000D_
+[3, 5, 7]_x000D_
+[3, 7, 8]_x000D_
+[2, 5, 6, 7]_x000D_
+[2, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.3969227607920974]_x000D_
+[[1, 2], 0.3969227607920974]_x000D_
+[[0, 7], 0.09923068988367906]_x000D_
+[[1, 7], 0.09923068988367906]_x000D_
+[[2, 4, 8], 0.002404182544694715]_x000D_
+[[2, 6, 7, 8], 0.0019419632496205685]_x000D_
+[[2, 4, 5], 0.00108542267329679]_x000D_
+[[2, 5, 6, 7], 0.0009170902103261478]_x000D_
+[[3, 7, 8], 0.0009047610276474705]_x000D_
+[[3, 5, 7], 0.00043967894286119335]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.3971010013141342]_x000D_
+[[1, 2], 0.3971010013141342]_x000D_
+[[0, 7], 0.09919691443219569]_x000D_
+[[1, 7], 0.09919691443219569]_x000D_
+[[2, 4, 8], 0.002405262164503172]_x000D_
+[[2, 6, 7, 8], 0.0017814284421746134]_x000D_
+[[2, 4, 5], 0.0010179591098140647]_x000D_
+[[2, 5, 6, 7], 0.0008907142210873067]_x000D_
+[[3, 7, 8], 0.000872536379840627]_x000D_
+[[3, 5, 7], 0.0004362681899203135]</t>
   </si>
   <si>
     <t>[0, 1]_x000D_
 [0, 2]_x000D_
-[2, 6]_x000D_
-[5, 6]_x000D_
+[1, 8]_x000D_
 [0, 3, 5]_x000D_
-[0, 4, 5]_x000D_
-[1, 3, 4]_x000D_
-[1, 3, 6]_x000D_
-[2, 3, 4]_x000D_
-[3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.10000000002260773]_x000D_
-[[2, 6], 0.10000000002260773]_x000D_
-[[5, 6], 0.10000000002260773]_x000D_
-[[0, 3, 5], 0.10000000002260773]_x000D_
-[[0, 4, 5], 0.10000000002260773]_x000D_
-[[1, 3, 4], 0.10000000002260773]_x000D_
-[[1, 3, 6], 0.10000000002260773]_x000D_
-[[2, 3, 4], 0.10000000002260773]_x000D_
-[[3, 4, 5], 0.10000000002260773]_x000D_
-[[0, 2], 0.09999999979653042]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.12484569547525794]_x000D_
-[[2, 6], 0.12484569547525794]_x000D_
-[[0, 3, 5], 0.12484569547525794]_x000D_
-[[0, 4, 5], 0.12484569547525794]_x000D_
-[[1, 3, 4], 0.12484569547525794]_x000D_
-[[1, 3, 6], 0.12484569547525794]_x000D_
-[[2, 3, 4], 0.12484569547525794]_x000D_
-[[3, 4, 5], 0.12484569547525794]_x000D_
-[[0, 1], 0.0006172180989682551]_x000D_
-[[5, 6], 0.0006172180989682551]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
+[0, 3, 6]_x000D_
+[0, 5, 7]_x000D_
+[0, 6, 7]_x000D_
+[2, 4, 8]_x000D_
+[2, 6, 8]_x000D_
+[3, 6, 8]_x000D_
+[3, 4, 5, 8]_x000D_
+[4, 5, 7, 8]_x000D_
+[4, 6, 7, 8]_x000D_
+[5, 6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.34451955165324055]_x000D_
+[[0, 3, 5], 0.08612988791331014]_x000D_
+[[2, 6, 8], 0.08612988791331012]_x000D_
+[[0, 3, 6], 0.08612988791331011]_x000D_
+[[0, 5, 7], 0.08608445891348873]_x000D_
+[[0, 6, 7], 0.08608445886125952]_x000D_
+[[2, 4, 8], 0.08598400224373515]_x000D_
+[[0, 1], 0.05103472475361955]_x000D_
+[[3, 4, 5, 8], 0.02153246949495532]_x000D_
+[[4, 6, 7, 8], 0.021532465629062893]_x000D_
+[[4, 5, 7, 8], 0.021532465629016256]_x000D_
+[[5, 6, 7, 8], 0.021532308666416013]_x000D_
+[[3, 6, 8], 0.0013524392134053986]_x000D_
+[[1, 8], 0.00042099120187040034]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.4104014635576511]_x000D_
+[[0, 3, 5], 0.1025941033970528]_x000D_
+[[0, 5, 7], 0.10257032847661228]_x000D_
+[[0, 6, 7], 0.10257032847661228]_x000D_
+[[2, 6, 8], 0.10219628152122871]_x000D_
+[[0, 3, 6], 0.10204115046444007]_x000D_
+[[0, 1], 0.0576920370700505]_x000D_
+[[2, 4, 8], 0.004797417049088422]_x000D_
+[[3, 4, 5, 8], 0.003898881633263079]_x000D_
+[[5, 6, 7, 8], 0.0036706947348774215]_x000D_
+[[4, 5, 7, 8], 0.0028678057651692016]_x000D_
+[[4, 6, 7, 8], 0.0028678057651692016]_x000D_
+[[3, 6, 8], 0.0013808215746225292]_x000D_
+[[1, 8], 0.0004508805141624585]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
 [0, 3]_x000D_
-[0, 6]_x000D_
-[2, 6]_x000D_
-[3, 6]_x000D_
-[4, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.4120119455150796]_x000D_
-[[0, 3], 0.4120119455150796]_x000D_
-[[0, 6], 0.10300298637876988]_x000D_
-[[3, 6], 0.04345416738973223]_x000D_
-[[4, 6], 0.027595658950569032]_x000D_
-[[2, 6], 0.0019232962507696157]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.42636120200938005]_x000D_
-[[0, 3], 0.42636120200938005]_x000D_
-[[0, 6], 0.09982751060330346]_x000D_
-[[3, 6], 0.04446394353647056]_x000D_
-[[2, 6], 0.0015808986219525048]_x000D_
-[[4, 6], 0.0014052432195133377]</t>
-  </si>
-  <si>
-    <t>[1]_x000D_
-[4]_x000D_
-[6]_x000D_
-[0, 5]_x000D_
-[2, 3]_x000D_
-[2, 5]_x000D_
-[3, 5]</t>
-  </si>
-  <si>
-    <t>[[1], 0.8809162868166983]_x000D_
-[[0, 5], 0.0811530088777502]_x000D_
-[[2, 5], 0.022065302341239882]_x000D_
-[[2, 3], 0.005442522585412874]_x000D_
-[[3, 5], 0.0054425225854128735]_x000D_
-[[4], 0.0024901783967430343]_x000D_
-[[6], 0.0024901783967430343]</t>
-  </si>
-  <si>
-    <t>[[0, 5], 0.8051281081308548]_x000D_
-[[2, 5], 0.08387637758323546]_x000D_
-[[3, 5], 0.03400060049778571]_x000D_
-[[2, 3], 0.0340006004977857]_x000D_
-[[1], 0.021497156645169116]_x000D_
-[[4], 0.010748578322584558]_x000D_
-[[6], 0.010748578322584558]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[0, 4]_x000D_
-[0, 5]_x000D_
-[0, 6]_x000D_
-[1, 3]_x000D_
-[1, 6]_x000D_
-[2, 3]_x000D_
-[2, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.35047603290030344]_x000D_
-[[1, 3], 0.35047603290030344]_x000D_
-[[0, 6], 0.08761899395373388]_x000D_
-[[0, 5], 0.051921437301534694]_x000D_
-[[0, 4], 0.05192045609125973]_x000D_
-[[1, 6], 0.05192018068009971]_x000D_
-[[0, 2], 0.051919145088016184]_x000D_
-[[2, 6], 0.0019257302341574713]_x000D_
-[[2, 3], 0.0018219908505913293]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.3916280572215126]_x000D_
-[[1, 3], 0.3916280572215126]_x000D_
-[[0, 6], 0.0946589079665216]_x000D_
-[[1, 6], 0.05710841645842427]_x000D_
-[[0, 2], 0.055729938133785614]_x000D_
-[[0, 4], 0.0038684300737533805]_x000D_
-[[2, 6], 0.001936149452816316]_x000D_
-[[0, 5], 0.0017210217358367254]_x000D_
-[[2, 3], 0.0017210217358367254]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 5]_x000D_
-[1, 4]_x000D_
-[3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[[0, 5], 0.2500000002218852]_x000D_
-[[3, 4, 5], 0.2500000002218852]_x000D_
-[[0, 1], 0.25000000015683305]_x000D_
-[[1, 4], 0.2499999993993966]</t>
-  </si>
-  <si>
-    <t>[[3, 4, 5], 0.9869879518072289]_x000D_
-[[0, 1], 0.004879518072289157]_x000D_
-[[1, 4], 0.004879518072289157]_x000D_
-[[0, 5], 0.003253012048192771]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[6]</t>
-  </si>
-  <si>
-    <t>[[0], 0.5]_x000D_
-[[6], 0.5]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[1, 4]_x000D_
-[1, 6]_x000D_
-[0, 3, 5]_x000D_
-[0, 5, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.19992132268526075]_x000D_
-[[1, 4], 0.19992132268526075]_x000D_
-[[1, 6], 0.19992132268526075]_x000D_
-[[0, 3, 5], 0.19992132268526075]_x000D_
-[[0, 5, 6], 0.19992132268526075]_x000D_
-[[0, 2], 0.0003933865736962775]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.19994142341111001]_x000D_
-[[1, 4], 0.19994142341111001]_x000D_
-[[1, 6], 0.19994142341111001]_x000D_
-[[0, 3, 5], 0.19994142341111001]_x000D_
-[[0, 5, 6], 0.19994142341111001]_x000D_
-[[0, 2], 0.0002928829444498682]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 2, 4]_x000D_
-[2, 3, 4]_x000D_
-[2, 4, 6]_x000D_
-[2, 4, 7]_x000D_
-[3, 4, 7]</t>
-  </si>
-  <si>
-    <t>[[1, 2, 4], 0.19994271349603046]_x000D_
-[[2, 3, 4], 0.19994271349603046]_x000D_
-[[2, 4, 6], 0.19994271349603046]_x000D_
-[[2, 4, 7], 0.19994271349603046]_x000D_
-[[3, 4, 7], 0.19994271349603046]_x000D_
-[[0], 0.00028643251984778156]</t>
-  </si>
-  <si>
-    <t>[[1, 2, 4], 0.19996094512790472]_x000D_
-[[2, 3, 4], 0.19996094512790472]_x000D_
-[[2, 4, 6], 0.19996094512790472]_x000D_
-[[2, 4, 7], 0.19996094512790472]_x000D_
-[[3, 4, 7], 0.19996094512790472]_x000D_
-[[0], 0.00019527436047646945]</t>
-  </si>
-  <si>
-    <t>[2]_x000D_
-[0, 1]_x000D_
-[0, 3]_x000D_
-[0, 4]_x000D_
-[1, 3]_x000D_
-[1, 4]_x000D_
-[1, 7]_x000D_
-[3, 4]_x000D_
-[3, 6]_x000D_
-[3, 7]_x000D_
-[4, 6]_x000D_
-[4, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.46046028038121095]_x000D_
-[[1, 3], 0.11511506035568815]_x000D_
-[[0, 3], 0.1151150603556836]_x000D_
-[[3, 6], 0.06821509331798761]_x000D_
-[[1, 4], 0.06821128245236387]_x000D_
-[[0, 4], 0.06821128245174123]_x000D_
-[[1, 7], 0.0682112824477718]_x000D_
-[[4, 6], 0.028778759999333915]_x000D_
-[[3, 4], 0.0024334729127013953]_x000D_
-[[3, 7], 0.0024334729121850036]_x000D_
-[[4, 7], 0.0017290165080908306]_x000D_
-[[2], 0.0010859359052415867]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.47528771538463]_x000D_
-[[0, 3], 0.11818854312700101]_x000D_
-[[1, 3], 0.11818854312700101]_x000D_
-[[3, 6], 0.0703878555177939]_x000D_
-[[0, 4], 0.06814322712943806]_x000D_
-[[1, 4], 0.06814322712943806]_x000D_
-[[1, 7], 0.06814322712943806]_x000D_
-[[4, 6], 0.006127552477340484]_x000D_
-[[3, 4], 0.00234975005774872]_x000D_
-[[3, 7], 0.00234975005774872]_x000D_
-[[4, 7], 0.00176231254331154]_x000D_
-[[2], 0.0009282963191106055]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1]_x000D_
-[4]_x000D_
-[2, 3]_x000D_
-[2, 5]_x000D_
-[2, 6]_x000D_
-[2, 7]</t>
-  </si>
-  <si>
-    <t>[[0], 0.49375649871012156]_x000D_
-[[1], 0.49375649871012156]_x000D_
-[[2, 6], 0.008260406581600294]_x000D_
-[[2, 7], 0.001854042951904279]_x000D_
-[[2, 5], 0.0012429393054399875]_x000D_
-[[2, 3], 0.0006169551106510355]_x000D_
-[[4], 0.000512658630161226]</t>
-  </si>
-  <si>
-    <t>[[0], 0.49592622707281325]_x000D_
-[[1], 0.49592622707281325]_x000D_
-[[2, 6], 0.003985567325167422]_x000D_
-[[2, 7], 0.0018388377865401248]_x000D_
-[[2, 5], 0.0012258918576934165]_x000D_
-[[2, 3], 0.0006129459288467083]_x000D_
-[[4], 0.0004843029561257942]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1]_x000D_
-[2, 3]_x000D_
-[2, 4]_x000D_
-[2, 5]_x000D_
-[2, 6]_x000D_
-[3, 4]_x000D_
-[3, 7]_x000D_
-[4, 6]_x000D_
-[4, 7]_x000D_
-[5, 7]_x000D_
-[6, 7]</t>
-  </si>
-  <si>
-    <t>[[0], 0.13867824442076937]_x000D_
-[[1], 0.13867824442076937]_x000D_
-[[2, 3], 0.13867824442076937]_x000D_
-[[2, 6], 0.13867824442076937]_x000D_
-[[3, 7], 0.13867824442076937]_x000D_
-[[6, 7], 0.13867824442076937]_x000D_
-[[2, 4], 0.03466956110519234]_x000D_
-[[4, 7], 0.03466956110519234]_x000D_
-[[2, 5], 0.034669557745156364]_x000D_
-[[5, 7], 0.034669557745156364]_x000D_
-[[3, 4], 0.014626147887515602]_x000D_
-[[4, 6], 0.014626147887170773]</t>
-  </si>
-  <si>
-    <t>[[2, 3], 0.1930839547347781]_x000D_
-[[2, 6], 0.1930839547347781]_x000D_
-[[3, 7], 0.1930839547347781]_x000D_
-[[6, 7], 0.1930839547347781]_x000D_
-[[2, 5], 0.04811046162202863]_x000D_
-[[5, 7], 0.04811046162202863]_x000D_
-[[2, 4], 0.045208359596917]_x000D_
-[[4, 7], 0.045208359596917]_x000D_
-[[3, 4], 0.020136152212406826]_x000D_
-[[4, 6], 0.020136152212406826]_x000D_
-[[0], 0.0003771170990913635]_x000D_
-[[1], 0.0003771170990913635]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 2]_x000D_
-[1, 3]_x000D_
-[1, 4]_x000D_
-[2, 6]_x000D_
-[2, 7]_x000D_
-[3, 5, 6]_x000D_
-[3, 5, 7]_x000D_
-[4, 5, 6]_x000D_
-[4, 5, 7]</t>
-  </si>
-  <si>
-    <t>[[0], 0.16906152617381764]_x000D_
-[[1, 2], 0.16906152617381764]_x000D_
-[[1, 3], 0.16906152617381764]_x000D_
-[[2, 6], 0.16906152617381764]_x000D_
-[[3, 5, 6], 0.16906152617381764]_x000D_
-[[2, 7], 0.04226537428562306]_x000D_
-[[1, 4], 0.04226537428560691]_x000D_
-[[3, 5, 7], 0.03247422360083649]_x000D_
-[[4, 5, 6], 0.03247422343961106]_x000D_
-[[4, 5, 7], 0.005213173519234138]</t>
-  </si>
-  <si>
-    <t>[[1, 2], 0.2014226823560659]_x000D_
-[[1, 3], 0.2014226823560659]_x000D_
-[[2, 6], 0.2014226823560659]_x000D_
-[[3, 5, 6], 0.2014226823560659]_x000D_
-[[3, 5, 7], 0.05035566140840874]_x000D_
-[[4, 5, 6], 0.05035566140840874]_x000D_
-[[1, 4], 0.045081407148013494]_x000D_
-[[2, 7], 0.045081407148013494]_x000D_
-[[4, 5, 7], 0.003041729786415297]_x000D_
-[[0], 0.0003934036764766912]</t>
-  </si>
-  <si>
-    <t>[1]_x000D_
-[0, 6]_x000D_
-[2, 6]_x000D_
-[2, 7]_x000D_
-[4, 6]_x000D_
-[5, 6]</t>
-  </si>
-  <si>
-    <t>[[1], 0.40475992276671474]_x000D_
-[[0, 6], 0.40475992276671474]_x000D_
-[[4, 6], 0.05996443300247625]_x000D_
-[[5, 6], 0.05996443300247625]_x000D_
-[[2, 7], 0.03527564423090993]_x000D_
-[[2, 6], 0.03527564423070807]</t>
-  </si>
-  <si>
-    <t>[[0, 6], 0.76445667010613]_x000D_
-[[2, 6], 0.11324576791322553]_x000D_
-[[2, 7], 0.11324576791322553]_x000D_
-[[4, 6], 0.0037793573168088705]_x000D_
-[[5, 6], 0.0037793573168088705]_x000D_
-[[1], 0.0014930794338010353]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 7]_x000D_
-[1, 2]_x000D_
-[1, 4]_x000D_
-[1, 5]_x000D_
-[2, 7]_x000D_
-[4, 7]_x000D_
-[5, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.14281699691957145]_x000D_
-[[0, 7], 0.14281699691957145]_x000D_
-[[1, 2], 0.14281699691957145]_x000D_
-[[1, 4], 0.14281699691957145]_x000D_
-[[1, 5], 0.14281699691957145]_x000D_
-[[4, 7], 0.14281699691957145]_x000D_
-[[2, 7], 0.14281699648687227]_x000D_
-[[5, 7], 0.0002810219956989315]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.1996563532006678]_x000D_
-[[0, 7], 0.1996563532006678]_x000D_
-[[1, 2], 0.1996563532006678]_x000D_
-[[1, 4], 0.1996563532006678]_x000D_
-[[4, 7], 0.1996563532006678]_x000D_
-[[2, 7], 0.0009870705938265438]_x000D_
-[[1, 5], 0.0004386980417006861]_x000D_
-[[5, 7], 0.00029246536113379073]</t>
-  </si>
-  <si>
-    <t>[1]_x000D_
-[0, 6]_x000D_
-[2, 6]_x000D_
-[3, 6]_x000D_
-[4, 6]_x000D_
-[5, 6]_x000D_
-[6, 7]</t>
-  </si>
-  <si>
-    <t>[[1], 0.18881192444970815]_x000D_
-[[0, 6], 0.18881192444970815]_x000D_
-[[2, 6], 0.18881192444970815]_x000D_
-[[3, 6], 0.18881192444970815]_x000D_
-[[5, 6], 0.18881192444970815]_x000D_
-[[4, 6], 0.027970293388014104]_x000D_
-[[6, 7], 0.027970084363445103]</t>
-  </si>
-  <si>
-    <t>[[0, 6], 0.2487667369341921]_x000D_
-[[2, 6], 0.2487667369341921]_x000D_
-[[3, 6], 0.2487667369341921]_x000D_
-[[5, 6], 0.2487667369341921]_x000D_
-[[6, 7], 0.0027314423477374033]_x000D_
-[[4, 6], 0.0012298648493450659]_x000D_
-[[1], 0.0009717450661491879]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
 [0, 7]_x000D_
 [1, 2]_x000D_
 [1, 3]_x000D_
 [1, 4]_x000D_
-[1, 5]_x000D_
-[1, 7]_x000D_
-[2, 5]_x000D_
-[2, 6]_x000D_
-[2, 7]_x000D_
-[3, 6]_x000D_
-[4, 7]_x000D_
-[0, 3, 5]_x000D_
-[3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.06666666667897572]_x000D_
-[[0, 2], 0.06666666667897572]_x000D_
-[[1, 2], 0.06666666667897572]_x000D_
-[[1, 3], 0.06666666667897572]_x000D_
-[[1, 4], 0.06666666667897572]_x000D_
-[[1, 5], 0.06666666667897572]_x000D_
-[[1, 7], 0.06666666667897572]_x000D_
-[[2, 5], 0.06666666667897572]_x000D_
-[[2, 6], 0.06666666667897572]_x000D_
-[[2, 7], 0.06666666667897572]_x000D_
-[[3, 6], 0.06666666667897572]_x000D_
-[[4, 7], 0.06666666667897572]_x000D_
-[[0, 3, 5], 0.06666666667897572]_x000D_
-[[3, 4, 5], 0.06666666667897572]_x000D_
-[[0, 7], 0.0666666664943399]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.08324188107141406]_x000D_
-[[0, 2], 0.08324188107141406]_x000D_
-[[1, 2], 0.08324188107141406]_x000D_
-[[1, 3], 0.08324188107141406]_x000D_
-[[1, 4], 0.08324188107141406]_x000D_
-[[1, 5], 0.08324188107141406]_x000D_
-[[1, 7], 0.08324188107141406]_x000D_
-[[2, 5], 0.08324188107141406]_x000D_
-[[2, 6], 0.08324188107141406]_x000D_
-[[2, 7], 0.08324188107141406]_x000D_
-[[0, 3, 5], 0.08324188107141406]_x000D_
-[[3, 4, 5], 0.08324188107141406]_x000D_
-[[0, 7], 0.00041153517863675164]_x000D_
-[[3, 6], 0.00041153517863675164]_x000D_
-[[4, 7], 0.0002743567857578344]</t>
-  </si>
-  <si>
-    <t>[2]_x000D_
-[0, 1]_x000D_
-[0, 3]_x000D_
-[0, 4]_x000D_
-[0, 5]_x000D_
-[0, 6]_x000D_
-[0, 7]_x000D_
-[3, 7]_x000D_
-[5, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.32906711327631977]_x000D_
-[[0, 4], 0.32906711327631977]_x000D_
-[[0, 3], 0.08226677831907991]_x000D_
-[[0, 5], 0.08226677831907991]_x000D_
-[[0, 6], 0.08226677407983611]_x000D_
-[[0, 7], 0.08226676419220823]_x000D_
-[[3, 7], 0.0061940142401650106]_x000D_
-[[5, 7], 0.0061940142401650106]_x000D_
-[[2], 0.0004106500568259917]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.36865047826963027]_x000D_
-[[0, 4], 0.36865047826963027]_x000D_
-[[0, 3], 0.08631521666355739]_x000D_
-[[0, 5], 0.08631521666355739]_x000D_
-[[0, 7], 0.08250948757004577]_x000D_
-[[3, 7], 0.002688280263962471]_x000D_
-[[5, 7], 0.002688280263962471]_x000D_
-[[0, 6], 0.001822551802968753]_x000D_
-[[2], 0.0003600102326851858]</t>
-  </si>
-  <si>
-    <t>[0, 2]</t>
-  </si>
-  <si>
-    <t>[3]_x000D_
-[0, 1]_x000D_
-[0, 2]_x000D_
-[0, 4]_x000D_
-[0, 6]_x000D_
-[0, 7]_x000D_
-[1, 2]_x000D_
-[1, 4]_x000D_
-[1, 5]_x000D_
 [1, 6]_x000D_
 [1, 7]_x000D_
-[2, 4]_x000D_
 [2, 8]_x000D_
+[3, 8]_x000D_
 [4, 5]_x000D_
 [4, 7]_x000D_
 [4, 8]_x000D_
-[5, 7]_x000D_
-[6, 7]_x000D_
 [6, 8]_x000D_
-[7, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.052627610912036216]_x000D_
-[[0, 4], 0.052627610912036216]_x000D_
-[[0, 7], 0.052627610912036216]_x000D_
-[[1, 2], 0.052627610912036216]_x000D_
-[[1, 4], 0.052627610912036216]_x000D_
-[[1, 5], 0.052627610912036216]_x000D_
-[[1, 6], 0.052627610912036216]_x000D_
-[[1, 7], 0.052627610912036216]_x000D_
-[[2, 4], 0.052627610912036216]_x000D_
-[[2, 8], 0.052627610912036216]_x000D_
-[[4, 5], 0.052627610912036216]_x000D_
-[[4, 7], 0.052627610912036216]_x000D_
-[[4, 8], 0.052627610912036216]_x000D_
-[[5, 7], 0.052627610912036216]_x000D_
-[[6, 7], 0.052627610912036216]_x000D_
-[[6, 8], 0.052627610912036216]_x000D_
-[[7, 8], 0.052627610912036216]_x000D_
-[[0, 2], 0.052627610811316]_x000D_
-[[0, 6], 0.052627610793057125]_x000D_
-[[3], 7.539289101126665e-05]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.06658917438202612]_x000D_
-[[0, 2], 0.06658917438202612]_x000D_
-[[0, 4], 0.06658917438202612]_x000D_
-[[0, 6], 0.06658917438202612]_x000D_
-[[0, 7], 0.06658917438202612]_x000D_
-[[1, 2], 0.06658917438202612]_x000D_
-[[1, 4], 0.06658917438202612]_x000D_
-[[1, 5], 0.06658917438202612]_x000D_
-[[1, 6], 0.06658917438202612]_x000D_
-[[1, 7], 0.06658917438202612]_x000D_
-[[2, 4], 0.06658917438202612]_x000D_
-[[4, 5], 0.06658917438202612]_x000D_
-[[4, 7], 0.06658917438202612]_x000D_
-[[5, 7], 0.06658917438202612]_x000D_
-[[6, 7], 0.06658917438202612]_x000D_
-[[4, 8], 0.0003292067337002024]_x000D_
-[[7, 8], 0.0003292067337002024]_x000D_
-[[2, 8], 0.00021947115580013495]_x000D_
-[[6, 8], 0.00021947115580013495]_x000D_
-[[3], 6.502849060744738e-05]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
+[7, 8]_x000D_
+[0, 5, 6]_x000D_
+[2, 4, 6]_x000D_
+[3, 4, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.21170480239934694]_x000D_
+[[0, 3], 0.21170480239934694]_x000D_
+[[2, 8], 0.21170480239934694]_x000D_
+[[3, 8], 0.21170480239934694]_x000D_
+[[6, 8], 0.031363674429532876]_x000D_
+[[0, 7], 0.031361274597457765]_x000D_
+[[7, 8], 0.031361274594184765]_x000D_
+[[1, 2], 0.01323154800898159]_x000D_
+[[1, 3], 0.01323154800898159]_x000D_
+[[0, 5, 6], 0.013231274262561125]_x000D_
+[[4, 8], 0.013230095775992151]_x000D_
+[[2, 4, 6], 0.0016180207022663546]_x000D_
+[[3, 4, 6], 0.0016180207022663546]_x000D_
+[[1, 7], 0.0008494124857282069]_x000D_
+[[4, 5], 0.0005610264451127609]_x000D_
+[[4, 7], 0.0005610264448955899]_x000D_
+[[1, 6], 0.0005608252950424508]_x000D_
+[[1, 4], 0.00040176864960852105]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.22874958334344553]_x000D_
+[[0, 3], 0.22874958334344553]_x000D_
+[[2, 8], 0.22874958334344553]_x000D_
+[[3, 8], 0.22874958334344553]_x000D_
+[[0, 7], 0.03322372760067597]_x000D_
+[[7, 8], 0.03322372760067597]_x000D_
+[[0, 5, 6], 0.004010775693138668]_x000D_
+[[6, 8], 0.002481834632729356]_x000D_
+[[1, 2], 0.0022327478778758486]_x000D_
+[[1, 3], 0.0022327478778758486]_x000D_
+[[2, 4, 6], 0.0017482908183144108]_x000D_
+[[3, 4, 6], 0.0017482908183144108]_x000D_
+[[4, 8], 0.0011309030914806572]_x000D_
+[[1, 7], 0.000848177318610493]_x000D_
+[[1, 6], 0.0005654515457403286]_x000D_
+[[4, 5], 0.0005654515457403286]_x000D_
+[[4, 7], 0.0005654515457403286]_x000D_
+[[1, 4], 0.0004240886593052465]</t>
+  </si>
+  <si>
+    <t>[6]_x000D_
 [0, 2]_x000D_
-[0, 3]_x000D_
-[0, 6]_x000D_
-[1, 4]_x000D_
-[3, 4]_x000D_
-[4, 5]_x000D_
-[4, 7]_x000D_
-[4, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.2654715839895121]_x000D_
-[[4, 7], 0.2654715839895121]_x000D_
-[[4, 8], 0.2654715826981577]_x000D_
-[[0, 3], 0.03932912355400179]_x000D_
-[[0, 6], 0.03932912355400179]_x000D_
-[[3, 4], 0.03932912355400179]_x000D_
-[[4, 5], 0.039325109853181564]_x000D_
-[[1, 4], 0.02313638452379843]_x000D_
-[[0, 1], 0.02313638428383278]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.2897136607307984]_x000D_
-[[4, 7], 0.2897136607307984]_x000D_
-[[4, 8], 0.2897136607307984]_x000D_
-[[0, 1], 0.0429178621462693]_x000D_
-[[1, 4], 0.0429178621462693]_x000D_
-[[4, 5], 0.0407263929073034]_x000D_
-[[0, 3], 0.0014323002025875655]_x000D_
-[[0, 6], 0.0014323002025875655]_x000D_
-[[3, 4], 0.0014323002025875655]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
+[0, 5]_x000D_
 [1, 2]_x000D_
 [1, 5]_x000D_
-[2, 3]_x000D_
 [2, 4]_x000D_
-[2, 7]_x000D_
-[3, 5]_x000D_
-[3, 6]_x000D_
-[4, 5]_x000D_
-[4, 6]_x000D_
-[5, 7]</t>
-  </si>
-  <si>
-    <t>[[0], 0.5625925075313498]_x000D_
-[[2, 4], 0.14064812354198888]_x000D_
-[[2, 7], 0.1406481235419739]_x000D_
-[[2, 3], 0.08334616380842805]_x000D_
-[[1, 2], 0.05933592812535419]_x000D_
-[[4, 6], 0.0034396586645889576]_x000D_
-[[4, 5], 0.0024961400724619587]_x000D_
-[[5, 7], 0.0024961400721823157]_x000D_
-[[3, 6], 0.002495882969915259]_x000D_
-[[3, 5], 0.001878150509098756]_x000D_
-[[1, 5], 0.0006231811626581447]</t>
-  </si>
-  <si>
-    <t>[[0], 0.5983049664268052]_x000D_
-[[2, 4], 0.14602318849880044]_x000D_
-[[2, 7], 0.14602318849880044]_x000D_
-[[2, 3], 0.0883572740359914]_x000D_
-[[1, 2], 0.007116300441599146]_x000D_
-[[4, 6], 0.0036580026100321754]_x000D_
-[[3, 6], 0.0026292698719927966]_x000D_
-[[4, 5], 0.0026292698719927966]_x000D_
-[[5, 7], 0.0026292698719927966]_x000D_
-[[3, 5], 0.0019719524039945972]_x000D_
-[[1, 5], 0.0006573174679981991]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[2, 8]_x000D_
-[0, 1, 7]_x000D_
-[0, 6, 7]_x000D_
-[1, 2, 5]_x000D_
-[1, 2, 6]_x000D_
-[2, 3, 5]_x000D_
-[2, 3, 6]_x000D_
-[2, 5, 7]_x000D_
-[2, 6, 7]_x000D_
-[3, 6, 7]_x000D_
-[1, 3, 5, 7]_x000D_
-[1, 3, 7, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.08332485162723213]_x000D_
-[[0, 1, 7], 0.08332485162723213]_x000D_
-[[0, 6, 7], 0.08332485162723213]_x000D_
-[[1, 2, 5], 0.08332485162723213]_x000D_
-[[1, 2, 6], 0.08332485162723213]_x000D_
-[[2, 3, 5], 0.08332485162723213]_x000D_
-[[2, 3, 6], 0.08332485162723213]_x000D_
-[[2, 5, 7], 0.08332485162723213]_x000D_
-[[2, 6, 7], 0.08332485162723213]_x000D_
-[[3, 6, 7], 0.08332485162723213]_x000D_
-[[1, 3, 5, 7], 0.08332485162723213]_x000D_
-[[1, 3, 7, 8], 0.08332485162723213]_x000D_
-[[2, 8], 0.000101780473214398]</t>
-  </si>
-  <si>
-    <t>[[0, 1, 7], 0.09088286849053673]_x000D_
-[[0, 6, 7], 0.09088286849053673]_x000D_
-[[1, 2, 5], 0.09088286849053673]_x000D_
-[[1, 2, 6], 0.09088286849053673]_x000D_
-[[2, 3, 5], 0.09088286849053673]_x000D_
-[[2, 3, 6], 0.09088286849053673]_x000D_
-[[2, 5, 7], 0.09088286849053673]_x000D_
-[[2, 6, 7], 0.09088286849053673]_x000D_
-[[3, 6, 7], 0.09088286849053673]_x000D_
-[[1, 3, 5, 7], 0.09088286849053673]_x000D_
-[[1, 3, 7, 8], 0.09088286849053673]_x000D_
-[[0, 2], 0.000199693802835652]_x000D_
-[[2, 8], 8.875280126028977e-05]</t>
-  </si>
-  <si>
-    <t>[2]_x000D_
-[0, 1]_x000D_
-[0, 3]_x000D_
-[1, 3]_x000D_
-[1, 4]_x000D_
-[3, 5]_x000D_
-[3, 6]_x000D_
-[3, 7]_x000D_
-[3, 8]</t>
-  </si>
-  <si>
-    <t>[[2], 0.7398404411110786]_x000D_
-[[0, 3], 0.10960135863246047]_x000D_
-[[3, 8], 0.06060361058698654]_x000D_
-[[0, 1], 0.0462400154792441]_x000D_
-[[3, 5], 0.016198601208001335]_x000D_
-[[3, 6], 0.016198601208001335]_x000D_
-[[1, 3], 0.006001019332624334]_x000D_
-[[3, 7], 0.004065137048344998]_x000D_
-[[1, 4], 0.0012512153932582423]</t>
-  </si>
-  <si>
-    <t>[[2], 0.7826907356208558]_x000D_
-[[0, 3], 0.11413438762561404]_x000D_
-[[3, 8], 0.06151097147275827]_x000D_
-[[0, 1], 0.010090684864774678]_x000D_
-[[3, 5], 0.010032646973444827]_x000D_
-[[3, 6], 0.010032646973444827]_x000D_
-[[1, 3], 0.006348588123950562]_x000D_
-[[3, 7], 0.0038695037588677567]_x000D_
-[[1, 4], 0.001289834586289252]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[0, 6]_x000D_
-[0, 8]_x000D_
-[2, 3, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.29427825998959417]_x000D_
-[[0, 6], 0.29427825998959417]_x000D_
-[[0, 8], 0.29427825998959417]_x000D_
-[[0, 1], 0.07356956120633734]_x000D_
-[[2, 3, 6], 0.04359565882488004]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.3317147761111069]_x000D_
-[[0, 6], 0.3317147761111069]_x000D_
-[[0, 8], 0.3317147761111069]_x000D_
-[[2, 3, 6], 0.003215724348258852]_x000D_
-[[0, 1], 0.0016399473184203893]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[6]_x000D_
-[1, 4]_x000D_
-[4, 5]_x000D_
-[4, 7]_x000D_
-[4, 8]</t>
-  </si>
-  <si>
-    <t>[[0], 0.4235654256156027]_x000D_
-[[6], 0.4235654256156027]_x000D_
-[[1, 4], 0.06275043342453374]_x000D_
-[[4, 5], 0.0446672462389747]_x000D_
-[[4, 8], 0.0446672462389747]_x000D_
-[[4, 7], 0.0007842228663115513]</t>
-  </si>
-  <si>
-    <t>[[1, 4], 0.2892857142857143]_x000D_
-[[4, 5], 0.19285714285714287]_x000D_
-[[4, 8], 0.19285714285714287]_x000D_
-[[0], 0.11428571428571428]_x000D_
-[[6], 0.11428571428571428]_x000D_
-[[4, 7], 0.09642857142857143]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 2]_x000D_
-[2, 4]_x000D_
-[2, 5]_x000D_
-[2, 8]_x000D_
-[3, 5]_x000D_
-[3, 8]_x000D_
-[4, 5]_x000D_
-[4, 8]_x000D_
-[5, 7]_x000D_
-[7, 8]</t>
-  </si>
-  <si>
-    <t>[[0], 0.1755155363023007]_x000D_
-[[2, 4], 0.1755155363023007]_x000D_
-[[2, 5], 0.1755155363023007]_x000D_
-[[3, 5], 0.1755155363023007]_x000D_
-[[4, 5], 0.1755155363023007]_x000D_
-[[5, 7], 0.04387888367381932]_x000D_
-[[1, 2], 0.026002301674414918]_x000D_
-[[4, 8], 0.018511311570080066]_x000D_
-[[3, 8], 0.018511311569700248]_x000D_
-[[2, 8], 0.01529653321855892]_x000D_
-[[7, 8], 0.00022197678192293764]</t>
-  </si>
-  <si>
-    <t>[[2, 4], 0.22899509155655376]_x000D_
-[[2, 5], 0.22899509155655376]_x000D_
-[[3, 5], 0.22899509155655376]_x000D_
-[[4, 5], 0.22899509155655376]_x000D_
-[[2, 8], 0.03392308028142532]_x000D_
-[[3, 8], 0.023881218021511032]_x000D_
-[[4, 8], 0.023881218021511032]_x000D_
-[[1, 2], 0.0011321168466846224]_x000D_
-[[5, 7], 0.0005031630429709434]_x000D_
-[[0], 0.00044725603819639406]_x000D_
-[[7, 8], 0.0002515815214854717]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 5]_x000D_
-[0, 6]_x000D_
-[1, 6]_x000D_
-[2, 8]_x000D_
-[3, 5]_x000D_
-[3, 6]_x000D_
-[4, 5]_x000D_
-[4, 6]_x000D_
-[5, 6]_x000D_
-[5, 8]_x000D_
-[6, 8]_x000D_
-[1, 2, 3]_x000D_
-[1, 2, 4]_x000D_
-[2, 3, 7]_x000D_
-[2, 4, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1463508282681129]_x000D_
-[[2, 8], 0.1463508282681129]_x000D_
-[[1, 2, 3], 0.1463508282681129]_x000D_
-[[1, 2, 4], 0.1463508282681129]_x000D_
-[[2, 3, 7], 0.1463508282681129]_x000D_
-[[2, 4, 7], 0.1463508282681129]_x000D_
-[[3, 6], 0.01543536166491774]_x000D_
-[[3, 5], 0.015435361664771967]_x000D_
-[[0, 5], 0.012754770107680967]_x000D_
-[[5, 8], 0.012754770107680967]_x000D_
-[[0, 6], 0.012754770077977932]_x000D_
-[[6, 8], 0.012754770077977932]_x000D_
-[[1, 6], 0.012754770017770018]_x000D_
-[[4, 6], 0.011988526011265046]_x000D_
-[[4, 5], 0.011988526009602917]_x000D_
-[[5, 6], 0.003273404651677176]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1434566924276446]_x000D_
-[[2, 8], 0.1434566924276446]_x000D_
-[[1, 2, 3], 0.1434566924276446]_x000D_
-[[1, 2, 4], 0.1434566924276446]_x000D_
-[[2, 3, 7], 0.1434566924276446]_x000D_
-[[2, 4, 7], 0.1434566924276446]_x000D_
-[[0, 5], 0.021251516183388913]_x000D_
-[[0, 6], 0.021251516183388913]_x000D_
-[[5, 8], 0.021251516183388913]_x000D_
-[[6, 8], 0.021251516183388913]_x000D_
-[[1, 6], 0.02125151618338891]_x000D_
-[[3, 5], 0.014960672411021305]_x000D_
-[[3, 6], 0.014960672411021305]_x000D_
-[[5, 6], 0.0016624636298816658]_x000D_
-[[4, 5], 0.0007092280326317879]_x000D_
-[[4, 6], 0.0007092280326317879]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 3]_x000D_
-[0, 5]_x000D_
-[0, 8]_x000D_
-[1, 2]_x000D_
-[1, 3]_x000D_
-[1, 5]_x000D_
-[1, 8]_x000D_
-[2, 3]_x000D_
-[2, 4]_x000D_
-[2, 5]_x000D_
-[2, 6]_x000D_
-[2, 8]_x000D_
-[3, 5]_x000D_
-[3, 6]_x000D_
-[3, 8]_x000D_
-[4, 5]_x000D_
-[4, 8]_x000D_
-[5, 6]_x000D_
-[5, 7]_x000D_
-[6, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1415725200472615]_x000D_
-[[0, 8], 0.1415725200472615]_x000D_
-[[2, 6], 0.1415725200472615]_x000D_
-[[2, 8], 0.1415725200472615]_x000D_
-[[6, 8], 0.1415725200472615]_x000D_
-[[0, 3], 0.03539313001181538]_x000D_
-[[1, 2], 0.03539313001181538]_x000D_
-[[2, 3], 0.03539313001181538]_x000D_
-[[3, 6], 0.03539313001181538]_x000D_
-[[2, 4], 0.0353931255357667]_x000D_
-[[0, 5], 0.020972167624621684]_x000D_
-[[5, 6], 0.020972167624621684]_x000D_
-[[2, 5], 0.02097216762443542]_x000D_
-[[4, 8], 0.0209721018421763]_x000D_
-[[1, 8], 0.013042142803373619]_x000D_
-[[3, 8], 0.01304214276475822]_x000D_
-[[1, 3], 0.0035461263514515225]_x000D_
-[[3, 5], 0.0005849621157565718]_x000D_
-[[1, 5], 0.0005849621156735805]_x000D_
-[[4, 5], 0.0003751730085033127]_x000D_
-[[5, 7], 0.00010764030529224971]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1485331828979846]_x000D_
-[[0, 8], 0.1485331828979846]_x000D_
-[[2, 6], 0.1485331828979846]_x000D_
-[[2, 8], 0.1485331828979846]_x000D_
-[[6, 8], 0.1485331828979846]_x000D_
-[[0, 3], 0.037103253527261015]_x000D_
-[[1, 2], 0.037103253527261015]_x000D_
-[[2, 3], 0.037103253527261015]_x000D_
-[[3, 6], 0.037103253527261015]_x000D_
-[[2, 4], 0.035153330454127135]_x000D_
-[[1, 8], 0.021730388456720092]_x000D_
-[[3, 8], 0.021730388456720092]_x000D_
-[[4, 8], 0.021573049166410303]_x000D_
-[[1, 3], 0.0022638214326632404]_x000D_
-[[0, 5], 0.0016308845419277464]_x000D_
-[[5, 6], 0.0016308845419277464]_x000D_
-[[2, 5], 0.001630884541927746]_x000D_
-[[1, 5], 0.0005507440711091653]_x000D_
-[[3, 5], 0.0005507440711091653]_x000D_
-[[4, 5], 0.00036716271407277685]_x000D_
-[[5, 7], 0.0001087889523178598]</t>
+[4, 5]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.22730470966714175]_x000D_
+[[0, 5], 0.22730470966714175]_x000D_
+[[2, 4], 0.22730470966714175]_x000D_
+[[4, 5], 0.22730470966714175]_x000D_
+[[1, 5], 0.05682616765854455]_x000D_
+[[1, 2], 0.033671335147998784]_x000D_
+[[6], 0.00028365852488956215]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.22907585894836796]_x000D_
+[[0, 5], 0.22907585894836796]_x000D_
+[[2, 4], 0.22907585894836796]_x000D_
+[[4, 5], 0.22907585894836796]_x000D_
+[[1, 5], 0.05127060142500024]_x000D_
+[[1, 2], 0.032202255888023675]_x000D_
+[[6], 0.0002237068935042656]</t>
   </si>
 </sst>
 </file>
@@ -1128,9 +1105,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K61" totalsRowShown="0">
-  <autoFilter ref="A1:K61"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD61" totalsRowShown="0">
+  <autoFilter ref="A1:AD61"/>
+  <tableColumns count="30">
     <tableColumn id="1" name="instance_number"/>
     <tableColumn id="2" name="noa"/>
     <tableColumn id="3" name="nof"/>
@@ -1140,8 +1117,27 @@
     <tableColumn id="7" name="diagnosis algorithm"/>
     <tableColumn id="8" name="diagnoses"/>
     <tableColumn id="9" name="ranked diagnoses"/>
-    <tableColumn id="10" name="precision"/>
-    <tableColumn id="11" name="recall"/>
+    <tableColumn id="10" name="Wasted Effort"/>
+    <tableColumn id="11" name="Weighted Precision 10"/>
+    <tableColumn id="12" name="Weighted Precision 20"/>
+    <tableColumn id="13" name="Weighted Precision 30"/>
+    <tableColumn id="14" name="Weighted Precision 40"/>
+    <tableColumn id="15" name="Weighted Precision 50"/>
+    <tableColumn id="16" name="Weighted Precision 60"/>
+    <tableColumn id="17" name="Weighted Precision 70"/>
+    <tableColumn id="18" name="Weighted Precision 80"/>
+    <tableColumn id="19" name="Weighted Precision 90"/>
+    <tableColumn id="20" name="Weighted Precision 100"/>
+    <tableColumn id="21" name="Weighted Recall 10"/>
+    <tableColumn id="22" name="Weighted Recall 20"/>
+    <tableColumn id="23" name="Weighted Recall 30"/>
+    <tableColumn id="24" name="Weighted Recall 40"/>
+    <tableColumn id="25" name="Weighted Recall 50"/>
+    <tableColumn id="26" name="Weighted Recall 60"/>
+    <tableColumn id="27" name="Weighted Recall 70"/>
+    <tableColumn id="28" name="Weighted Recall 80"/>
+    <tableColumn id="29" name="Weighted Recall 90"/>
+    <tableColumn id="30" name="Weighted Recall 100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1432,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1468,65 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1490,19 +1543,82 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.75</v>
+      </c>
+      <c r="N2">
+        <v>0.75</v>
+      </c>
+      <c r="O2">
+        <v>0.6982795468780149</v>
+      </c>
+      <c r="P2">
+        <v>0.6982795468780149</v>
+      </c>
+      <c r="Q2">
+        <v>0.6532322558565382</v>
+      </c>
+      <c r="R2">
+        <v>0.6532322558565382</v>
+      </c>
+      <c r="S2">
+        <v>0.6521277457224974</v>
+      </c>
+      <c r="T2">
+        <v>0.6521277457224974</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>0.4655196979186766</v>
+      </c>
+      <c r="Z2">
+        <v>0.4655196979186766</v>
+      </c>
+      <c r="AA2">
+        <v>0.4354881705710255</v>
+      </c>
+      <c r="AB2">
+        <v>0.4354881705710255</v>
+      </c>
+      <c r="AC2">
+        <v>0.4347518304816649</v>
+      </c>
+      <c r="AD2">
+        <v>0.4347518304816649</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1519,19 +1635,82 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.4365894802777017</v>
+      </c>
+      <c r="N3">
+        <v>0.4365894802777017</v>
+      </c>
+      <c r="O3">
+        <v>0.3874523682064848</v>
+      </c>
+      <c r="P3">
+        <v>0.3874523682064848</v>
+      </c>
+      <c r="Q3">
+        <v>0.3893009369427584</v>
+      </c>
+      <c r="R3">
+        <v>0.3893009369427584</v>
+      </c>
+      <c r="S3">
+        <v>0.3883121777482719</v>
+      </c>
+      <c r="T3">
+        <v>0.3883121777482719</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.4365894802777017</v>
+      </c>
+      <c r="X3">
+        <v>0.4365894802777017</v>
+      </c>
+      <c r="Y3">
+        <v>0.3874523682064848</v>
+      </c>
+      <c r="Z3">
+        <v>0.3874523682064848</v>
+      </c>
+      <c r="AA3">
+        <v>0.3877920185825151</v>
+      </c>
+      <c r="AB3">
+        <v>0.3877920185825151</v>
+      </c>
+      <c r="AC3">
+        <v>0.3868070917880073</v>
+      </c>
+      <c r="AD3">
+        <v>0.3868070917880073</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1548,19 +1727,82 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O4">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="P4">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Q4">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="R4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S4">
+        <v>0.111323293477357</v>
+      </c>
+      <c r="T4">
+        <v>0.111323293477357</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X4">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y4">
+        <v>0.25</v>
+      </c>
+      <c r="Z4">
+        <v>0.2</v>
+      </c>
+      <c r="AA4">
+        <v>0.2</v>
+      </c>
+      <c r="AB4">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AC4">
+        <v>0.1667462350540089</v>
+      </c>
+      <c r="AD4">
+        <v>0.1667462350540089</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1577,19 +1819,82 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="P5">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Q5">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="R5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S5">
+        <v>0.111255763493355</v>
+      </c>
+      <c r="T5">
+        <v>0.111255763493355</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y5">
+        <v>0.25</v>
+      </c>
+      <c r="Z5">
+        <v>0.2</v>
+      </c>
+      <c r="AA5">
+        <v>0.2</v>
+      </c>
+      <c r="AB5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AC5">
+        <v>0.1667209113100081</v>
+      </c>
+      <c r="AD5">
+        <v>0.1667209113100081</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1606,19 +1911,82 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.935487994332622</v>
+      </c>
+      <c r="N6">
+        <v>0.935487994332622</v>
+      </c>
+      <c r="O6">
+        <v>0.8857208934951486</v>
+      </c>
+      <c r="P6">
+        <v>0.8857208934951486</v>
+      </c>
+      <c r="Q6">
+        <v>0.8679806171143478</v>
+      </c>
+      <c r="R6">
+        <v>0.8679806171143478</v>
+      </c>
+      <c r="S6">
+        <v>0.8671972693729403</v>
+      </c>
+      <c r="T6">
+        <v>0.8671972693729403</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0.935487994332622</v>
+      </c>
+      <c r="X6">
+        <v>0.935487994332622</v>
+      </c>
+      <c r="Y6">
+        <v>0.8857208934951486</v>
+      </c>
+      <c r="Z6">
+        <v>0.8857208934951486</v>
+      </c>
+      <c r="AA6">
+        <v>0.8679806171143478</v>
+      </c>
+      <c r="AB6">
+        <v>0.8679806171143478</v>
+      </c>
+      <c r="AC6">
+        <v>0.8671972693729403</v>
+      </c>
+      <c r="AD6">
+        <v>0.8671972693729403</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1635,19 +2003,82 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9365894802777018</v>
+      </c>
+      <c r="N7">
+        <v>0.9365894802777018</v>
+      </c>
+      <c r="O7">
+        <v>0.9324434514598</v>
+      </c>
+      <c r="P7">
+        <v>0.9324434514598</v>
+      </c>
+      <c r="Q7">
+        <v>0.9306022525987243</v>
+      </c>
+      <c r="R7">
+        <v>0.9306022525987243</v>
+      </c>
+      <c r="S7">
+        <v>0.9297889650652806</v>
+      </c>
+      <c r="T7">
+        <v>0.9297889650652806</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0.9365894802777018</v>
+      </c>
+      <c r="X7">
+        <v>0.9365894802777018</v>
+      </c>
+      <c r="Y7">
+        <v>0.9324434514598</v>
+      </c>
+      <c r="Z7">
+        <v>0.9324434514598</v>
+      </c>
+      <c r="AA7">
+        <v>0.9306022525987243</v>
+      </c>
+      <c r="AB7">
+        <v>0.9306022525987243</v>
+      </c>
+      <c r="AC7">
+        <v>0.9297889650652806</v>
+      </c>
+      <c r="AD7">
+        <v>0.9297889650652806</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1664,19 +2095,82 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.75</v>
+      </c>
+      <c r="N8">
+        <v>0.75</v>
+      </c>
+      <c r="O8">
+        <v>0.75</v>
+      </c>
+      <c r="P8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0.75</v>
+      </c>
+      <c r="X8">
+        <v>0.75</v>
+      </c>
+      <c r="Y8">
+        <v>0.75</v>
+      </c>
+      <c r="Z8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB8">
+        <v>0.5</v>
+      </c>
+      <c r="AC8">
+        <v>0.5</v>
+      </c>
+      <c r="AD8">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1693,19 +2187,82 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.75</v>
+      </c>
+      <c r="N9">
+        <v>0.75</v>
+      </c>
+      <c r="O9">
+        <v>0.75</v>
+      </c>
+      <c r="P9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0.75</v>
+      </c>
+      <c r="X9">
+        <v>0.75</v>
+      </c>
+      <c r="Y9">
+        <v>0.75</v>
+      </c>
+      <c r="Z9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+      <c r="AC9">
+        <v>0.5</v>
+      </c>
+      <c r="AD9">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1722,19 +2279,82 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+      <c r="M10">
+        <v>0.8333333403592785</v>
+      </c>
+      <c r="N10">
+        <v>0.8033725895923312</v>
+      </c>
+      <c r="O10">
+        <v>0.8033725895923312</v>
+      </c>
+      <c r="P10">
+        <v>0.7873130996169203</v>
+      </c>
+      <c r="Q10">
+        <v>0.7781933369369961</v>
+      </c>
+      <c r="R10">
+        <v>0.7704667339877409</v>
+      </c>
+      <c r="S10">
+        <v>0.7692750257496219</v>
+      </c>
+      <c r="T10">
+        <v>0.7692750257496219</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.9</v>
+      </c>
+      <c r="W10">
+        <v>0.8333333403592785</v>
+      </c>
+      <c r="X10">
+        <v>0.8033725895923312</v>
+      </c>
+      <c r="Y10">
+        <v>0.8033725895923312</v>
+      </c>
+      <c r="Z10">
+        <v>0.7873130996169203</v>
+      </c>
+      <c r="AA10">
+        <v>0.7781933369369961</v>
+      </c>
+      <c r="AB10">
+        <v>0.7704667339877409</v>
+      </c>
+      <c r="AC10">
+        <v>0.7692750257496219</v>
+      </c>
+      <c r="AD10">
+        <v>0.7692750257496219</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1751,19 +2371,82 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.9000647334064662</v>
+      </c>
+      <c r="M11">
+        <v>0.8363679055359817</v>
+      </c>
+      <c r="N11">
+        <v>0.806228533237046</v>
+      </c>
+      <c r="O11">
+        <v>0.806228533237046</v>
+      </c>
+      <c r="P11">
+        <v>0.8014557532215368</v>
+      </c>
+      <c r="Q11">
+        <v>0.7990506350639754</v>
+      </c>
+      <c r="R11">
+        <v>0.7981558880523579</v>
+      </c>
+      <c r="S11">
+        <v>0.7969636470771174</v>
+      </c>
+      <c r="T11">
+        <v>0.7969636470771174</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.9000647334064662</v>
+      </c>
+      <c r="W11">
+        <v>0.8363679055359817</v>
+      </c>
+      <c r="X11">
+        <v>0.806228533237046</v>
+      </c>
+      <c r="Y11">
+        <v>0.806228533237046</v>
+      </c>
+      <c r="Z11">
+        <v>0.8014557532215368</v>
+      </c>
+      <c r="AA11">
+        <v>0.7990506350639754</v>
+      </c>
+      <c r="AB11">
+        <v>0.7981558880523579</v>
+      </c>
+      <c r="AC11">
+        <v>0.7969636470771174</v>
+      </c>
+      <c r="AD11">
+        <v>0.7969636470771174</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1780,19 +2463,82 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+      <c r="M12">
+        <v>0.75</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <v>0.375</v>
+      </c>
+      <c r="Q12">
+        <v>0.3</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
+      </c>
+      <c r="S12">
+        <v>0.3333333332608968</v>
+      </c>
+      <c r="T12">
+        <v>0.3333333332608968</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.75</v>
+      </c>
+      <c r="W12">
+        <v>0.75</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.375</v>
+      </c>
+      <c r="AA12">
+        <v>0.3</v>
+      </c>
+      <c r="AB12">
+        <v>0.3</v>
+      </c>
+      <c r="AC12">
+        <v>0.3333333332608968</v>
+      </c>
+      <c r="AD12">
+        <v>0.3333333332608968</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1809,19 +2555,82 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.75</v>
+      </c>
+      <c r="M13">
+        <v>0.75</v>
+      </c>
+      <c r="N13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>0.4</v>
+      </c>
+      <c r="S13">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="T13">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.75</v>
+      </c>
+      <c r="W13">
+        <v>0.75</v>
+      </c>
+      <c r="X13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13">
+        <v>0.4</v>
+      </c>
+      <c r="AB13">
+        <v>0.4</v>
+      </c>
+      <c r="AC13">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AD13">
+        <v>0.3333333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1838,19 +2647,82 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0.4871794871794871</v>
+      </c>
+      <c r="O14">
+        <v>0.4871794871794871</v>
+      </c>
+      <c r="P14">
+        <v>0.4880952379492173</v>
+      </c>
+      <c r="Q14">
+        <v>0.4555555602619868</v>
+      </c>
+      <c r="R14">
+        <v>0.4382439841821272</v>
+      </c>
+      <c r="S14">
+        <v>0.4395150715303766</v>
+      </c>
+      <c r="T14">
+        <v>0.4395150715303766</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.75</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
+        <v>0.4666666716274991</v>
+      </c>
+      <c r="AB14">
+        <v>0.4489328619794107</v>
+      </c>
+      <c r="AC14">
+        <v>0.4499839465124659</v>
+      </c>
+      <c r="AD14">
+        <v>0.4499839465124659</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1867,19 +2739,82 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.75</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>0.4872088413113609</v>
+      </c>
+      <c r="O15">
+        <v>0.4872088413113609</v>
+      </c>
+      <c r="P15">
+        <v>0.488033111917463</v>
+      </c>
+      <c r="Q15">
+        <v>0.4584878555579424</v>
+      </c>
+      <c r="R15">
+        <v>0.4416929775719904</v>
+      </c>
+      <c r="S15">
+        <v>0.4417430114188937</v>
+      </c>
+      <c r="T15">
+        <v>0.4417430114188937</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0.75</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.5</v>
+      </c>
+      <c r="Z15">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.4697302748132823</v>
+      </c>
+      <c r="AB15">
+        <v>0.4525235755383442</v>
+      </c>
+      <c r="AC15">
+        <v>0.4525643155393614</v>
+      </c>
+      <c r="AD15">
+        <v>0.4525643155393614</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1896,19 +2831,82 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.75</v>
+      </c>
+      <c r="M16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>0.4827602589104546</v>
+      </c>
+      <c r="R16">
+        <v>0.4757646964636427</v>
+      </c>
+      <c r="S16">
+        <v>0.4754486213593824</v>
+      </c>
+      <c r="T16">
+        <v>0.4754486213593824</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0.75</v>
+      </c>
+      <c r="W16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="Z16">
+        <v>0.5</v>
+      </c>
+      <c r="AA16">
+        <v>0.4827602589104546</v>
+      </c>
+      <c r="AB16">
+        <v>0.4757646964636427</v>
+      </c>
+      <c r="AC16">
+        <v>0.4754486213593824</v>
+      </c>
+      <c r="AD16">
+        <v>0.4754486213593824</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1925,19 +2923,82 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.75</v>
+      </c>
+      <c r="M17">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.4835821377975826</v>
+      </c>
+      <c r="R17">
+        <v>0.483024343939665</v>
+      </c>
+      <c r="S17">
+        <v>0.4827459292782877</v>
+      </c>
+      <c r="T17">
+        <v>0.4827459292782877</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0.75</v>
+      </c>
+      <c r="W17">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>0.4835821377975826</v>
+      </c>
+      <c r="AB17">
+        <v>0.483024343939665</v>
+      </c>
+      <c r="AC17">
+        <v>0.4827459292782877</v>
+      </c>
+      <c r="AD17">
+        <v>0.4827459292782877</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1954,19 +3015,82 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0.4932327410772169</v>
+      </c>
+      <c r="T18">
+        <v>0.4932327410772169</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.5</v>
+      </c>
+      <c r="AB18">
+        <v>0.5</v>
+      </c>
+      <c r="AC18">
+        <v>0.5</v>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1983,19 +3107,82 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+      <c r="M19">
+        <v>0.75</v>
+      </c>
+      <c r="N19">
+        <v>0.7222648906225412</v>
+      </c>
+      <c r="O19">
+        <v>0.7222648906225412</v>
+      </c>
+      <c r="P19">
+        <v>0.7203782710838944</v>
+      </c>
+      <c r="Q19">
+        <v>0.7191355894272615</v>
+      </c>
+      <c r="R19">
+        <v>0.7191355894272615</v>
+      </c>
+      <c r="S19">
+        <v>0.7188524424404839</v>
+      </c>
+      <c r="T19">
+        <v>0.7188524424404839</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.75</v>
+      </c>
+      <c r="W19">
+        <v>0.75</v>
+      </c>
+      <c r="X19">
+        <v>0.7222648906225412</v>
+      </c>
+      <c r="Y19">
+        <v>0.7222648906225412</v>
+      </c>
+      <c r="Z19">
+        <v>0.7211867336112502</v>
+      </c>
+      <c r="AA19">
+        <v>0.7199426573240556</v>
+      </c>
+      <c r="AB19">
+        <v>0.7199426573240556</v>
+      </c>
+      <c r="AC19">
+        <v>0.7196584675178815</v>
+      </c>
+      <c r="AD19">
+        <v>0.7196584675178815</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2012,19 +3199,82 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R20">
+        <v>0.6652965434906263</v>
+      </c>
+      <c r="S20">
+        <v>0.6652965434906263</v>
+      </c>
+      <c r="T20">
+        <v>0.6652965434906263</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AB20">
+        <v>0.3326482717453131</v>
+      </c>
+      <c r="AC20">
+        <v>0.3326482717453131</v>
+      </c>
+      <c r="AD20">
+        <v>0.3326482717453131</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2041,19 +3291,82 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.3873518093676345</v>
+      </c>
+      <c r="N21">
+        <v>0.3873518093676345</v>
+      </c>
+      <c r="O21">
+        <v>0.3873518093676345</v>
+      </c>
+      <c r="P21">
+        <v>0.5584045903168461</v>
+      </c>
+      <c r="Q21">
+        <v>0.5584045903168461</v>
+      </c>
+      <c r="R21">
+        <v>0.4365256319741752</v>
+      </c>
+      <c r="S21">
+        <v>0.4365256319741752</v>
+      </c>
+      <c r="T21">
+        <v>0.4365256319741752</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.1936759046838173</v>
+      </c>
+      <c r="X21">
+        <v>0.1936759046838173</v>
+      </c>
+      <c r="Y21">
+        <v>0.1936759046838173</v>
+      </c>
+      <c r="Z21">
+        <v>0.279202295158423</v>
+      </c>
+      <c r="AA21">
+        <v>0.279202295158423</v>
+      </c>
+      <c r="AB21">
+        <v>0.2182628159870876</v>
+      </c>
+      <c r="AC21">
+        <v>0.2182628159870876</v>
+      </c>
+      <c r="AD21">
+        <v>0.2182628159870876</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2070,19 +3383,82 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.75</v>
+      </c>
+      <c r="M22">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.6563706563706564</v>
+      </c>
+      <c r="O22">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="P22">
+        <v>0.6025200517083376</v>
+      </c>
+      <c r="Q22">
+        <v>0.57111853258498</v>
+      </c>
+      <c r="R22">
+        <v>0.5588315237851853</v>
+      </c>
+      <c r="S22">
+        <v>0.5581009357731702</v>
+      </c>
+      <c r="T22">
+        <v>0.5581009357731702</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0.75</v>
+      </c>
+      <c r="W22">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="X22">
+        <v>0.6563706563706564</v>
+      </c>
+      <c r="Y22">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="Z22">
+        <v>0.6116838512406932</v>
+      </c>
+      <c r="AA22">
+        <v>0.5798047426571311</v>
+      </c>
+      <c r="AB22">
+        <v>0.5673308592708818</v>
+      </c>
+      <c r="AC22">
+        <v>0.5665891596584082</v>
+      </c>
+      <c r="AD22">
+        <v>0.5665891596584082</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2099,19 +3475,82 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.75</v>
+      </c>
+      <c r="M23">
+        <v>0.6671103272396803</v>
+      </c>
+      <c r="N23">
+        <v>0.6464780788377222</v>
+      </c>
+      <c r="O23">
+        <v>0.6430045195450416</v>
+      </c>
+      <c r="P23">
+        <v>0.6423635069489755</v>
+      </c>
+      <c r="Q23">
+        <v>0.6394969848019243</v>
+      </c>
+      <c r="R23">
+        <v>0.6371186220034879</v>
+      </c>
+      <c r="S23">
+        <v>0.6362414306962874</v>
+      </c>
+      <c r="T23">
+        <v>0.6362414306962874</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0.75</v>
+      </c>
+      <c r="W23">
+        <v>0.6671103272396803</v>
+      </c>
+      <c r="X23">
+        <v>0.6567804907168282</v>
+      </c>
+      <c r="Y23">
+        <v>0.6532515760459975</v>
+      </c>
+      <c r="Z23">
+        <v>0.6525646313891085</v>
+      </c>
+      <c r="AA23">
+        <v>0.6496525871213015</v>
+      </c>
+      <c r="AB23">
+        <v>0.6472364544704244</v>
+      </c>
+      <c r="AC23">
+        <v>0.6463453328300315</v>
+      </c>
+      <c r="AD23">
+        <v>0.6463453328300315</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2128,19 +3567,82 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.9000000011937067</v>
+      </c>
+      <c r="L24">
+        <v>0.8576165795079317</v>
+      </c>
+      <c r="M24">
+        <v>0.7950852995053992</v>
+      </c>
+      <c r="N24">
+        <v>0.793838669304721</v>
+      </c>
+      <c r="O24">
+        <v>0.7926629010607161</v>
+      </c>
+      <c r="P24">
+        <v>0.7912022099913328</v>
+      </c>
+      <c r="Q24">
+        <v>0.7902968863564529</v>
+      </c>
+      <c r="R24">
+        <v>0.7887386182029564</v>
+      </c>
+      <c r="S24">
+        <v>0.7882268371466656</v>
+      </c>
+      <c r="T24">
+        <v>0.7879976697444426</v>
+      </c>
+      <c r="U24">
+        <v>0.9000000011937067</v>
+      </c>
+      <c r="V24">
+        <v>0.8576165795079317</v>
+      </c>
+      <c r="W24">
+        <v>0.7950852995053992</v>
+      </c>
+      <c r="X24">
+        <v>0.793838669304721</v>
+      </c>
+      <c r="Y24">
+        <v>0.7926629010607161</v>
+      </c>
+      <c r="Z24">
+        <v>0.7912022099913328</v>
+      </c>
+      <c r="AA24">
+        <v>0.7902968863564529</v>
+      </c>
+      <c r="AB24">
+        <v>0.7887386182029564</v>
+      </c>
+      <c r="AC24">
+        <v>0.7882268371466656</v>
+      </c>
+      <c r="AD24">
+        <v>0.7880816335001721</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>12</v>
       </c>
@@ -2157,19 +3659,82 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.9007970406981538</v>
+      </c>
+      <c r="L25">
+        <v>0.8594828895956442</v>
+      </c>
+      <c r="M25">
+        <v>0.8558315844259625</v>
+      </c>
+      <c r="N25">
+        <v>0.8542731067854548</v>
+      </c>
+      <c r="O25">
+        <v>0.8527756551919398</v>
+      </c>
+      <c r="P25">
+        <v>0.8509636576060523</v>
+      </c>
+      <c r="Q25">
+        <v>0.8498084598699573</v>
+      </c>
+      <c r="R25">
+        <v>0.8478354008859011</v>
+      </c>
+      <c r="S25">
+        <v>0.8471797489777496</v>
+      </c>
+      <c r="T25">
+        <v>0.8468708691783442</v>
+      </c>
+      <c r="U25">
+        <v>0.9007970406981538</v>
+      </c>
+      <c r="V25">
+        <v>0.8594828895956442</v>
+      </c>
+      <c r="W25">
+        <v>0.8558315844259625</v>
+      </c>
+      <c r="X25">
+        <v>0.8542731067854548</v>
+      </c>
+      <c r="Y25">
+        <v>0.8527756551919398</v>
+      </c>
+      <c r="Z25">
+        <v>0.8509636576060523</v>
+      </c>
+      <c r="AA25">
+        <v>0.8498084598699573</v>
+      </c>
+      <c r="AB25">
+        <v>0.8478354008859011</v>
+      </c>
+      <c r="AC25">
+        <v>0.8471797489777496</v>
+      </c>
+      <c r="AD25">
+        <v>0.8469710546909803</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>13</v>
       </c>
@@ -2186,19 +3751,82 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.900000010117306</v>
+      </c>
+      <c r="M26">
+        <v>0.8576186827376204</v>
+      </c>
+      <c r="N26">
+        <v>0.8536058914087126</v>
+      </c>
+      <c r="O26">
+        <v>0.8511906293879687</v>
+      </c>
+      <c r="P26">
+        <v>0.8488624475143938</v>
+      </c>
+      <c r="Q26">
+        <v>0.8475351047414081</v>
+      </c>
+      <c r="R26">
+        <v>0.8464083353418699</v>
+      </c>
+      <c r="S26">
+        <v>0.8453805458308083</v>
+      </c>
+      <c r="T26">
+        <v>0.8453805458308083</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0.900000010117306</v>
+      </c>
+      <c r="W26">
+        <v>0.8576186827376204</v>
+      </c>
+      <c r="X26">
+        <v>0.8536058914087126</v>
+      </c>
+      <c r="Y26">
+        <v>0.8511906293879687</v>
+      </c>
+      <c r="Z26">
+        <v>0.8488624475143938</v>
+      </c>
+      <c r="AA26">
+        <v>0.8479642246289416</v>
+      </c>
+      <c r="AB26">
+        <v>0.8468368847289541</v>
+      </c>
+      <c r="AC26">
+        <v>0.8458085748324632</v>
+      </c>
+      <c r="AD26">
+        <v>0.8458085748324632</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>13</v>
       </c>
@@ -2215,19 +3843,82 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.9043116181677935</v>
+      </c>
+      <c r="M27">
+        <v>0.9007534764299698</v>
+      </c>
+      <c r="N27">
+        <v>0.8991717470973657</v>
+      </c>
+      <c r="O27">
+        <v>0.8965179048650493</v>
+      </c>
+      <c r="P27">
+        <v>0.8950136411950559</v>
+      </c>
+      <c r="Q27">
+        <v>0.89267796201955</v>
+      </c>
+      <c r="R27">
+        <v>0.8913694918482808</v>
+      </c>
+      <c r="S27">
+        <v>0.8902096232901664</v>
+      </c>
+      <c r="T27">
+        <v>0.8902096232901664</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0.9043116181677935</v>
+      </c>
+      <c r="W27">
+        <v>0.9007534764299698</v>
+      </c>
+      <c r="X27">
+        <v>0.8991717470973657</v>
+      </c>
+      <c r="Y27">
+        <v>0.8965179048650493</v>
+      </c>
+      <c r="Z27">
+        <v>0.8954588071749826</v>
+      </c>
+      <c r="AA27">
+        <v>0.8931219662686818</v>
+      </c>
+      <c r="AB27">
+        <v>0.891812845284532</v>
+      </c>
+      <c r="AC27">
+        <v>0.8906523998256872</v>
+      </c>
+      <c r="AD27">
+        <v>0.8906523998256872</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2244,19 +3935,82 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.997625291498211</v>
+      </c>
+      <c r="M28">
+        <v>0.9967851926217701</v>
+      </c>
+      <c r="N28">
+        <v>0.9959465074470539</v>
+      </c>
+      <c r="O28">
+        <v>0.9959465074470539</v>
+      </c>
+      <c r="P28">
+        <v>0.9952281331248775</v>
+      </c>
+      <c r="Q28">
+        <v>0.9947500131414209</v>
+      </c>
+      <c r="R28">
+        <v>0.9942723523269569</v>
+      </c>
+      <c r="S28">
+        <v>0.9938634895062274</v>
+      </c>
+      <c r="T28">
+        <v>0.9938634895062274</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.4995789506924092</v>
+      </c>
+      <c r="X28">
+        <v>0.499158609918241</v>
+      </c>
+      <c r="Y28">
+        <v>0.499158609918241</v>
+      </c>
+      <c r="Z28">
+        <v>0.4987985677619833</v>
+      </c>
+      <c r="AA28">
+        <v>0.4985589387211344</v>
+      </c>
+      <c r="AB28">
+        <v>0.4983195398112759</v>
+      </c>
+      <c r="AC28">
+        <v>0.4981146217803208</v>
+      </c>
+      <c r="AD28">
+        <v>0.4981146217803208</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2273,19 +4027,82 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.6915005246589717</v>
+      </c>
+      <c r="M29">
+        <v>0.6197977897954385</v>
+      </c>
+      <c r="N29">
+        <v>0.5615679590967192</v>
+      </c>
+      <c r="O29">
+        <v>0.5615679590967192</v>
+      </c>
+      <c r="P29">
+        <v>0.5197160883280757</v>
+      </c>
+      <c r="Q29">
+        <v>0.4951164537941397</v>
+      </c>
+      <c r="R29">
+        <v>0.4727403156384505</v>
+      </c>
+      <c r="S29">
+        <v>0.455110497237569</v>
+      </c>
+      <c r="T29">
+        <v>0.455110497237569</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.4481542440630144</v>
+      </c>
+      <c r="X29">
+        <v>0.406050276949297</v>
+      </c>
+      <c r="Y29">
+        <v>0.406050276949297</v>
+      </c>
+      <c r="Z29">
+        <v>0.375788643533123</v>
+      </c>
+      <c r="AA29">
+        <v>0.3580015026296018</v>
+      </c>
+      <c r="AB29">
+        <v>0.3418220946915351</v>
+      </c>
+      <c r="AC29">
+        <v>0.3290745856353591</v>
+      </c>
+      <c r="AD29">
+        <v>0.3290745856353591</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2302,19 +4119,82 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="N30">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="O30">
+        <v>0.5000000000796666</v>
+      </c>
+      <c r="P30">
+        <v>0.4888889366666896</v>
+      </c>
+      <c r="Q30">
+        <v>0.4791791545140911</v>
+      </c>
+      <c r="R30">
+        <v>0.4799228175395979</v>
+      </c>
+      <c r="S30">
+        <v>0.4727986574599909</v>
+      </c>
+      <c r="T30">
+        <v>0.4724936936835036</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0.75</v>
+      </c>
+      <c r="W30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X30">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="Y30">
+        <v>0.6071428571940714</v>
+      </c>
+      <c r="Z30">
+        <v>0.6000000307143005</v>
+      </c>
+      <c r="AA30">
+        <v>0.5937580279019158</v>
+      </c>
+      <c r="AB30">
+        <v>0.590409250411478</v>
+      </c>
+      <c r="AC30">
+        <v>0.5816449869535</v>
+      </c>
+      <c r="AD30">
+        <v>0.5812698153048551</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>15</v>
       </c>
@@ -2331,19 +4211,82 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="N31">
+        <v>0.5128255354546156</v>
+      </c>
+      <c r="O31">
+        <v>0.5000152046056928</v>
+      </c>
+      <c r="P31">
+        <v>0.4889132081317077</v>
+      </c>
+      <c r="Q31">
+        <v>0.488727286364416</v>
+      </c>
+      <c r="R31">
+        <v>0.4882167842090002</v>
+      </c>
+      <c r="S31">
+        <v>0.4882271097414656</v>
+      </c>
+      <c r="T31">
+        <v>0.4879361216749261</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.75</v>
+      </c>
+      <c r="W31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X31">
+        <v>0.6153906425455388</v>
+      </c>
+      <c r="Y31">
+        <v>0.6071552301409412</v>
+      </c>
+      <c r="Z31">
+        <v>0.6000180593249866</v>
+      </c>
+      <c r="AA31">
+        <v>0.5998985352903073</v>
+      </c>
+      <c r="AB31">
+        <v>0.5992719087363152</v>
+      </c>
+      <c r="AC31">
+        <v>0.5991849176012339</v>
+      </c>
+      <c r="AD31">
+        <v>0.5988277976109803</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>16</v>
       </c>
@@ -2360,19 +4303,82 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0.75</v>
+      </c>
+      <c r="Q32">
+        <v>0.75</v>
+      </c>
+      <c r="R32">
+        <v>0.75</v>
+      </c>
+      <c r="S32">
+        <v>0.75</v>
+      </c>
+      <c r="T32">
+        <v>0.75</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>0.5</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+      <c r="AA32">
+        <v>0.5</v>
+      </c>
+      <c r="AB32">
+        <v>0.5</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>16</v>
       </c>
@@ -2389,19 +4395,82 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>0.5</v>
+      </c>
+      <c r="P33">
+        <v>0.5009746588693957</v>
+      </c>
+      <c r="Q33">
+        <v>0.5009746588693957</v>
+      </c>
+      <c r="R33">
+        <v>0.5009746588693957</v>
+      </c>
+      <c r="S33">
+        <v>0.5009746588693957</v>
+      </c>
+      <c r="T33">
+        <v>0.5009746588693957</v>
+      </c>
+      <c r="U33">
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <v>0.5</v>
+      </c>
+      <c r="Z33">
+        <v>0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0.5</v>
+      </c>
+      <c r="AB33">
+        <v>0.5</v>
+      </c>
+      <c r="AC33">
+        <v>0.5</v>
+      </c>
+      <c r="AD33">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>17</v>
       </c>
@@ -2418,19 +4487,82 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.75</v>
+      </c>
+      <c r="M34">
+        <v>0.75</v>
+      </c>
+      <c r="N34">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O34">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="P34">
+        <v>0.625</v>
+      </c>
+      <c r="Q34">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0.75</v>
+      </c>
+      <c r="W34">
+        <v>0.75</v>
+      </c>
+      <c r="X34">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="Y34">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="Z34">
+        <v>0.625</v>
+      </c>
+      <c r="AA34">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
+      <c r="AD34">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>17</v>
       </c>
@@ -2447,19 +4579,82 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.75</v>
+      </c>
+      <c r="M35">
+        <v>0.75</v>
+      </c>
+      <c r="N35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P35">
+        <v>0.625</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0.75</v>
+      </c>
+      <c r="W35">
+        <v>0.75</v>
+      </c>
+      <c r="X35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z35">
+        <v>0.625</v>
+      </c>
+      <c r="AA35">
+        <v>0.5</v>
+      </c>
+      <c r="AB35">
+        <v>0.5</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>18</v>
       </c>
@@ -2476,19 +4671,82 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0.9976471784035029</v>
+      </c>
+      <c r="Q36">
+        <v>0.9976471784035029</v>
+      </c>
+      <c r="R36">
+        <v>0.9976471784035029</v>
+      </c>
+      <c r="S36">
+        <v>0.9976471784035029</v>
+      </c>
+      <c r="T36">
+        <v>0.9976471784035029</v>
+      </c>
+      <c r="U36">
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+      <c r="W36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36">
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.4988235892017515</v>
+      </c>
+      <c r="AA36">
+        <v>0.4988235892017515</v>
+      </c>
+      <c r="AB36">
+        <v>0.4988235892017515</v>
+      </c>
+      <c r="AC36">
+        <v>0.4988235892017515</v>
+      </c>
+      <c r="AD36">
+        <v>0.4988235892017515</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2505,19 +4763,82 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0.9980506822612085</v>
+      </c>
+      <c r="Q37">
+        <v>0.9980506822612085</v>
+      </c>
+      <c r="R37">
+        <v>0.9980506822612085</v>
+      </c>
+      <c r="S37">
+        <v>0.9980506822612085</v>
+      </c>
+      <c r="T37">
+        <v>0.9980506822612085</v>
+      </c>
+      <c r="U37">
+        <v>0.5</v>
+      </c>
+      <c r="V37">
+        <v>0.5</v>
+      </c>
+      <c r="W37">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>0.5</v>
+      </c>
+      <c r="Y37">
+        <v>0.5</v>
+      </c>
+      <c r="Z37">
+        <v>0.4990253411306043</v>
+      </c>
+      <c r="AA37">
+        <v>0.4990253411306043</v>
+      </c>
+      <c r="AB37">
+        <v>0.4990253411306043</v>
+      </c>
+      <c r="AC37">
+        <v>0.4990253411306043</v>
+      </c>
+      <c r="AD37">
+        <v>0.4990253411306043</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2534,19 +4855,82 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.75</v>
+      </c>
+      <c r="L38">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="M38">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="N38">
+        <v>0.5333333428848543</v>
+      </c>
+      <c r="O38">
+        <v>0.5000000137611724</v>
+      </c>
+      <c r="P38">
+        <v>0.4821446272567401</v>
+      </c>
+      <c r="Q38">
+        <v>0.4831030351139142</v>
+      </c>
+      <c r="R38">
+        <v>0.4736851298754717</v>
+      </c>
+      <c r="S38">
+        <v>0.4716990813719699</v>
+      </c>
+      <c r="T38">
+        <v>0.471222752421891</v>
+      </c>
+      <c r="U38">
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <v>0.5</v>
+      </c>
+      <c r="W38">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="X38">
+        <v>0.4000000071636408</v>
+      </c>
+      <c r="Y38">
+        <v>0.3750000103208793</v>
+      </c>
+      <c r="Z38">
+        <v>0.3616084704425551</v>
+      </c>
+      <c r="AA38">
+        <v>0.3690367964260757</v>
+      </c>
+      <c r="AB38">
+        <v>0.3618425680200801</v>
+      </c>
+      <c r="AC38">
+        <v>0.3603254486397263</v>
+      </c>
+      <c r="AD38">
+        <v>0.3599615864881654</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2563,19 +4947,82 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>89</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>0.4446087293029353</v>
+      </c>
+      <c r="M39">
+        <v>0.4026888386619711</v>
+      </c>
+      <c r="N39">
+        <v>0.3411878336660557</v>
+      </c>
+      <c r="O39">
+        <v>0.3488285222881886</v>
+      </c>
+      <c r="P39">
+        <v>0.3328162398792981</v>
+      </c>
+      <c r="Q39">
+        <v>0.326179606317998</v>
+      </c>
+      <c r="R39">
+        <v>0.325503040342381</v>
+      </c>
+      <c r="S39">
+        <v>0.3251601010873838</v>
+      </c>
+      <c r="T39">
+        <v>0.325534406103202</v>
+      </c>
+      <c r="U39">
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <v>0.4446087293029353</v>
+      </c>
+      <c r="W39">
+        <v>0.4026888386619711</v>
+      </c>
+      <c r="X39">
+        <v>0.3411878336660557</v>
+      </c>
+      <c r="Y39">
+        <v>0.3488285222881886</v>
+      </c>
+      <c r="Z39">
+        <v>0.3328162398792981</v>
+      </c>
+      <c r="AA39">
+        <v>0.326179606317998</v>
+      </c>
+      <c r="AB39">
+        <v>0.325503040342381</v>
+      </c>
+      <c r="AC39">
+        <v>0.3251601010873838</v>
+      </c>
+      <c r="AD39">
+        <v>0.3252570773498034</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>20</v>
       </c>
@@ -2592,19 +5039,82 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.75</v>
+      </c>
+      <c r="L40">
+        <v>0.7222222238622633</v>
+      </c>
+      <c r="M40">
+        <v>0.6981982218581977</v>
+      </c>
+      <c r="N40">
+        <v>0.6973310459560559</v>
+      </c>
+      <c r="O40">
+        <v>0.6964679823220368</v>
+      </c>
+      <c r="P40">
+        <v>0.6934964097360808</v>
+      </c>
+      <c r="Q40">
+        <v>0.6931691127645574</v>
+      </c>
+      <c r="R40">
+        <v>0.6926892830720771</v>
+      </c>
+      <c r="S40">
+        <v>0.6919567954342247</v>
+      </c>
+      <c r="T40">
+        <v>0.6913273338183197</v>
+      </c>
+      <c r="U40">
+        <v>0.75</v>
+      </c>
+      <c r="V40">
+        <v>0.7222222238622633</v>
+      </c>
+      <c r="W40">
+        <v>0.7084942226736621</v>
+      </c>
+      <c r="X40">
+        <v>0.7079986935851567</v>
+      </c>
+      <c r="Y40">
+        <v>0.7075055143641573</v>
+      </c>
+      <c r="Z40">
+        <v>0.7044868486907004</v>
+      </c>
+      <c r="AA40">
+        <v>0.7041409615169585</v>
+      </c>
+      <c r="AB40">
+        <v>0.7038687459664591</v>
+      </c>
+      <c r="AC40">
+        <v>0.7031244365514144</v>
+      </c>
+      <c r="AD40">
+        <v>0.7024848159176778</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2621,19 +5131,82 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.75</v>
+      </c>
+      <c r="L41">
+        <v>0.7233066522418566</v>
+      </c>
+      <c r="M41">
+        <v>0.7208180034052527</v>
+      </c>
+      <c r="N41">
+        <v>0.7198380833433516</v>
+      </c>
+      <c r="O41">
+        <v>0.7188631070696472</v>
+      </c>
+      <c r="P41">
+        <v>0.7157450217008383</v>
+      </c>
+      <c r="Q41">
+        <v>0.7154328793964367</v>
+      </c>
+      <c r="R41">
+        <v>0.7149497683451479</v>
+      </c>
+      <c r="S41">
+        <v>0.7141596833160473</v>
+      </c>
+      <c r="T41">
+        <v>0.7134838561202864</v>
+      </c>
+      <c r="U41">
+        <v>0.75</v>
+      </c>
+      <c r="V41">
+        <v>0.7233066522418566</v>
+      </c>
+      <c r="W41">
+        <v>0.7218816013130829</v>
+      </c>
+      <c r="X41">
+        <v>0.7213204791596489</v>
+      </c>
+      <c r="Y41">
+        <v>0.7207621879198647</v>
+      </c>
+      <c r="Z41">
+        <v>0.7176358652439035</v>
+      </c>
+      <c r="AA41">
+        <v>0.7173209872459684</v>
+      </c>
+      <c r="AB41">
+        <v>0.7170462154706622</v>
+      </c>
+      <c r="AC41">
+        <v>0.7162538136753193</v>
+      </c>
+      <c r="AD41">
+        <v>0.7155760047515483</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>21</v>
       </c>
@@ -2650,19 +5223,82 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="L42">
+        <v>0.25</v>
+      </c>
+      <c r="M42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="N42">
+        <v>0.125</v>
+      </c>
+      <c r="O42">
+        <v>0.2</v>
+      </c>
+      <c r="P42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Q42">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="R42">
+        <v>0.1250000000407456</v>
+      </c>
+      <c r="S42">
+        <v>0.1251566596522339</v>
+      </c>
+      <c r="T42">
+        <v>0.1251566596522339</v>
+      </c>
+      <c r="U42">
+        <v>0.5</v>
+      </c>
+      <c r="V42">
+        <v>0.25</v>
+      </c>
+      <c r="W42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X42">
+        <v>0.125</v>
+      </c>
+      <c r="Y42">
+        <v>0.2</v>
+      </c>
+      <c r="Z42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA42">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AB42">
+        <v>0.1250000000407456</v>
+      </c>
+      <c r="AC42">
+        <v>0.1250671398742364</v>
+      </c>
+      <c r="AD42">
+        <v>0.1250671398742364</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>21</v>
       </c>
@@ -2679,19 +5315,82 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>0.25</v>
+      </c>
+      <c r="M43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="N43">
+        <v>0.125</v>
+      </c>
+      <c r="O43">
+        <v>0.2</v>
+      </c>
+      <c r="P43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Q43">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="R43">
+        <v>0.1427563192151191</v>
+      </c>
+      <c r="S43">
+        <v>0.1428758112993858</v>
+      </c>
+      <c r="T43">
+        <v>0.1428758112993858</v>
+      </c>
+      <c r="U43">
+        <v>0.5</v>
+      </c>
+      <c r="V43">
+        <v>0.25</v>
+      </c>
+      <c r="W43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="X43">
+        <v>0.125</v>
+      </c>
+      <c r="Y43">
+        <v>0.2</v>
+      </c>
+      <c r="Z43">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AA43">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AB43">
+        <v>0.1427563192151191</v>
+      </c>
+      <c r="AC43">
+        <v>0.1428061157816788</v>
+      </c>
+      <c r="AD43">
+        <v>0.1428061157816788</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2708,19 +5407,82 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.75</v>
+      </c>
+      <c r="L44">
+        <v>0.6666666667567478</v>
+      </c>
+      <c r="M44">
+        <v>0.615384615442182</v>
+      </c>
+      <c r="N44">
+        <v>0.5714285714616625</v>
+      </c>
+      <c r="O44">
+        <v>0.5333333333477462</v>
+      </c>
+      <c r="P44">
+        <v>0.5294117649739298</v>
+      </c>
+      <c r="Q44">
+        <v>0.5115789474703926</v>
+      </c>
+      <c r="R44">
+        <v>0.5044110016318079</v>
+      </c>
+      <c r="S44">
+        <v>0.4974411502848568</v>
+      </c>
+      <c r="T44">
+        <v>0.4906612897345074</v>
+      </c>
+      <c r="U44">
+        <v>0.75</v>
+      </c>
+      <c r="V44">
+        <v>0.6666666667567478</v>
+      </c>
+      <c r="W44">
+        <v>0.615384615442182</v>
+      </c>
+      <c r="X44">
+        <v>0.5714285714616625</v>
+      </c>
+      <c r="Y44">
+        <v>0.5333333333477462</v>
+      </c>
+      <c r="Z44">
+        <v>0.5294117649739298</v>
+      </c>
+      <c r="AA44">
+        <v>0.5115789474703926</v>
+      </c>
+      <c r="AB44">
+        <v>0.5044110016318079</v>
+      </c>
+      <c r="AC44">
+        <v>0.4974411502848568</v>
+      </c>
+      <c r="AD44">
+        <v>0.4906612897345074</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>22</v>
       </c>
@@ -2737,19 +5499,82 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.75</v>
+      </c>
+      <c r="L45">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M45">
+        <v>0.6153906425455389</v>
+      </c>
+      <c r="N45">
+        <v>0.5714889120327845</v>
+      </c>
+      <c r="O45">
+        <v>0.5667373121493727</v>
+      </c>
+      <c r="P45">
+        <v>0.529898986347292</v>
+      </c>
+      <c r="Q45">
+        <v>0.5281431273337995</v>
+      </c>
+      <c r="R45">
+        <v>0.5271538405333285</v>
+      </c>
+      <c r="S45">
+        <v>0.527120572483921</v>
+      </c>
+      <c r="T45">
+        <v>0.5266903825899359</v>
+      </c>
+      <c r="U45">
+        <v>0.75</v>
+      </c>
+      <c r="V45">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W45">
+        <v>0.6153906425455389</v>
+      </c>
+      <c r="X45">
+        <v>0.5714889120327845</v>
+      </c>
+      <c r="Y45">
+        <v>0.5667373121493727</v>
+      </c>
+      <c r="Z45">
+        <v>0.529898986347292</v>
+      </c>
+      <c r="AA45">
+        <v>0.5281431273337995</v>
+      </c>
+      <c r="AB45">
+        <v>0.5271538405333285</v>
+      </c>
+      <c r="AC45">
+        <v>0.527120572483921</v>
+      </c>
+      <c r="AD45">
+        <v>0.5266903825899359</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>23</v>
       </c>
@@ -2766,19 +5591,82 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0.75</v>
+      </c>
+      <c r="M46">
+        <v>0.75</v>
+      </c>
+      <c r="N46">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O46">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P46">
+        <v>0.6538461538461537</v>
+      </c>
+      <c r="Q46">
+        <v>0.6428571441476154</v>
+      </c>
+      <c r="R46">
+        <v>0.6428571441476154</v>
+      </c>
+      <c r="S46">
+        <v>0.6333333355816254</v>
+      </c>
+      <c r="T46">
+        <v>0.6333333355816254</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
+      </c>
+      <c r="W46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+      <c r="Y46">
+        <v>0.5</v>
+      </c>
+      <c r="Z46">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AC46">
+        <v>0.5</v>
+      </c>
+      <c r="AD46">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>23</v>
       </c>
@@ -2795,19 +5683,82 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <v>0.5</v>
+      </c>
+      <c r="M47">
+        <v>0.5</v>
+      </c>
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <v>0.5</v>
+      </c>
+      <c r="S47">
+        <v>0.5007162059649911</v>
+      </c>
+      <c r="T47">
+        <v>0.5007162059649911</v>
+      </c>
+      <c r="U47">
+        <v>0.5</v>
+      </c>
+      <c r="V47">
+        <v>0.5</v>
+      </c>
+      <c r="W47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="Y47">
+        <v>0.5</v>
+      </c>
+      <c r="Z47">
+        <v>0.5</v>
+      </c>
+      <c r="AA47">
+        <v>0.5</v>
+      </c>
+      <c r="AB47">
+        <v>0.5</v>
+      </c>
+      <c r="AC47">
+        <v>0.5</v>
+      </c>
+      <c r="AD47">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>24</v>
       </c>
@@ -2824,19 +5775,82 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.75</v>
+      </c>
+      <c r="L48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M48">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="P48">
+        <v>0.4583333333333334</v>
+      </c>
+      <c r="Q48">
+        <v>0.4324324324324322</v>
+      </c>
+      <c r="R48">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="S48">
+        <v>0.4145876911878939</v>
+      </c>
+      <c r="T48">
+        <v>0.4083202287368743</v>
+      </c>
+      <c r="U48">
+        <v>0.75</v>
+      </c>
+      <c r="V48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W48">
+        <v>0.625</v>
+      </c>
+      <c r="X48">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="Y48">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="Z48">
+        <v>0.5625</v>
+      </c>
+      <c r="AA48">
+        <v>0.5405405405405405</v>
+      </c>
+      <c r="AB48">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AC48">
+        <v>0.5182346139848671</v>
+      </c>
+      <c r="AD48">
+        <v>0.5104002859210928</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>24</v>
       </c>
@@ -2853,19 +5867,82 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
+        <v>104</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.75</v>
+      </c>
+      <c r="L49">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="M49">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="N49">
+        <v>0.4722222222222223</v>
+      </c>
+      <c r="O49">
+        <v>0.4523809523809523</v>
+      </c>
+      <c r="P49">
+        <v>0.4374999999999998</v>
+      </c>
+      <c r="Q49">
+        <v>0.4119460766946102</v>
+      </c>
+      <c r="R49">
+        <v>0.4049113578808214</v>
+      </c>
+      <c r="S49">
+        <v>0.4045431912164063</v>
+      </c>
+      <c r="T49">
+        <v>0.4045916525969789</v>
+      </c>
+      <c r="U49">
+        <v>0.75</v>
+      </c>
+      <c r="V49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W49">
+        <v>0.625</v>
+      </c>
+      <c r="X49">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="Y49">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="Z49">
+        <v>0.5624999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>0.5296449557502132</v>
+      </c>
+      <c r="AB49">
+        <v>0.5206003172753417</v>
+      </c>
+      <c r="AC49">
+        <v>0.5201269601353795</v>
+      </c>
+      <c r="AD49">
+        <v>0.5201167421081134</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>25</v>
       </c>
@@ -2882,19 +5959,82 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>106</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0.75</v>
+      </c>
+      <c r="M50">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N50">
+        <v>0.625</v>
+      </c>
+      <c r="O50">
+        <v>0.625</v>
+      </c>
+      <c r="P50">
+        <v>0.6</v>
+      </c>
+      <c r="Q50">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="R50">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="S50">
+        <v>0.375</v>
+      </c>
+      <c r="T50">
+        <v>0.375</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0.75</v>
+      </c>
+      <c r="W50">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X50">
+        <v>0.625</v>
+      </c>
+      <c r="Y50">
+        <v>0.625</v>
+      </c>
+      <c r="Z50">
+        <v>0.6</v>
+      </c>
+      <c r="AA50">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AC50">
+        <v>0.375</v>
+      </c>
+      <c r="AD50">
+        <v>0.375</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>25</v>
       </c>
@@ -2911,19 +6051,82 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0.75</v>
+      </c>
+      <c r="M51">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="N51">
+        <v>0.625</v>
+      </c>
+      <c r="O51">
+        <v>0.625</v>
+      </c>
+      <c r="P51">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="R51">
+        <v>0.4167352746861818</v>
+      </c>
+      <c r="S51">
+        <v>0.4163924603416408</v>
+      </c>
+      <c r="T51">
+        <v>0.4163924603416408</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0.75</v>
+      </c>
+      <c r="W51">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="X51">
+        <v>0.625</v>
+      </c>
+      <c r="Y51">
+        <v>0.625</v>
+      </c>
+      <c r="Z51">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="AB51">
+        <v>0.4167352746861818</v>
+      </c>
+      <c r="AC51">
+        <v>0.4163924603416408</v>
+      </c>
+      <c r="AD51">
+        <v>0.4163924603416408</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>26</v>
       </c>
@@ -2940,19 +6143,82 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.75</v>
+      </c>
+      <c r="L52">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M52">
+        <v>0.5</v>
+      </c>
+      <c r="N52">
+        <v>0.3809523809973797</v>
+      </c>
+      <c r="O52">
+        <v>0.3636363641940202</v>
+      </c>
+      <c r="P52">
+        <v>0.3478260884712289</v>
+      </c>
+      <c r="Q52">
+        <v>0.3333333363550203</v>
+      </c>
+      <c r="R52">
+        <v>0.3205128419499035</v>
+      </c>
+      <c r="S52">
+        <v>0.3190080311519531</v>
+      </c>
+      <c r="T52">
+        <v>0.3190624386836481</v>
+      </c>
+      <c r="U52">
+        <v>0.75</v>
+      </c>
+      <c r="V52">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W52">
+        <v>0.5</v>
+      </c>
+      <c r="X52">
+        <v>0.3809523809973797</v>
+      </c>
+      <c r="Y52">
+        <v>0.3636363641940202</v>
+      </c>
+      <c r="Z52">
+        <v>0.3478260884712289</v>
+      </c>
+      <c r="AA52">
+        <v>0.3400000022921918</v>
+      </c>
+      <c r="AB52">
+        <v>0.3269230980293546</v>
+      </c>
+      <c r="AC52">
+        <v>0.3253881910190113</v>
+      </c>
+      <c r="AD52">
+        <v>0.326051367084071</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>26</v>
       </c>
@@ -2969,19 +6235,82 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.75</v>
+      </c>
+      <c r="L53">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M53">
+        <v>0.5</v>
+      </c>
+      <c r="N53">
+        <v>0.380983725725751</v>
+      </c>
+      <c r="O53">
+        <v>0.3788344169299219</v>
+      </c>
+      <c r="P53">
+        <v>0.3626294661980257</v>
+      </c>
+      <c r="Q53">
+        <v>0.3348886932572759</v>
+      </c>
+      <c r="R53">
+        <v>0.3341044021763462</v>
+      </c>
+      <c r="S53">
+        <v>0.3341028858153053</v>
+      </c>
+      <c r="T53">
+        <v>0.3339462441082918</v>
+      </c>
+      <c r="U53">
+        <v>0.75</v>
+      </c>
+      <c r="V53">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W53">
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>0.380983725725751</v>
+      </c>
+      <c r="Y53">
+        <v>0.3863520493071779</v>
+      </c>
+      <c r="Z53">
+        <v>0.3698255257274892</v>
+      </c>
+      <c r="AA53">
+        <v>0.3415342617977751</v>
+      </c>
+      <c r="AB53">
+        <v>0.340734407157254</v>
+      </c>
+      <c r="AC53">
+        <v>0.341047614132653</v>
+      </c>
+      <c r="AD53">
+        <v>0.3408877164402991</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>27</v>
       </c>
@@ -2998,19 +6327,82 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0.75</v>
+      </c>
+      <c r="M54">
+        <v>0.72222222230044</v>
+      </c>
+      <c r="N54">
+        <v>0.6500000002534259</v>
+      </c>
+      <c r="O54">
+        <v>0.6492346277895804</v>
+      </c>
+      <c r="P54">
+        <v>0.6484567252111822</v>
+      </c>
+      <c r="Q54">
+        <v>0.6481139078449315</v>
+      </c>
+      <c r="R54">
+        <v>0.6477483099530331</v>
+      </c>
+      <c r="S54">
+        <v>0.6471619947360086</v>
+      </c>
+      <c r="T54">
+        <v>0.6468774512343028</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0.75</v>
+      </c>
+      <c r="W54">
+        <v>0.72222222230044</v>
+      </c>
+      <c r="X54">
+        <v>0.6500000002534259</v>
+      </c>
+      <c r="Y54">
+        <v>0.6496374554018082</v>
+      </c>
+      <c r="Z54">
+        <v>0.6493458891039986</v>
+      </c>
+      <c r="AA54">
+        <v>0.6491834182570776</v>
+      </c>
+      <c r="AB54">
+        <v>0.6490464194179358</v>
+      </c>
+      <c r="AC54">
+        <v>0.6484589292054369</v>
+      </c>
+      <c r="AD54">
+        <v>0.6481738154689548</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>27</v>
       </c>
@@ -3027,19 +6419,82 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0.75</v>
+      </c>
+      <c r="M55">
+        <v>0.7222417073331079</v>
+      </c>
+      <c r="N55">
+        <v>0.6500631361880455</v>
+      </c>
+      <c r="O55">
+        <v>0.6492974905862131</v>
+      </c>
+      <c r="P55">
+        <v>0.6485838746360447</v>
+      </c>
+      <c r="Q55">
+        <v>0.648262255067367</v>
+      </c>
+      <c r="R55">
+        <v>0.6479070523220799</v>
+      </c>
+      <c r="S55">
+        <v>0.6473414831083164</v>
+      </c>
+      <c r="T55">
+        <v>0.6470590686112203</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0.75</v>
+      </c>
+      <c r="W55">
+        <v>0.7222417073331079</v>
+      </c>
+      <c r="X55">
+        <v>0.6500631361880455</v>
+      </c>
+      <c r="Y55">
+        <v>0.6497003816282156</v>
+      </c>
+      <c r="Z55">
+        <v>0.649432840302275</v>
+      </c>
+      <c r="AA55">
+        <v>0.6492803884604933</v>
+      </c>
+      <c r="AB55">
+        <v>0.6491472480407722</v>
+      </c>
+      <c r="AC55">
+        <v>0.6485805962388272</v>
+      </c>
+      <c r="AD55">
+        <v>0.6482976411560887</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>28</v>
       </c>
@@ -3056,19 +6511,82 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I56" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L56">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="M56">
+        <v>0.6666886450976819</v>
+      </c>
+      <c r="N56">
+        <v>0.6296643627785941</v>
+      </c>
+      <c r="O56">
+        <v>0.6000733183546881</v>
+      </c>
+      <c r="P56">
+        <v>0.5807634336853806</v>
+      </c>
+      <c r="Q56">
+        <v>0.5676711296002289</v>
+      </c>
+      <c r="R56">
+        <v>0.5431810691118198</v>
+      </c>
+      <c r="S56">
+        <v>0.5424461403354247</v>
+      </c>
+      <c r="T56">
+        <v>0.542217775282855</v>
+      </c>
+      <c r="U56">
+        <v>0.9</v>
+      </c>
+      <c r="V56">
+        <v>0.8333333333333335</v>
+      </c>
+      <c r="W56">
+        <v>0.7500164838232611</v>
+      </c>
+      <c r="X56">
+        <v>0.7222482720839456</v>
+      </c>
+      <c r="Y56">
+        <v>0.700054988766016</v>
+      </c>
+      <c r="Z56">
+        <v>0.6729739372454314</v>
+      </c>
+      <c r="AA56">
+        <v>0.6578029073272976</v>
+      </c>
+      <c r="AB56">
+        <v>0.6294244463665618</v>
+      </c>
+      <c r="AC56">
+        <v>0.6285728295402284</v>
+      </c>
+      <c r="AD56">
+        <v>0.6283082059092572</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>28</v>
       </c>
@@ -3085,19 +6603,82 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.8666731774362335</v>
+      </c>
+      <c r="L57">
+        <v>0.777803986655336</v>
+      </c>
+      <c r="M57">
+        <v>0.6668578174837769</v>
+      </c>
+      <c r="N57">
+        <v>0.6299603824222794</v>
+      </c>
+      <c r="O57">
+        <v>0.6223102021801044</v>
+      </c>
+      <c r="P57">
+        <v>0.6184542121571435</v>
+      </c>
+      <c r="Q57">
+        <v>0.6161667455596791</v>
+      </c>
+      <c r="R57">
+        <v>0.6126261671844303</v>
+      </c>
+      <c r="S57">
+        <v>0.6117798581713609</v>
+      </c>
+      <c r="T57">
+        <v>0.6115040185543543</v>
+      </c>
+      <c r="U57">
+        <v>0.9000048830771752</v>
+      </c>
+      <c r="V57">
+        <v>0.833352989991502</v>
+      </c>
+      <c r="W57">
+        <v>0.7501433631128328</v>
+      </c>
+      <c r="X57">
+        <v>0.7224702868167096</v>
+      </c>
+      <c r="Y57">
+        <v>0.7093744666832621</v>
+      </c>
+      <c r="Z57">
+        <v>0.7055613915982348</v>
+      </c>
+      <c r="AA57">
+        <v>0.7029517430842213</v>
+      </c>
+      <c r="AB57">
+        <v>0.6989124862461283</v>
+      </c>
+      <c r="AC57">
+        <v>0.6979469774772565</v>
+      </c>
+      <c r="AD57">
+        <v>0.6976322867851934</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>29</v>
       </c>
@@ -3114,19 +6695,82 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0.75</v>
+      </c>
+      <c r="L58">
+        <v>0.5</v>
+      </c>
+      <c r="M58">
+        <v>0.4827585751982794</v>
+      </c>
+      <c r="N58">
+        <v>0.4671300084485673</v>
+      </c>
+      <c r="O58">
+        <v>0.4607406615281116</v>
+      </c>
+      <c r="P58">
+        <v>0.4529109470186246</v>
+      </c>
+      <c r="Q58">
+        <v>0.4519819228636141</v>
+      </c>
+      <c r="R58">
+        <v>0.4513434571842437</v>
+      </c>
+      <c r="S58">
+        <v>0.4508369132280107</v>
+      </c>
+      <c r="T58">
+        <v>0.4506557810901894</v>
+      </c>
+      <c r="U58">
+        <v>0.75</v>
+      </c>
+      <c r="V58">
+        <v>0.5</v>
+      </c>
+      <c r="W58">
+        <v>0.4827585751982794</v>
+      </c>
+      <c r="X58">
+        <v>0.4671300084485673</v>
+      </c>
+      <c r="Y58">
+        <v>0.4607406615281116</v>
+      </c>
+      <c r="Z58">
+        <v>0.4551298502521678</v>
+      </c>
+      <c r="AA58">
+        <v>0.4544640881780275</v>
+      </c>
+      <c r="AB58">
+        <v>0.4538221162138178</v>
+      </c>
+      <c r="AC58">
+        <v>0.4533127904519975</v>
+      </c>
+      <c r="AD58">
+        <v>0.4531306635843273</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>29</v>
       </c>
@@ -3143,19 +6787,82 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.75</v>
+      </c>
+      <c r="L59">
+        <v>0.5</v>
+      </c>
+      <c r="M59">
+        <v>0.4830740892734838</v>
+      </c>
+      <c r="N59">
+        <v>0.4812526330054293</v>
+      </c>
+      <c r="O59">
+        <v>0.4812949066507571</v>
+      </c>
+      <c r="P59">
+        <v>0.4799537739137065</v>
+      </c>
+      <c r="Q59">
+        <v>0.4785677794391012</v>
+      </c>
+      <c r="R59">
+        <v>0.4778902085954653</v>
+      </c>
+      <c r="S59">
+        <v>0.4773495317862733</v>
+      </c>
+      <c r="T59">
+        <v>0.4771470932633181</v>
+      </c>
+      <c r="U59">
+        <v>0.75</v>
+      </c>
+      <c r="V59">
+        <v>0.5</v>
+      </c>
+      <c r="W59">
+        <v>0.4830740892734838</v>
+      </c>
+      <c r="X59">
+        <v>0.481929256787101</v>
+      </c>
+      <c r="Y59">
+        <v>0.4819700047059748</v>
+      </c>
+      <c r="Z59">
+        <v>0.4809192643412277</v>
+      </c>
+      <c r="AA59">
+        <v>0.4795304817556197</v>
+      </c>
+      <c r="AB59">
+        <v>0.4788515478887115</v>
+      </c>
+      <c r="AC59">
+        <v>0.4783097834366839</v>
+      </c>
+      <c r="AD59">
+        <v>0.4781069376818936</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>30</v>
       </c>
@@ -3172,19 +6879,82 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I60" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0.75</v>
+      </c>
+      <c r="M60">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="N60">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O60">
+        <v>0.5</v>
+      </c>
+      <c r="P60">
+        <v>0.4705882400476367</v>
+      </c>
+      <c r="Q60">
+        <v>0.4705882400476367</v>
+      </c>
+      <c r="R60">
+        <v>0.4715788542704544</v>
+      </c>
+      <c r="S60">
+        <v>0.471445086908283</v>
+      </c>
+      <c r="T60">
+        <v>0.471445086908283</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0.75</v>
+      </c>
+      <c r="W60">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="X60">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="Y60">
+        <v>0.5</v>
+      </c>
+      <c r="Z60">
+        <v>0.4705882400476367</v>
+      </c>
+      <c r="AA60">
+        <v>0.4705882400476367</v>
+      </c>
+      <c r="AB60">
+        <v>0.4715788542704544</v>
+      </c>
+      <c r="AC60">
+        <v>0.471445086908283</v>
+      </c>
+      <c r="AD60">
+        <v>0.471445086908283</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>30</v>
       </c>
@@ -3201,16 +6971,79 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I61" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0.75</v>
+      </c>
+      <c r="M61">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N61">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O61">
+        <v>0.5</v>
+      </c>
+      <c r="P61">
+        <v>0.4735055926198732</v>
+      </c>
+      <c r="Q61">
+        <v>0.4735055926198732</v>
+      </c>
+      <c r="R61">
+        <v>0.4743589632108135</v>
+      </c>
+      <c r="S61">
+        <v>0.4742528458407477</v>
+      </c>
+      <c r="T61">
+        <v>0.4742528458407477</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0.75</v>
+      </c>
+      <c r="W61">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X61">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y61">
+        <v>0.5</v>
+      </c>
+      <c r="Z61">
+        <v>0.4735055926198732</v>
+      </c>
+      <c r="AA61">
+        <v>0.4735055926198732</v>
+      </c>
+      <c r="AB61">
+        <v>0.4743589632108135</v>
+      </c>
+      <c r="AC61">
+        <v>0.4742528458407477</v>
+      </c>
+      <c r="AD61">
+        <v>0.4742528458407477</v>
       </c>
     </row>
   </sheetData>

--- a/Paper/results.xlsx
+++ b/Paper/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>instance_number</t>
   </si>
@@ -43,6 +43,18 @@
     <t>ranked diagnoses</t>
   </si>
   <si>
+    <t>number of diagnoses</t>
+  </si>
+  <si>
+    <t>Information Sent - Diagnosis</t>
+  </si>
+  <si>
+    <t>Information Sent - Ranking</t>
+  </si>
+  <si>
+    <t>Information Sent - Both</t>
+  </si>
+  <si>
     <t>Wasted Effort</t>
   </si>
   <si>
@@ -106,958 +118,1013 @@
     <t>Weighted Recall 100</t>
   </si>
   <si>
-    <t>[0, 2]</t>
+    <t>[1, 2]</t>
   </si>
   <si>
     <t>MRSD</t>
   </si>
   <si>
-    <t>[2]_x000D_
-[0, 3]_x000D_
-[1, 4]_x000D_
-[3, 4]_x000D_
-[3, 6]</t>
-  </si>
-  <si>
-    <t>[[2], 0.43475183048166494]_x000D_
-[[0, 3], 0.43475183048166494]_x000D_
-[[3, 4], 0.06440275035594667]_x000D_
-[[3, 6], 0.06440275035463298]_x000D_
-[[1, 4], 0.0016908383260905405]</t>
+    <t>[1]_x000D_
+[2]_x000D_
+[3, 6]_x000D_
+[0, 3, 4]_x000D_
+[0, 3, 5]</t>
+  </si>
+  <si>
+    <t>[[1], 0.49668090070643367]_x000D_
+[[2], 0.49668090070643367]_x000D_
+[[0, 3, 5], 0.0037270921482089724]_x000D_
+[[3, 6], 0.0020522309726660496]_x000D_
+[[0, 3, 4], 0.0008588754662575185]</t>
   </si>
   <si>
     <t>DMRSD_I1D1R1</t>
   </si>
   <si>
-    <t>[[0, 3], 0.7706040116554856]_x000D_
-[[3, 4], 0.11192299193301931]_x000D_
-[[3, 6], 0.11192299193301931]_x000D_
-[[2], 0.003010171920529241]_x000D_
-[[1, 4], 0.002539832557946547]</t>
-  </si>
-  <si>
-    <t>[2]_x000D_
-[3, 4]_x000D_
-[4, 6]_x000D_
-[0, 1, 3]_x000D_
-[0, 3, 6]_x000D_
-[1, 3, 5]_x000D_
-[3, 5, 6]</t>
-  </si>
-  <si>
-    <t>[[3, 4], 0.16662688247299556]_x000D_
-[[4, 6], 0.16662688247299556]_x000D_
-[[0, 1, 3], 0.16662688247299556]_x000D_
-[[0, 3, 6], 0.16662688247299556]_x000D_
-[[1, 3, 5], 0.16662688247299556]_x000D_
-[[3, 5, 6], 0.16662688247299556]_x000D_
-[[2], 0.00023870516202666127]</t>
-  </si>
-  <si>
-    <t>[[3, 4], 0.16663954434499592]_x000D_
-[[4, 6], 0.16663954434499592]_x000D_
-[[0, 1, 3], 0.16663954434499592]_x000D_
-[[0, 3, 6], 0.16663954434499592]_x000D_
-[[1, 3, 5], 0.16663954434499592]_x000D_
-[[3, 5, 6], 0.16663954434499592]_x000D_
-[[2], 0.00016273393002441008]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[0, 6]_x000D_
-[1, 2]_x000D_
-[2, 3]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.7343945387458801]_x000D_
-[[1, 2], 0.10879120724848133]_x000D_
-[[0, 6], 0.1087908660207159]_x000D_
-[[0, 1], 0.04589461351970618]_x000D_
-[[2, 3], 0.0021287744652164595]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.859577930130561]_x000D_
-[[0, 6], 0.12484561757357594]_x000D_
-[[1, 2], 0.009438108922738246]_x000D_
-[[0, 1], 0.004249622335240201]_x000D_
-[[2, 3], 0.0018887210378845337]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 4]_x000D_
-[2, 3]_x000D_
-[3, 4]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.25]_x000D_
-[[0, 4], 0.25]_x000D_
-[[2, 3], 0.25]_x000D_
-[[3, 4], 0.25]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 5]_x000D_
-[1, 5]_x000D_
-[2, 4]_x000D_
+    <t>[[0, 3, 5], 0.3617829276317301]_x000D_
+[[1], 0.18832823359115564]_x000D_
+[[2], 0.18832823359115564]_x000D_
+[[3, 6], 0.1787646904791048]_x000D_
+[[0, 3, 4], 0.0827959147068539]</t>
+  </si>
+  <si>
+    <t>[1, 2]_x000D_
+[1, 3]_x000D_
 [2, 5]_x000D_
 [2, 6]_x000D_
 [3, 5]_x000D_
-[5, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.5614609796624805]_x000D_
-[[2, 5], 0.14036524491562008]_x000D_
-[[2, 6], 0.14036522716404748]_x000D_
-[[2, 4], 0.08317392226373312]_x000D_
-[[0, 5], 0.051723697830882216]_x000D_
-[[5, 6], 0.011450651180556576]_x000D_
-[[1, 5], 0.00991354149683897]_x000D_
-[[3, 5], 0.0015467354858410935]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.6042841984754629]_x000D_
-[[2, 5], 0.1509488276027312]_x000D_
-[[2, 6], 0.14301586825756718]_x000D_
-[[0, 5], 0.08840671232466889]_x000D_
-[[5, 6], 0.005875670793715385]_x000D_
-[[1, 5], 0.002987489018341827]_x000D_
-[[2, 4], 0.002987489018341827]_x000D_
-[[3, 5], 0.0014937445091709135]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 4]_x000D_
-[0, 6]_x000D_
-[1, 4]_x000D_
-[3, 4]_x000D_
-[4, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.16666666673910327]_x000D_
-[[0, 4], 0.16666666673910327]_x000D_
-[[1, 4], 0.16666666673910327]_x000D_
-[[3, 4], 0.16666666673910327]_x000D_
-[[4, 6], 0.16666666673910327]_x000D_
-[[0, 6], 0.16666666630448362]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.16666666666666666]_x000D_
-[[0, 4], 0.16666666666666666]_x000D_
-[[0, 6], 0.16666666666666666]_x000D_
-[[1, 4], 0.16666666666666666]_x000D_
-[[3, 4], 0.16666666666666666]_x000D_
-[[4, 6], 0.16666666666666666]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 5]_x000D_
-[2, 4]_x000D_
-[2, 6]_x000D_
-[3, 4]_x000D_
-[3, 6]_x000D_
-[5, 6]_x000D_
-[0, 1, 3]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.25125299957014363]_x000D_
-[[2, 6], 0.25125299957014363]_x000D_
-[[3, 6], 0.25125299957014363]_x000D_
-[[0, 1, 3], 0.0628132498925359]_x000D_
-[[2, 4], 0.06281323910621486]_x000D_
-[[5, 6], 0.0628132391061771]_x000D_
-[[3, 4], 0.03721886786889116]_x000D_
-[[0, 5], 0.02058240531575004]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.2603569714134883]_x000D_
-[[2, 6], 0.2603569714134883]_x000D_
-[[3, 6], 0.2603569714134883]_x000D_
-[[0, 1, 3], 0.0649278247228065]_x000D_
-[[2, 4], 0.058271781980177295]_x000D_
-[[5, 6], 0.058271781980177274]_x000D_
-[[3, 4], 0.036599586941100264]_x000D_
-[[0, 5], 0.0008581101352739482]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
+[3, 6]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.16666666666666666]_x000D_
+[[1, 3], 0.16666666666666666]_x000D_
+[[2, 5], 0.16666666666666666]_x000D_
+[[2, 6], 0.16666666666666666]_x000D_
+[[3, 5], 0.16666666666666666]_x000D_
+[[3, 6], 0.16666666666666666]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
 [0, 3]_x000D_
 [1, 2]_x000D_
 [1, 3]_x000D_
+[1, 5]_x000D_
+[1, 6]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.33138296343127505]_x000D_
+[[1, 6], 0.33138296343127505]_x000D_
+[[0, 2], 0.08284574085781876]_x000D_
+[[0, 1], 0.08284574085781873]_x000D_
+[[1, 3], 0.08284573535507572]_x000D_
+[[1, 5], 0.08284573038065111]_x000D_
+[[0, 3], 0.0058511256860855195]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.33553864144113704]_x000D_
+[[1, 6], 0.33553864144113704]_x000D_
+[[0, 1], 0.08381679459554733]_x000D_
+[[0, 2], 0.08381679459554733]_x000D_
+[[1, 3], 0.08021838626269436]_x000D_
+[[1, 5], 0.07941188973786688]_x000D_
+[[0, 3], 0.0016588519260700744]</t>
+  </si>
+  <si>
+    <t>[4]_x000D_
+[0, 1]_x000D_
+[0, 3]_x000D_
+[0, 6]_x000D_
+[1, 2]_x000D_
+[1, 3]_x000D_
+[1, 5]_x000D_
+[1, 6]_x000D_
+[2, 3]_x000D_
+[2, 6]_x000D_
+[3, 5]_x000D_
+[5, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.17358989965152924]_x000D_
+[[0, 3], 0.17358989965152924]_x000D_
+[[1, 2], 0.17358989965152924]_x000D_
+[[1, 3], 0.17358989965152924]_x000D_
+[[2, 3], 0.17358989965152924]_x000D_
+[[3, 5], 0.0433974720303625]_x000D_
+[[1, 5], 0.025717022170596925]_x000D_
+[[0, 6], 0.025716098754683607]_x000D_
+[[2, 6], 0.025716098754683607]_x000D_
+[[1, 6], 0.010849366972750216]_x000D_
+[[5, 6], 0.00045985544756664326]_x000D_
+[[4], 0.00019458761171018375]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.18038876635918402]_x000D_
+[[0, 3], 0.18038876635918402]_x000D_
+[[1, 2], 0.18038876635918402]_x000D_
+[[1, 3], 0.18038876635918402]_x000D_
+[[2, 3], 0.18038876635918402]_x000D_
+[[3, 5], 0.04312616774956599]_x000D_
+[[0, 6], 0.025295038759375933]_x000D_
+[[2, 6], 0.025295038759375933]_x000D_
+[[1, 5], 0.0019571405602666204]_x000D_
+[[1, 6], 0.0017607141809583143]_x000D_
+[[5, 6], 0.0004459072898893404]_x000D_
+[[4], 0.00017616090464764065]</t>
+  </si>
+  <si>
+    <t>[1, 2]_x000D_
+[1, 3]_x000D_
 [2, 6]_x000D_
 [3, 6]_x000D_
-[4, 6]_x000D_
-[5, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.22923499223982116]_x000D_
-[[0, 3], 0.22923499223982116]_x000D_
-[[1, 2], 0.22923499223982116]_x000D_
-[[1, 3], 0.22923499223982116]_x000D_
-[[2, 6], 0.03395727375948018]_x000D_
-[[3, 6], 0.033957273749566905]_x000D_
-[[5, 6], 0.01448113179096603]_x000D_
-[[4, 6], 0.0006643517407022861]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.2331782283925103]_x000D_
-[[0, 3], 0.2331782283925103]_x000D_
-[[1, 2], 0.2331782283925103]_x000D_
-[[1, 3], 0.2331782283925103]_x000D_
-[[2, 6], 0.032778944986534296]_x000D_
-[[3, 6], 0.032778944986534296]_x000D_
-[[5, 6], 0.0011527976379268393]_x000D_
-[[4, 6], 0.0005763988189634196]</t>
+[0, 1, 5]_x000D_
+[0, 5, 6]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.16666666673910327]_x000D_
+[[1, 3], 0.16666666673910327]_x000D_
+[[2, 6], 0.16666666673910327]_x000D_
+[[0, 1, 5], 0.16666666673910327]_x000D_
+[[0, 5, 6], 0.16666666673910327]_x000D_
+[[3, 6], 0.16666666630448362]</t>
+  </si>
+  <si>
+    <t>[[2, 6], 0.24948607452300103]_x000D_
+[[3, 6], 0.24948607452300103]_x000D_
+[[0, 1, 5], 0.24948607452300103]_x000D_
+[[0, 5, 6], 0.24948607452300103]_x000D_
+[[1, 3], 0.0012334211447975515]_x000D_
+[[1, 2], 0.0008222807631983677]</t>
+  </si>
+  <si>
+    <t>[2]_x000D_
+[4]_x000D_
+[0, 3]_x000D_
+[3, 6]</t>
+  </si>
+  <si>
+    <t>[[2], 0.464903487016657]_x000D_
+[[4], 0.464903487016657]_x000D_
+[[0, 3], 0.06887211760436383]_x000D_
+[[3, 6], 0.0013209083623221297]</t>
+  </si>
+  <si>
+    <t>[[0, 3], 0.929760533476207]_x000D_
+[[2], 0.025900329031459845]_x000D_
+[[4], 0.025900329031459845]_x000D_
+[[3, 6], 0.018438808460873268]</t>
   </si>
   <si>
     <t>[4]_x000D_
 [0, 2]_x000D_
 [0, 3]_x000D_
 [0, 5]_x000D_
+[1, 2]_x000D_
+[2, 6]_x000D_
+[3, 6]_x000D_
+[5, 6]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.5699616055757207]_x000D_
+[[2, 6], 0.14249040139393018]_x000D_
+[[0, 2], 0.14249040139393013]_x000D_
+[[0, 5], 0.060099194504292575]_x000D_
+[[5, 6], 0.060099194489092414]_x000D_
+[[0, 3], 0.011624016219728509]_x000D_
+[[3, 6], 0.011624016215173063]_x000D_
+[[4], 0.001611170208132347]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.577724555282347]_x000D_
+[[0, 2], 0.14431428873565127]_x000D_
+[[2, 6], 0.14431428873565127]_x000D_
+[[5, 6], 0.060641827577319805]_x000D_
+[[0, 5], 0.060641827577319785]_x000D_
+[[0, 3], 0.005617421909837564]_x000D_
+[[3, 6], 0.005617421909837563]_x000D_
+[[4], 0.001128368272035834]</t>
+  </si>
+  <si>
+    <t>[2]_x000D_
+[0, 1]_x000D_
+[0, 3]_x000D_
+[0, 4]_x000D_
+[0, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.24991049640960966]_x000D_
+[[0, 3], 0.24991049640960966]_x000D_
+[[0, 4], 0.24991049640960966]_x000D_
+[[0, 6], 0.2499104957579136]_x000D_
+[[2], 0.00035801501325746294]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.2499389797412741]_x000D_
+[[0, 3], 0.2499389797412741]_x000D_
+[[0, 4], 0.2499389797412741]_x000D_
+[[0, 6], 0.2499389797412741]_x000D_
+[[2], 0.000244081034903588]</t>
+  </si>
+  <si>
+    <t>[3]_x000D_
+[1, 2]_x000D_
+[1, 4]_x000D_
+[1, 5]_x000D_
+[2, 4]_x000D_
+[4, 5]_x000D_
+[4, 6]</t>
+  </si>
+  <si>
+    <t>[[3], 0.2773175100801609]_x000D_
+[[1, 2], 0.2773175100801609]_x000D_
+[[1, 5], 0.2773175100801609]_x000D_
+[[1, 4], 0.06932937752004022]_x000D_
+[[4, 5], 0.0693293775200402]_x000D_
+[[2, 4], 0.024168780737450154]_x000D_
+[[4, 6], 0.005219933981986586]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.3808564845887615]_x000D_
+[[1, 5], 0.3808564845887615]_x000D_
+[[1, 4], 0.08917311090793156]_x000D_
+[[4, 5], 0.08917311090793156]_x000D_
+[[2, 4], 0.05641965954198296]_x000D_
+[[4, 6], 0.0027772891431684333]_x000D_
+[[3], 0.0007438603214624248]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 5]_x000D_
+[1, 2]_x000D_
+[2, 5]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.43548960546904714]_x000D_
+[[2, 5], 0.43548960546904714]_x000D_
+[[0, 1], 0.06451039453095295]_x000D_
+[[0, 5], 0.06451039453095295]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.43837552006950864]_x000D_
+[[2, 5], 0.43837552006950864]_x000D_
+[[0, 1], 0.061624479930491374]_x000D_
+[[0, 5], 0.061624479930491374]</t>
+  </si>
+  <si>
+    <t>[0, 2]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
+[0, 3]_x000D_
+[0, 4]_x000D_
 [0, 6]_x000D_
-[1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[[4], 0.27411327107866273]_x000D_
-[[0, 2], 0.27411327107866273]_x000D_
-[[0, 3], 0.27411327107866273]_x000D_
-[[0, 5], 0.06852831759967763]_x000D_
-[[0, 6], 0.06852831562763552]_x000D_
-[[1, 2, 3], 0.04060355353669863]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.441039746545707]_x000D_
-[[0, 3], 0.441039746545707]_x000D_
-[[0, 6], 0.11006943630179782]_x000D_
-[[1, 2, 3], 0.0048361504643858666]_x000D_
-[[4], 0.001722811509944168]_x000D_
-[[0, 5], 0.001292108632458126]</t>
+[0, 7]_x000D_
+[1, 2]_x000D_
+[1, 3]_x000D_
+[1, 6]_x000D_
+[1, 7]_x000D_
+[2, 3]_x000D_
+[3, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.2956253701909286]_x000D_
+[[0, 6], 0.2956253701909286]_x000D_
+[[0, 3], 0.07390633050989269]_x000D_
+[[0, 1], 0.07390633050989223]_x000D_
+[[0, 7], 0.07390633050989223]_x000D_
+[[0, 4], 0.04379473233852942]_x000D_
+[[2, 3], 0.043794500031293856]_x000D_
+[[1, 2], 0.04379450002673649]_x000D_
+[[1, 6], 0.03116880666801977]_x000D_
+[[1, 7], 0.008159243010546475]_x000D_
+[[3, 7], 0.008159243007242776]_x000D_
+[[1, 3], 0.008159243006096854]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.31336973490654113]_x000D_
+[[0, 6], 0.31336973490654113]_x000D_
+[[0, 1], 0.07574339056926516]_x000D_
+[[0, 3], 0.07574339056926514]_x000D_
+[[0, 7], 0.07574339056926514]_x000D_
+[[2, 3], 0.04569654547602141]_x000D_
+[[1, 2], 0.0456965454760214]_x000D_
+[[1, 6], 0.03301504397794767]_x000D_
+[[1, 3], 0.0061756049401530564]_x000D_
+[[1, 7], 0.0061756049401530564]_x000D_
+[[3, 7], 0.0061756049401530564]_x000D_
+[[0, 4], 0.0030954087286726656]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 3]_x000D_
+[0, 5]_x000D_
+[1, 2]_x000D_
+[1, 3]_x000D_
+[1, 5]_x000D_
+[2, 3]_x000D_
+[2, 4]_x000D_
+[2, 5]_x000D_
+[2, 6]_x000D_
+[2, 7]_x000D_
+[3, 6]_x000D_
+[3, 7]_x000D_
+[5, 6]_x000D_
+[5, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.21498866281979098]_x000D_
+[[2, 6], 0.21498866281979098]_x000D_
+[[2, 7], 0.21498866281979098]_x000D_
+[[0, 5], 0.053747156950630114]_x000D_
+[[2, 5], 0.05374715695062464]_x000D_
+[[1, 2], 0.05374715695061783]_x000D_
+[[5, 6], 0.031848826080619494]_x000D_
+[[5, 7], 0.031848826080619494]_x000D_
+[[2, 4], 0.03184819083196985]_x000D_
+[[2, 3], 0.03184781191442224]_x000D_
+[[0, 3], 0.031847811913691834]_x000D_
+[[3, 6], 0.013436787912896096]_x000D_
+[[3, 7], 0.013436787912896096]_x000D_
+[[1, 5], 0.005933674576829095]_x000D_
+[[1, 3], 0.001743823464810161]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.22225106784241402]_x000D_
+[[2, 6], 0.22225106784241402]_x000D_
+[[2, 7], 0.22225106784241402]_x000D_
+[[0, 5], 0.0537194488199212]_x000D_
+[[1, 2], 0.0537194488199212]_x000D_
+[[2, 5], 0.0537194488199212]_x000D_
+[[5, 6], 0.032409339184539095]_x000D_
+[[5, 7], 0.032409339184539095]_x000D_
+[[0, 3], 0.0318647095338655]_x000D_
+[[2, 3], 0.0318647095338655]_x000D_
+[[2, 4], 0.0316270451838943]_x000D_
+[[1, 5], 0.004379921350513466]_x000D_
+[[3, 6], 0.0028653277525745873]_x000D_
+[[3, 7], 0.0028653277525745873]_x000D_
+[[1, 3], 0.0018027305366281673]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
+[0, 4]_x000D_
+[4, 6]_x000D_
+[0, 5, 7]_x000D_
+[0, 6, 7]_x000D_
+[1, 2, 6]_x000D_
+[1, 3, 6]_x000D_
+[1, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.48571685734662734]_x000D_
+[[0, 5, 7], 0.12142921491328186]_x000D_
+[[0, 6, 7], 0.12142919484859195]_x000D_
+[[1, 2, 6], 0.09329903916908794]_x000D_
+[[1, 3, 6], 0.07194571457144447]_x000D_
+[[0, 1], 0.030683491214501892]_x000D_
+[[0, 4], 0.03068349115991527]_x000D_
+[[4, 6], 0.030683491001809258]_x000D_
+[[1, 6, 7], 0.014129505774739929]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.519587031403909]_x000D_
+[[1, 2, 6], 0.12989673416881464]_x000D_
+[[0, 6, 7], 0.12982647375090423]_x000D_
+[[0, 5, 7], 0.12948169201906648]_x000D_
+[[1, 3, 6], 0.0767612751454221]_x000D_
+[[1, 6, 7], 0.006740516129611188]_x000D_
+[[0, 1], 0.0025687591274241106]_x000D_
+[[0, 4], 0.0025687591274241106]_x000D_
+[[4, 6], 0.0025687591274241106]</t>
+  </si>
+  <si>
+    <t>[2]_x000D_
+[0, 3, 5]</t>
+  </si>
+  <si>
+    <t>[[2], 0.8]_x000D_
+[[0, 3, 5], 0.19999999999999996]</t>
+  </si>
+  <si>
+    <t>[[2], 0.8013537540393715]_x000D_
+[[0, 3, 5], 0.19864624596062852]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 3]_x000D_
+[0, 5]_x000D_
+[1, 3, 6]_x000D_
+[3, 4, 6]_x000D_
+[3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.34504829412951643]_x000D_
+[[0, 3], 0.34504829412951643]_x000D_
+[[1, 3, 6], 0.08626207353237911]_x000D_
+[[3, 4, 6], 0.08626153620627867]_x000D_
+[[3, 5, 6], 0.08626153620534392]_x000D_
+[[0, 5], 0.05111826579696539]</t>
+  </si>
+  <si>
+    <t>[[0, 3], 0.5700846815451558]_x000D_
+[[1, 3, 6], 0.14221432443267798]_x000D_
+[[3, 4, 6], 0.1416583989314112]_x000D_
+[[3, 5, 6], 0.1416583989314112]_x000D_
+[[0, 2], 0.0025052549481964855]_x000D_
+[[0, 5], 0.0018789412111473642]</t>
   </si>
   <si>
     <t>[0]_x000D_
 [2]_x000D_
 [6]_x000D_
-[3, 4]</t>
-  </si>
-  <si>
-    <t>[[0], 0.3326482717453131]_x000D_
-[[2], 0.3326482717453131]_x000D_
-[[6], 0.3326482717453131]_x000D_
-[[3, 4], 0.002055184764060685]</t>
-  </si>
-  <si>
-    <t>[[3, 4], 0.34521155203873716]_x000D_
-[[0], 0.2182628159870876]_x000D_
-[[2], 0.2182628159870876]_x000D_
-[[6], 0.2182628159870876]</t>
-  </si>
-  <si>
-    <t>[0, 1]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 5]_x000D_
+[1, 3]_x000D_
 [1, 4]_x000D_
-[2, 4]_x000D_
-[0, 3, 4]_x000D_
-[3, 4, 6]_x000D_
-[3, 4, 7]_x000D_
+[3, 4]_x000D_
+[3, 7]_x000D_
+[4, 5]</t>
+  </si>
+  <si>
+    <t>[[0], 0.1739130442110816]_x000D_
+[[2], 0.1739130442110816]_x000D_
+[[6], 0.1739130442110816]_x000D_
+[[3, 4], 0.1739130442110816]_x000D_
+[[3, 7], 0.1739130442110816]_x000D_
+[[1, 4], 0.0434782610527704]_x000D_
+[[1, 3], 0.04347826105277039]_x000D_
+[[4, 5], 0.043478256839051106]</t>
+  </si>
+  <si>
+    <t>[[3, 4], 0.3672009230909191]_x000D_
+[[3, 7], 0.3672009230909191]_x000D_
+[[4, 5], 0.0914949455132386]_x000D_
+[[1, 3], 0.08597582019809365]_x000D_
+[[1, 4], 0.08597582019809365]_x000D_
+[[0], 0.0007171893029119514]_x000D_
+[[2], 0.0007171893029119514]_x000D_
+[[6], 0.0007171893029119514]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[0, 1, 5]_x000D_
+[0, 3, 5]_x000D_
+[0, 4, 5]_x000D_
+[0, 5, 7]_x000D_
+[1, 2, 6]_x000D_
+[1, 5, 6]_x000D_
+[2, 5, 6]_x000D_
+[3, 4, 5]_x000D_
+[3, 5, 6]_x000D_
 [4, 5, 6]_x000D_
-[4, 5, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.3437732041428882]_x000D_
-[[1, 4], 0.3437732041428882]_x000D_
-[[4, 5, 6], 0.08594330103572205]_x000D_
-[[0, 5], 0.05092936357672418]_x000D_
-[[2, 4], 0.05092936357672418]_x000D_
-[[0, 3, 4], 0.05092934331142756]_x000D_
-[[3, 4, 6], 0.05092905895358071]_x000D_
-[[4, 5, 7], 0.021485811941118732]_x000D_
-[[3, 4, 7], 0.001307349318926292]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.40920916976578825]_x000D_
-[[1, 4], 0.40920916976578825]_x000D_
-[[4, 5, 6], 0.10168996877250196]_x000D_
-[[0, 3, 4], 0.06062341280246422]_x000D_
-[[4, 5, 7], 0.005297987307906857]_x000D_
-[[0, 5], 0.004439743560233504]_x000D_
-[[2, 4], 0.004439743560233504]_x000D_
-[[3, 4, 6], 0.003713994438024135]_x000D_
-[[3, 4, 7], 0.0013768100270592698]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[0, 3]_x000D_
-[0, 5]_x000D_
-[0, 7]_x000D_
-[1, 4]_x000D_
+[4, 5, 7]_x000D_
+[5, 6, 7]_x000D_
+[1, 2, 3, 4]_x000D_
+[1, 2, 4, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1, 5], 0.1635833129161813]_x000D_
+[[1, 2, 6], 0.1635833129161813]_x000D_
+[[1, 5, 6], 0.1635833129161813]_x000D_
+[[2, 5, 6], 0.1635833129161813]_x000D_
+[[0, 2], 0.16358331219940195]_x000D_
+[[4, 5, 6], 0.040895828229045326]_x000D_
+[[0, 4, 5], 0.04089579812544615]_x000D_
+[[0, 3, 5], 0.024234518969707464]_x000D_
+[[0, 5, 7], 0.024234518969707464]_x000D_
+[[3, 5, 6], 0.02423346251793129]_x000D_
+[[5, 6, 7], 0.02423346251793129]_x000D_
+[[1, 2, 3, 4], 0.0010809182379752826]_x000D_
+[[1, 2, 4, 7], 0.0010809182379752826]_x000D_
+[[3, 4, 5], 0.0005970051650765483]_x000D_
+[[4, 5, 7], 0.0005970051650765483]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.1800580597539838]_x000D_
+[[0, 1, 5], 0.1800580597539838]_x000D_
+[[1, 2, 6], 0.1800580597539838]_x000D_
+[[1, 5, 6], 0.1800580597539838]_x000D_
+[[2, 5, 6], 0.1800580597539838]_x000D_
+[[4, 5, 6], 0.045001573150383604]_x000D_
+[[0, 4, 5], 0.04449263676495975]_x000D_
+[[0, 3, 5], 0.002027834713982255]_x000D_
+[[0, 5, 7], 0.002027834713982255]_x000D_
+[[3, 5, 6], 0.0012843149520259775]_x000D_
+[[5, 6, 7], 0.001284314952025977]_x000D_
+[[1, 2, 4, 7], 0.0011897793077707628]_x000D_
+[[1, 2, 3, 4], 0.0011897793077707626]_x000D_
+[[3, 4, 5], 0.0006058166835899877]_x000D_
+[[4, 5, 7], 0.0006058166835899877]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[1, 2]_x000D_
+[1, 5]_x000D_
+[0, 1, 3]_x000D_
+[0, 1, 4]_x000D_
+[0, 1, 7]_x000D_
+[1, 3, 4]_x000D_
+[2, 4, 6]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.12500000005140555]_x000D_
+[[1, 5], 0.12500000005140555]_x000D_
+[[0, 1, 3], 0.12500000005140555]_x000D_
+[[0, 1, 4], 0.12500000005140555]_x000D_
+[[0, 1, 7], 0.12500000005140555]_x000D_
+[[1, 3, 4], 0.12500000005140555]_x000D_
+[[2, 4, 6], 0.12500000005140555]_x000D_
+[[1, 2], 0.12499999964016124]</t>
+  </si>
+  <si>
+    <t>[[0, 2], 0.16646853821846963]_x000D_
+[[0, 1, 3], 0.16646853821846963]_x000D_
+[[0, 1, 4], 0.16646853821846963]_x000D_
+[[0, 1, 7], 0.16646853821846963]_x000D_
+[[1, 3, 4], 0.16646853821846963]_x000D_
+[[2, 4, 6], 0.16646853821846963]_x000D_
+[[1, 2], 0.0008229950925107447]_x000D_
+[[1, 5], 0.00036577559667144206]</t>
+  </si>
+  <si>
+    <t>[0, 2]_x000D_
+[1, 5]_x000D_
 [2, 3]_x000D_
 [2, 4]_x000D_
-[2, 7]_x000D_
-[1, 3, 5]_x000D_
-[3, 4, 6]_x000D_
-[3, 5, 6]_x000D_
-[4, 5, 6]_x000D_
-[4, 6, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.5843171646906116]_x000D_
-[[0, 7], 0.14607928899295503]_x000D_
-[[0, 5], 0.08656394213283027]_x000D_
-[[0, 3], 0.08656230624718117]_x000D_
-[[0, 2], 0.08655909067567753]_x000D_
-[[4, 6, 7], 0.0015548069295382614]_x000D_
-[[2, 4], 0.001470908783447924]_x000D_
-[[2, 7], 0.0013695045289110535]_x000D_
-[[1, 4], 0.0012605270360997387]_x000D_
-[[3, 4, 6], 0.0011406659252713707]_x000D_
-[[2, 3], 0.0009881950085182454]_x000D_
-[[4, 5, 6], 0.0009812832513066562]_x000D_
-[[3, 5, 6], 0.0006485332632738185]_x000D_
-[[1, 3, 5], 0.0005037825343772375]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.7034740452984805]_x000D_
-[[0, 7], 0.17411981626433148]_x000D_
-[[0, 2], 0.10085889051360312]_x000D_
-[[0, 3], 0.006948787510896712]_x000D_
-[[0, 5], 0.003091438675628088]_x000D_
-[[4, 6, 7], 0.0018033392274497179]_x000D_
-[[2, 4], 0.0017389342550407994]_x000D_
-[[2, 7], 0.001545719337814044]_x000D_
-[[1, 4], 0.0013739727447235946]_x000D_
-[[3, 4, 6], 0.0013525044205872886]_x000D_
-[[2, 3], 0.001159289503360533]_x000D_
-[[4, 5, 6], 0.001159289503360533]_x000D_
-[[3, 5, 6], 0.000772859668907022]_x000D_
-[[1, 3, 5], 0.0006011130758165727]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 2]_x000D_
-[1, 3]_x000D_
-[1, 4]_x000D_
-[2, 3]_x000D_
-[2, 4]_x000D_
+[2, 5]_x000D_
 [3, 5]_x000D_
-[4, 5]_x000D_
-[0, 5, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.6996878473786059]_x000D_
-[[1, 4], 0.17492193972291437]_x000D_
-[[1, 3], 0.10364985249895936]_x000D_
-[[0, 2], 0.011101488675911585]_x000D_
-[[2, 4], 0.0028073222089444374]_x000D_
-[[4, 5], 0.002721228402454179]_x000D_
-[[0, 5, 7], 0.002568174009929294]_x000D_
-[[2, 3], 0.0013278519823652433]_x000D_
-[[3, 5], 0.0012142951199157468]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.7896000825005199]_x000D_
-[[1, 4], 0.18687455614420456]_x000D_
-[[1, 3], 0.008669756775759797]_x000D_
-[[0, 2], 0.003903662517245002]_x000D_
-[[2, 4], 0.002927746887933752]_x000D_
-[[0, 5, 7], 0.002656659213125071]_x000D_
-[[4, 5], 0.002602441678163335]_x000D_
-[[2, 3], 0.001463873443966876]_x000D_
-[[3, 5], 0.0013012208390816675]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 3, 6]_x000D_
-[2, 3, 6]_x000D_
-[2, 6, 7]_x000D_
-[3, 4, 6]_x000D_
-[3, 5, 6]_x000D_
-[4, 6, 7]_x000D_
-[5, 6, 7]</t>
-  </si>
-  <si>
-    <t>[[0], 0.99268061247902]_x000D_
-[[1, 3, 6], 0.003548631081621504]_x000D_
-[[3, 4, 6], 0.00083963031793393]_x000D_
-[[3, 5, 6], 0.00083963031793393]_x000D_
-[[2, 3, 6], 0.0007203090642599508]_x000D_
-[[4, 6, 7], 0.0004799843029583175]_x000D_
-[[5, 6, 7], 0.0004799843029583175]_x000D_
-[[2, 6, 7], 0.00041121813331389815]</t>
-  </si>
-  <si>
-    <t>[[0], 0.35359116022099446]_x000D_
-[[1, 3, 6], 0.30455801104972374]_x000D_
-[[3, 4, 6], 0.07613950276243094]_x000D_
-[[3, 5, 6], 0.07613950276243094]_x000D_
-[[2, 3, 6], 0.06526243093922653]_x000D_
-[[4, 6, 7], 0.04350828729281768]_x000D_
-[[5, 6, 7], 0.04350828729281768]_x000D_
-[[2, 6, 7], 0.03729281767955801]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[1, 3]_x000D_
-[0, 2, 7]_x000D_
-[1, 2, 5]_x000D_
-[1, 2, 6]_x000D_
-[1, 4, 5]_x000D_
-[1, 4, 6]_x000D_
-[2, 3, 7]_x000D_
-[2, 5, 7]_x000D_
-[2, 6, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.23735928144488316]_x000D_
-[[1, 2, 5], 0.23735928144488316]_x000D_
-[[1, 4, 5], 0.23735928144488316]_x000D_
-[[2, 5, 7], 0.059339820361220784]_x000D_
-[[1, 2, 6], 0.059339819964118724]_x000D_
-[[0, 2, 7], 0.059339547371245874]_x000D_
-[[1, 4, 6], 0.0592587995029785]_x000D_
-[[1, 3], 0.03516433799183455]_x000D_
-[[2, 3, 7], 0.014834812194658134]_x000D_
-[[2, 6, 7], 0.0006450182792940802]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.26571488516539943]_x000D_
-[[1, 2, 5], 0.26571488516539943]_x000D_
-[[1, 4, 5], 0.26571488516539943]_x000D_
-[[2, 5, 7], 0.06642026341865691]_x000D_
-[[0, 2, 7], 0.06636925921443566]_x000D_
-[[1, 2, 6], 0.06635900678033942]_x000D_
-[[1, 4, 6], 0.0011920192907505407]_x000D_
-[[2, 3, 7], 0.0010430168794067231]_x000D_
-[[1, 3], 0.000875769274837132]_x000D_
-[[2, 6, 7], 0.0005960096453752704]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 3]</t>
-  </si>
-  <si>
-    <t>[[0], 0.5]_x000D_
-[[1, 3], 0.5]</t>
-  </si>
-  <si>
-    <t>[[1, 3], 0.9980506822612085]_x000D_
-[[0], 0.001949317738791423]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[1, 3]_x000D_
-[1, 4]_x000D_
-[1, 6]_x000D_
-[1, 7]_x000D_
-[6, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.19047619069703223]_x000D_
-[[1, 4], 0.19047619069703223]_x000D_
-[[1, 6], 0.19047619069703223]_x000D_
-[[1, 7], 0.19047619069703223]_x000D_
-[[6, 7], 0.19047619069703223]_x000D_
-[[1, 3], 0.04761904651483885]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.19986825090882476]_x000D_
-[[1, 4], 0.19986825090882476]_x000D_
-[[1, 6], 0.19986825090882476]_x000D_
-[[1, 7], 0.19986825090882476]_x000D_
-[[6, 7], 0.19986825090882476]_x000D_
-[[1, 3], 0.0006587454558762535]</t>
-  </si>
-  <si>
-    <t>[1]_x000D_
-[4]</t>
-  </si>
-  <si>
-    <t>[[1], 0.9976471784035029]_x000D_
-[[4], 0.0023528215964971812]</t>
-  </si>
-  <si>
-    <t>[[1], 0.9980506822612085]_x000D_
-[[4], 0.001949317738791423]</t>
-  </si>
-  <si>
-    <t>[1]_x000D_
-[0, 2]_x000D_
-[0, 4]_x000D_
-[0, 5]_x000D_
-[0, 7]_x000D_
-[2, 4]_x000D_
-[2, 6]_x000D_
-[2, 7]_x000D_
-[3, 4]_x000D_
-[4, 6]_x000D_
-[4, 7]_x000D_
-[5, 6]_x000D_
 [5, 7]</t>
   </si>
   <si>
-    <t>[[1], 0.22252233186745113]_x000D_
-[[0, 4], 0.22252233186745113]_x000D_
-[[0, 5], 0.22252233186745113]_x000D_
-[[4, 7], 0.05563058296686277]_x000D_
-[[3, 4], 0.055630577575378315]_x000D_
-[[2, 4], 0.055630573413940884]_x000D_
-[[4, 6], 0.05563057341392457]_x000D_
-[[5, 6], 0.032962907039864535]_x000D_
-[[0, 2], 0.032962907039620716]_x000D_
-[[0, 7], 0.019393270334356554]_x000D_
-[[5, 7], 0.019393270300888023]_x000D_
-[[2, 7], 0.004188527011297457]_x000D_
-[[2, 6], 0.0010098153015127606]</t>
-  </si>
-  <si>
-    <t>[[0, 4], 0.28398464348014474]_x000D_
-[[0, 5], 0.28398464348014474]_x000D_
-[[3, 4], 0.07076006035905005]_x000D_
-[[4, 7], 0.06649169735562807]_x000D_
-[[2, 4], 0.06356000817167307]_x000D_
-[[4, 6], 0.06356000817167307]_x000D_
-[[0, 7], 0.042069171849867915]_x000D_
-[[5, 7], 0.042069171849867915]_x000D_
-[[0, 2], 0.039921038382652096]_x000D_
-[[5, 6], 0.039921038382652096]_x000D_
-[[2, 7], 0.00207087839928888]_x000D_
-[[2, 6], 0.001052982610560229]_x000D_
-[[1], 0.0005546575067971577]</t>
-  </si>
-  <si>
-    <t>[0, 1]_x000D_
-[0, 7]_x000D_
-[1, 2]_x000D_
-[1, 3]_x000D_
-[0, 2, 6]_x000D_
-[0, 3, 6]_x000D_
-[0, 4, 6]_x000D_
-[0, 5, 6]_x000D_
-[2, 4, 6]_x000D_
-[2, 4, 7]_x000D_
-[3, 4, 6]_x000D_
-[3, 4, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.4111811797976197]_x000D_
-[[1, 2], 0.4111811797976197]_x000D_
-[[1, 3], 0.10279528812157047]_x000D_
-[[0, 2, 6], 0.06091567010649944]_x000D_
-[[0, 4, 6], 0.0023491878913195906]_x000D_
-[[0, 3, 6], 0.0023491878896824323]_x000D_
-[[2, 4, 7], 0.0022783149245108806]_x000D_
-[[2, 4, 6], 0.001967056734696717]_x000D_
-[[0, 7], 0.0016859117247782465]_x000D_
-[[0, 5, 6], 0.0013308467086465127]_x000D_
-[[3, 4, 7], 0.0010564928949903928]_x000D_
-[[3, 4, 6], 0.0009096834080660591]</t>
-  </si>
-  <si>
-    <t>[[0, 1], 0.4375192823230934]_x000D_
-[[1, 2], 0.4375192823230934]_x000D_
-[[1, 3], 0.1045992516272608]_x000D_
-[[0, 2, 6], 0.006291796037530541]_x000D_
-[[0, 3, 6], 0.002499664510463933]_x000D_
-[[0, 4, 6], 0.002499664510463933]_x000D_
-[[2, 4, 7], 0.0024242517915234415]_x000D_
-[[2, 4, 6], 0.0018926500936675564]_x000D_
-[[0, 7], 0.001442019118984805]_x000D_
-[[0, 5, 6], 0.0012617667291117043]_x000D_
-[[3, 4, 7], 0.0011040458879727412]_x000D_
-[[3, 4, 6], 0.0009463250468337782]</t>
-  </si>
-  <si>
-    <t>[0]_x000D_
-[1, 2]_x000D_
-[1, 4]_x000D_
-[1, 5]_x000D_
-[1, 6]_x000D_
-[2, 4]_x000D_
-[3, 4]_x000D_
-[4, 7]_x000D_
-[4, 8]</t>
-  </si>
-  <si>
-    <t>[[1, 2], 0.12497762009623892]_x000D_
-[[1, 4], 0.12497762009623892]_x000D_
-[[1, 5], 0.12497762009623892]_x000D_
-[[1, 6], 0.12497762009623892]_x000D_
-[[2, 4], 0.12497762009623892]_x000D_
-[[4, 7], 0.12497762009623892]_x000D_
-[[4, 8], 0.12497762009623892]_x000D_
-[[3, 4], 0.12497761977033256]_x000D_
-[[0], 0.00017903955599489832]</t>
-  </si>
-  <si>
-    <t>[[1, 2], 0.14273642026397176]_x000D_
-[[1, 4], 0.14273642026397176]_x000D_
-[[1, 5], 0.14273642026397176]_x000D_
-[[1, 6], 0.14273642026397176]_x000D_
-[[2, 4], 0.14273642026397176]_x000D_
-[[3, 4], 0.14273642026397176]_x000D_
-[[4, 7], 0.14273642026397176]_x000D_
-[[4, 8], 0.0007056671167835519]_x000D_
-[[0], 0.00013939103541403493]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 5]_x000D_
-[0, 6]_x000D_
-[0, 7]_x000D_
-[2, 8]_x000D_
-[7, 8]_x000D_
-[1, 5, 8]_x000D_
-[1, 6, 8]_x000D_
-[3, 5, 8]_x000D_
-[3, 6, 8]_x000D_
-[4, 5, 8]_x000D_
-[4, 6, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.21807168620345674]_x000D_
-[[0, 6], 0.21807168620345674]_x000D_
-[[2, 8], 0.21807168584986225]_x000D_
-[[3, 6, 8], 0.05451792155086418]_x000D_
-[[4, 6, 8], 0.05451792155086418]_x000D_
-[[1, 6, 8], 0.05451792155086417]_x000D_
-[[0, 7], 0.05451791874155011]_x000D_
-[[0, 5], 0.05451791626723215]_x000D_
-[[7, 8], 0.03230691647458618]_x000D_
-[[4, 5, 8], 0.013629480316976018]_x000D_
-[[3, 5, 8], 0.01362947264519766]_x000D_
-[[1, 5, 8], 0.013629472645089553]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.24761469621990917]_x000D_
-[[0, 6], 0.24761469621990917]_x000D_
-[[2, 8], 0.24761469621990917]_x000D_
-[[4, 6, 8], 0.0618957923227355]_x000D_
-[[1, 6, 8], 0.06182005047497999]_x000D_
-[[0, 5], 0.06169781096467507]_x000D_
-[[3, 6, 8], 0.061231418960956865]_x000D_
-[[1, 5, 8], 0.0033006183229158355]_x000D_
-[[3, 5, 8], 0.0033006183229158355]_x000D_
-[[4, 5, 8], 0.0018693197451602952]_x000D_
-[[0, 7], 0.0012241693355598538]_x000D_
-[[7, 8], 0.0008161128903732358]</t>
+    <t>[[0, 2], 0.14285714285714285]_x000D_
+[[1, 5], 0.14285714285714285]_x000D_
+[[2, 3], 0.14285714285714285]_x000D_
+[[2, 4], 0.14285714285714285]_x000D_
+[[2, 5], 0.14285714285714285]_x000D_
+[[3, 5], 0.14285714285714285]_x000D_
+[[5, 7], 0.14285714285714285]</t>
+  </si>
+  <si>
+    <t>[[1, 5], 0.16657516419609997]_x000D_
+[[2, 3], 0.16657516419609997]_x000D_
+[[2, 4], 0.16657516419609997]_x000D_
+[[2, 5], 0.16657516419609997]_x000D_
+[[3, 5], 0.16657516419609997]_x000D_
+[[5, 7], 0.16657516419609997]_x000D_
+[[0, 2], 0.0005490148234002318]</t>
   </si>
   <si>
     <t>[2]_x000D_
 [0, 1]_x000D_
 [0, 3]_x000D_
 [0, 5]_x000D_
-[0, 7]_x000D_
-[0, 8]</t>
-  </si>
-  <si>
-    <t>[[2], 0.2666666711632509]_x000D_
-[[0, 7], 0.2666666711632509]_x000D_
-[[0, 8], 0.2666666711632509]_x000D_
-[[0, 5], 0.06666666779081272]_x000D_
-[[0, 1], 0.06666665935972446]_x000D_
-[[0, 3], 0.06666665935971028]</t>
-  </si>
-  <si>
-    <t>[[0, 7], 0.3666974540754738]_x000D_
-[[0, 8], 0.3666974540754738]_x000D_
-[[0, 5], 0.09160019559877129]_x000D_
-[[0, 1], 0.08678624216014932]_x000D_
-[[0, 3], 0.08678624216014932]_x000D_
-[[2], 0.0014324119299823196]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
+[1, 3]_x000D_
+[1, 4]_x000D_
+[3, 4]_x000D_
+[3, 6]_x000D_
+[3, 7]_x000D_
+[5, 7]_x000D_
+[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[[2], 0.9298676846396143]_x000D_
+[[0, 1], 0.05811615352548391]_x000D_
+[[0, 3], 0.005119942296529307]_x000D_
+[[0, 5], 0.002298053175790536]_x000D_
+[[1, 3], 0.0011492810433320429]_x000D_
+[[1, 4], 0.001035968384322716]_x000D_
+[[3, 4], 0.0007686903621578873]_x000D_
+[[3, 7], 0.0007686903621578873]_x000D_
+[[3, 6], 0.0003434616535132706]_x000D_
+[[5, 7], 0.0003405277165428275]_x000D_
+[[4, 5, 6], 0.00019154684055534046]</t>
+  </si>
+  <si>
+    <t>[[2], 0.9798663294595906]_x000D_
+[[0, 1], 0.008314451585364677]_x000D_
+[[0, 3], 0.004844309856337088]_x000D_
+[[0, 5], 0.0021530266028164835]_x000D_
+[[1, 3], 0.001211077464084272]_x000D_
+[[1, 4], 0.0010765133014082418]_x000D_
+[[3, 4], 0.0008073849760561813]_x000D_
+[[3, 7], 0.0008073849760561813]_x000D_
+[[3, 6], 0.00035883776713608055]_x000D_
+[[5, 7], 0.00035883776713608055]_x000D_
+[[4, 5, 6], 0.00020184624401404532]</t>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[1, 2]_x000D_
+[0, 4, 5]_x000D_
+[0, 4, 7]_x000D_
+[2, 4, 5]_x000D_
+[2, 4, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.16666666666666666]_x000D_
+[[1, 2], 0.16666666666666666]_x000D_
+[[0, 4, 5], 0.16666666666666666]_x000D_
+[[0, 4, 7], 0.16666666666666666]_x000D_
+[[2, 4, 5], 0.16666666666666666]_x000D_
+[[2, 4, 7], 0.16666666666666666]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.24906424898383245]_x000D_
+[[0, 4, 5], 0.24906424898383245]_x000D_
+[[0, 4, 7], 0.24906424898383245]_x000D_
+[[2, 4, 5], 0.24906424898383245]_x000D_
+[[2, 4, 7], 0.002511668361075875]_x000D_
+[[1, 2], 0.0012313357035943864]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[2, 4]_x000D_
+[4, 7]_x000D_
+[4, 8]_x000D_
+[1, 2, 6]_x000D_
+[2, 3, 6]</t>
+  </si>
+  <si>
+    <t>[[0], 0.8365716679658818]_x000D_
+[[1, 2, 6], 0.08820271314146114]_x000D_
+[[4, 8], 0.06852453105782166]_x000D_
+[[2, 4], 0.0032535974300736364]_x000D_
+[[4, 7], 0.0021125845733212492]_x000D_
+[[2, 3, 6], 0.001334905831440453]</t>
+  </si>
+  <si>
+    <t>[[1, 2, 6], 0.45515185175206707]_x000D_
+[[4, 8], 0.15660306057425616]_x000D_
+[[0], 0.1392027205104499]_x000D_
+[[2, 4], 0.11745229543069212]_x000D_
+[[4, 7], 0.07830153028712808]_x000D_
+[[2, 3, 6], 0.05328854144540661]</t>
+  </si>
+  <si>
+    <t>[1]_x000D_
+[0, 3, 5]_x000D_
+[0, 3, 8]_x000D_
+[0, 4, 5]_x000D_
+[0, 4, 8]_x000D_
+[0, 5, 6]_x000D_
+[0, 6, 8]_x000D_
+[2, 4, 5]_x000D_
+[2, 4, 8]_x000D_
+[3, 4, 5]_x000D_
+[3, 4, 8]_x000D_
+[3, 5, 7]_x000D_
+[3, 7, 8]_x000D_
+[4, 5, 7]_x000D_
+[5, 6, 7]_x000D_
+[6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[1], 0.25715071396804207]_x000D_
+[[0, 4, 8], 0.25715071396804207]_x000D_
+[[0, 6, 8], 0.25715071396804207]_x000D_
+[[0, 3, 8], 0.06428767849201052]_x000D_
+[[0, 4, 5], 0.06428766971652954]_x000D_
+[[3, 4, 8], 0.03809538980841616]_x000D_
+[[0, 5, 6], 0.03809493892813698]_x000D_
+[[3, 4, 5], 0.012594064918887345]_x000D_
+[[0, 3, 5], 0.006184350402593091]_x000D_
+[[2, 4, 8], 0.0009800146286902023]_x000D_
+[[2, 4, 5], 0.00096070319596504]_x000D_
+[[4, 5, 7], 0.0009438605840363874]_x000D_
+[[6, 7, 8], 0.00062474161792835]_x000D_
+[[5, 6, 7], 0.0006046287823684963]_x000D_
+[[3, 7, 8], 0.00044651240964283217]_x000D_
+[[3, 5, 7], 0.0004433046106687002]</t>
+  </si>
+  <si>
+    <t>[[0, 4, 8], 0.35287145595127156]_x000D_
+[[0, 6, 8], 0.35287145595127156]_x000D_
+[[0, 4, 5], 0.08821713620501746]_x000D_
+[[0, 3, 8], 0.08625465352789308]_x000D_
+[[0, 5, 6], 0.05226678146143706]_x000D_
+[[3, 4, 8], 0.05215847695292646]_x000D_
+[[3, 4, 5], 0.004413581811431882]_x000D_
+[[0, 3, 5], 0.003288507878944417]_x000D_
+[[1], 0.0013784041248096545]_x000D_
+[[2, 4, 5], 0.0011872582403145656]_x000D_
+[[4, 5, 7], 0.0011872582403145656]_x000D_
+[[2, 4, 8], 0.0011630284803081459]_x000D_
+[[5, 6, 7], 0.0007915054935430437]_x000D_
+[[6, 7, 8], 0.0007753523202054306]_x000D_
+[[3, 5, 7], 0.0005936291201572828]_x000D_
+[[3, 7, 8], 0.0005815142401540729]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 2]_x000D_
 [0, 6]_x000D_
-[0, 7]_x000D_
-[1, 2, 4]_x000D_
-[1, 2, 6]_x000D_
-[1, 3, 6]_x000D_
-[2, 4, 7]_x000D_
-[2, 4, 8]_x000D_
-[2, 6, 7]_x000D_
-[2, 6, 8]_x000D_
-[3, 4, 7]_x000D_
-[3, 6, 7]_x000D_
-[3, 6, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.10208005718421855]_x000D_
-[[0, 6], 0.10208005718421855]_x000D_
-[[0, 7], 0.10208005718421855]_x000D_
-[[1, 2, 4], 0.10208005718421855]_x000D_
-[[1, 2, 6], 0.10208005718421855]_x000D_
-[[2, 4, 7], 0.10208005718421855]_x000D_
-[[2, 4, 8], 0.10208005718421855]_x000D_
-[[2, 6, 7], 0.10208005718421855]_x000D_
-[[2, 6, 8], 0.10208005718421855]_x000D_
-[[1, 3, 6], 0.025520014296054633]_x000D_
-[[3, 6, 8], 0.025520014296054633]_x000D_
-[[3, 4, 7], 0.015122118285142365]_x000D_
-[[3, 6, 7], 0.015117338464781381]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.11552508951113456]_x000D_
-[[0, 6], 0.11552508951113456]_x000D_
-[[1, 2, 4], 0.11552508951113456]_x000D_
-[[1, 2, 6], 0.11552508951113456]_x000D_
-[[2, 4, 7], 0.11552508951113456]_x000D_
-[[2, 4, 8], 0.11552508951113456]_x000D_
-[[2, 6, 7], 0.11552508951113456]_x000D_
-[[2, 6, 8], 0.11552508951113456]_x000D_
-[[3, 6, 8], 0.028733465269937523]_x000D_
-[[1, 3, 6], 0.02859674262335082]_x000D_
-[[3, 6, 7], 0.017052606509710824]_x000D_
-[[3, 4, 7], 0.0009087908919086516]_x000D_
-[[0, 7], 0.0005076786160157281]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 4]_x000D_
-[0, 5]_x000D_
-[0, 6]_x000D_
-[2, 3]_x000D_
-[3, 4]_x000D_
-[1, 3, 6]_x000D_
-[3, 5, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.125]_x000D_
-[[0, 4], 0.125]_x000D_
-[[0, 5], 0.125]_x000D_
-[[0, 6], 0.125]_x000D_
-[[2, 3], 0.125]_x000D_
-[[3, 4], 0.125]_x000D_
-[[1, 3, 6], 0.125]_x000D_
-[[3, 5, 6], 0.125]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.16639246034164076]_x000D_
-[[0, 4], 0.16639246034164076]_x000D_
-[[0, 6], 0.16639246034164076]_x000D_
-[[2, 3], 0.16639246034164076]_x000D_
-[[1, 3, 6], 0.16639246034164076]_x000D_
-[[3, 5, 6], 0.16639246034164076]_x000D_
-[[0, 5], 0.0008226189750776918]_x000D_
-[[3, 4], 0.0008226189750776918]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 3]_x000D_
-[0, 7]_x000D_
-[1, 3]_x000D_
-[3, 4]_x000D_
+[1, 8]_x000D_
+[2, 5]_x000D_
+[2, 6]_x000D_
+[2, 8]_x000D_
 [3, 5]_x000D_
 [3, 6]_x000D_
-[3, 7]_x000D_
-[3, 8]_x000D_
-[1, 2, 4]_x000D_
-[1, 2, 6]_x000D_
-[1, 4, 7]_x000D_
-[1, 6, 7]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1525422909414012]_x000D_
-[[0, 3], 0.1525422909414012]_x000D_
-[[0, 7], 0.1525422909414012]_x000D_
-[[3, 4], 0.1525422909414012]_x000D_
-[[3, 7], 0.1525422909414012]_x000D_
-[[3, 8], 0.038135572640753096]_x000D_
-[[3, 5], 0.03813557154332105]_x000D_
-[[3, 6], 0.03813557020231748]_x000D_
-[[1, 2, 4], 0.0381355680284147]_x000D_
-[[1, 3], 0.0381355679124776]_x000D_
-[[1, 4, 7], 0.03813551487275732]_x000D_
-[[1, 6, 7], 0.004677177718830525]_x000D_
-[[1, 2, 6], 0.003798002374122382]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.1600316497221386]_x000D_
-[[0, 3], 0.1600316497221386]_x000D_
-[[0, 7], 0.1600316497221386]_x000D_
-[[3, 4], 0.1600316497221386]_x000D_
-[[3, 7], 0.1600316497221386]_x000D_
-[[3, 5], 0.03993878922097801]_x000D_
-[[1, 2, 4], 0.0396831857625694]_x000D_
-[[1, 4, 7], 0.039315048850596876]_x000D_
-[[3, 6], 0.038259321300610244]_x000D_
-[[1, 3], 0.03787467120842122]_x000D_
-[[1, 6, 7], 0.002336244092861384]_x000D_
-[[1, 2, 6], 0.0019656482294745123]_x000D_
-[[3, 8], 0.00046884272379532795]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 7]_x000D_
-[1, 2]_x000D_
-[1, 7]_x000D_
-[2, 4, 5]_x000D_
-[2, 4, 8]_x000D_
-[3, 5, 7]_x000D_
-[3, 7, 8]_x000D_
-[2, 5, 6, 7]_x000D_
-[2, 6, 7, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.3969227607920974]_x000D_
-[[1, 2], 0.3969227607920974]_x000D_
-[[0, 7], 0.09923068988367906]_x000D_
-[[1, 7], 0.09923068988367906]_x000D_
-[[2, 4, 8], 0.002404182544694715]_x000D_
-[[2, 6, 7, 8], 0.0019419632496205685]_x000D_
-[[2, 4, 5], 0.00108542267329679]_x000D_
-[[2, 5, 6, 7], 0.0009170902103261478]_x000D_
-[[3, 7, 8], 0.0009047610276474705]_x000D_
-[[3, 5, 7], 0.00043967894286119335]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.3971010013141342]_x000D_
-[[1, 2], 0.3971010013141342]_x000D_
-[[0, 7], 0.09919691443219569]_x000D_
-[[1, 7], 0.09919691443219569]_x000D_
-[[2, 4, 8], 0.002405262164503172]_x000D_
-[[2, 6, 7, 8], 0.0017814284421746134]_x000D_
-[[2, 4, 5], 0.0010179591098140647]_x000D_
-[[2, 5, 6, 7], 0.0008907142210873067]_x000D_
-[[3, 7, 8], 0.000872536379840627]_x000D_
-[[3, 5, 7], 0.0004362681899203135]</t>
+[4, 6]_x000D_
+[6, 7]_x000D_
+[6, 8]_x000D_
+[0, 3, 4]_x000D_
+[0, 4, 7]_x000D_
+[0, 5, 7]_x000D_
+[1, 4, 5]_x000D_
+[1, 5, 7]_x000D_
+[3, 4, 8]_x000D_
+[4, 5, 7]_x000D_
+[4, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.11500915686601577]_x000D_
+[[0, 6], 0.11500915686601577]_x000D_
+[[1, 8], 0.11500915686601577]_x000D_
+[[4, 6], 0.11500915686601577]_x000D_
+[[6, 8], 0.11500915686601577]_x000D_
+[[1, 4, 5], 0.11500915686601577]_x000D_
+[[0, 3, 4], 0.02875228921650394]_x000D_
+[[0, 4, 7], 0.02875228921650394]_x000D_
+[[0, 5, 7], 0.02875228921650394]_x000D_
+[[1, 5, 7], 0.02875228921650394]_x000D_
+[[6, 7], 0.028752288516447403]_x000D_
+[[4, 5, 7], 0.02875228694133345]_x000D_
+[[3, 6], 0.02875228642994285]_x000D_
+[[2, 6], 0.028752284279139274]_x000D_
+[[4, 7, 8], 0.017037955722113238]_x000D_
+[[3, 4, 8], 0.017037064949276568]_x000D_
+[[0, 2], 0.01703665477053852]_x000D_
+[[3, 5], 0.012128332529343349]_x000D_
+[[2, 8], 0.009421440083468617]_x000D_
+[[2, 5], 0.007265307716286619]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.12452308249025475]_x000D_
+[[0, 6], 0.12452308249025475]_x000D_
+[[1, 8], 0.12452308249025475]_x000D_
+[[4, 6], 0.12452308249025475]_x000D_
+[[6, 8], 0.12452308249025475]_x000D_
+[[1, 4, 5], 0.12452308249025475]_x000D_
+[[0, 4, 7], 0.03108897067168333]_x000D_
+[[0, 5, 7], 0.03108897067168333]_x000D_
+[[1, 5, 7], 0.03108897067168333]_x000D_
+[[3, 6], 0.03102724402674065]_x000D_
+[[4, 5, 7], 0.030921253718524503]_x000D_
+[[0, 3, 4], 0.030792699911070635]_x000D_
+[[2, 6], 0.02787012721410015]_x000D_
+[[3, 4, 8], 0.018424454228070677]_x000D_
+[[0, 2], 0.017504787212084497]_x000D_
+[[4, 7, 8], 0.0012071572842749523]_x000D_
+[[2, 5], 0.0006156231495184713]_x000D_
+[[2, 8], 0.00041041543301231423]_x000D_
+[[3, 5], 0.00041041543301231423]_x000D_
+[[6, 7], 0.00041041543301231423]</t>
   </si>
   <si>
     <t>[0, 1]_x000D_
 [0, 2]_x000D_
-[1, 8]_x000D_
-[0, 3, 5]_x000D_
-[0, 3, 6]_x000D_
-[0, 5, 7]_x000D_
-[0, 6, 7]_x000D_
-[2, 4, 8]_x000D_
-[2, 6, 8]_x000D_
-[3, 6, 8]_x000D_
-[3, 4, 5, 8]_x000D_
-[4, 5, 7, 8]_x000D_
-[4, 6, 7, 8]_x000D_
-[5, 6, 7, 8]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.34451955165324055]_x000D_
-[[0, 3, 5], 0.08612988791331014]_x000D_
-[[2, 6, 8], 0.08612988791331012]_x000D_
-[[0, 3, 6], 0.08612988791331011]_x000D_
-[[0, 5, 7], 0.08608445891348873]_x000D_
-[[0, 6, 7], 0.08608445886125952]_x000D_
-[[2, 4, 8], 0.08598400224373515]_x000D_
-[[0, 1], 0.05103472475361955]_x000D_
-[[3, 4, 5, 8], 0.02153246949495532]_x000D_
-[[4, 6, 7, 8], 0.021532465629062893]_x000D_
-[[4, 5, 7, 8], 0.021532465629016256]_x000D_
-[[5, 6, 7, 8], 0.021532308666416013]_x000D_
-[[3, 6, 8], 0.0013524392134053986]_x000D_
-[[1, 8], 0.00042099120187040034]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.4104014635576511]_x000D_
-[[0, 3, 5], 0.1025941033970528]_x000D_
-[[0, 5, 7], 0.10257032847661228]_x000D_
-[[0, 6, 7], 0.10257032847661228]_x000D_
-[[2, 6, 8], 0.10219628152122871]_x000D_
-[[0, 3, 6], 0.10204115046444007]_x000D_
-[[0, 1], 0.0576920370700505]_x000D_
-[[2, 4, 8], 0.004797417049088422]_x000D_
-[[3, 4, 5, 8], 0.003898881633263079]_x000D_
-[[5, 6, 7, 8], 0.0036706947348774215]_x000D_
-[[4, 5, 7, 8], 0.0028678057651692016]_x000D_
-[[4, 6, 7, 8], 0.0028678057651692016]_x000D_
-[[3, 6, 8], 0.0013808215746225292]_x000D_
-[[1, 8], 0.0004508805141624585]</t>
-  </si>
-  <si>
-    <t>[0, 2]_x000D_
-[0, 3]_x000D_
 [0, 7]_x000D_
 [1, 2]_x000D_
 [1, 3]_x000D_
 [1, 4]_x000D_
+[1, 5]_x000D_
 [1, 6]_x000D_
+[1, 8]_x000D_
+[2, 4]_x000D_
+[4, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.09998032680172915]_x000D_
+[[0, 2], 0.09998032680172915]_x000D_
+[[1, 2], 0.09998032680172915]_x000D_
+[[1, 3], 0.09998032680172915]_x000D_
+[[1, 4], 0.09998032680172915]_x000D_
+[[1, 5], 0.09998032680172915]_x000D_
+[[1, 6], 0.09998032680172915]_x000D_
+[[1, 8], 0.09998032680172915]_x000D_
+[[2, 4], 0.09998032680172915]_x000D_
+[[4, 7], 0.09998032680172915]_x000D_
+[[0, 7], 0.00019673198270844582]</t>
+  </si>
+  <si>
+    <t>[[1, 2], 0.1661696991825392]_x000D_
+[[1, 3], 0.1661696991825392]_x000D_
+[[1, 4], 0.1661696991825392]_x000D_
+[[1, 5], 0.1661696991825392]_x000D_
+[[1, 6], 0.1661696991825392]_x000D_
+[[2, 4], 0.1661696991825392]_x000D_
+[[1, 8], 0.0008215176778433639]_x000D_
+[[4, 7], 0.0008215176778433639]_x000D_
+[[0, 1], 0.000547678451895576]_x000D_
+[[0, 2], 0.000547678451895576]_x000D_
+[[0, 7], 0.00024341264528692264]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[0, 8]_x000D_
+[1, 3]_x000D_
+[1, 8]_x000D_
+[3, 8]_x000D_
+[2, 4, 8]_x000D_
+[2, 6, 8]_x000D_
+[4, 7, 8]_x000D_
+[5, 7, 8]_x000D_
+[6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.35626761486210357]_x000D_
+[[1, 3], 0.35626761486210357]_x000D_
+[[1, 8], 0.08906689912589645]_x000D_
+[[0, 8], 0.0890668991258736]_x000D_
+[[6, 7, 8], 0.05278036425435617]_x000D_
+[[2, 6, 8], 0.05275372935066089]_x000D_
+[[4, 7, 8], 0.0014530852450767605]_x000D_
+[[2, 4, 8], 0.0010822879886412094]_x000D_
+[[5, 7, 8], 0.0006412861331592491]_x000D_
+[[3, 8], 0.0006202190521284916]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.49318202341892176]_x000D_
+[[1, 3], 0.49318202341892176]_x000D_
+[[0, 8], 0.002438216790584269]_x000D_
+[[1, 8], 0.002438216790584269]_x000D_
+[[6, 7, 8], 0.002438216790584269]_x000D_
+[[2, 6, 8], 0.001896390837121098]_x000D_
+[[4, 7, 8], 0.0016254778603895126]_x000D_
+[[2, 4, 8], 0.0012642605580807321]_x000D_
+[[5, 7, 8], 0.0008127389301947563]_x000D_
+[[3, 8], 0.0007224346046175612]</t>
+  </si>
+  <si>
+    <t>[0, 1]_x000D_
+[1, 4]_x000D_
+[0, 4, 6]_x000D_
+[0, 4, 7]_x000D_
+[1, 2, 3]_x000D_
+[1, 2, 6]_x000D_
+[1, 3, 5]_x000D_
+[1, 5, 6]_x000D_
+[2, 4, 6]_x000D_
+[3, 4, 6]_x000D_
+[4, 5, 6]_x000D_
+[4, 6, 8]</t>
+  </si>
+  <si>
+    <t>[[1, 4], 0.08333333334662381]_x000D_
+[[0, 4, 6], 0.08333333334662381]_x000D_
+[[0, 4, 7], 0.08333333334662381]_x000D_
+[[1, 2, 3], 0.08333333334662381]_x000D_
+[[1, 2, 6], 0.08333333334662381]_x000D_
+[[1, 3, 5], 0.08333333334662381]_x000D_
+[[1, 5, 6], 0.08333333334662381]_x000D_
+[[2, 4, 6], 0.08333333334662381]_x000D_
+[[3, 4, 6], 0.08333333334662381]_x000D_
+[[4, 5, 6], 0.08333333334662381]_x000D_
+[[4, 6, 8], 0.08333333334662381]_x000D_
+[[0, 1], 0.0833333331871381]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.08333333333333333]_x000D_
+[[1, 4], 0.08333333333333333]_x000D_
+[[0, 4, 6], 0.08333333333333333]_x000D_
+[[0, 4, 7], 0.08333333333333333]_x000D_
+[[1, 2, 3], 0.08333333333333333]_x000D_
+[[1, 2, 6], 0.08333333333333333]_x000D_
+[[1, 3, 5], 0.08333333333333333]_x000D_
+[[1, 5, 6], 0.08333333333333333]_x000D_
+[[2, 4, 6], 0.08333333333333333]_x000D_
+[[3, 4, 6], 0.08333333333333333]_x000D_
+[[4, 5, 6], 0.08333333333333333]_x000D_
+[[4, 6, 8], 0.08333333333333333]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[1]_x000D_
+[2, 4]_x000D_
+[3, 4]_x000D_
+[3, 6]_x000D_
+[4, 6]_x000D_
+[4, 7]_x000D_
+[5, 6]_x000D_
+[6, 8]_x000D_
+[2, 3, 7]_x000D_
+[2, 3, 8]_x000D_
+[3, 5, 7]_x000D_
+[3, 5, 8]</t>
+  </si>
+  <si>
+    <t>[[0], 0.4141024635962548]_x000D_
+[[1], 0.4141024635962548]_x000D_
+[[2, 4], 0.061348513125371096]_x000D_
+[[4, 6], 0.06134592015119864]_x000D_
+[[3, 4], 0.025881147120125327]_x000D_
+[[6, 8], 0.007936761984884232]_x000D_
+[[5, 6], 0.007936761984535046]_x000D_
+[[3, 6], 0.0022753328589106615]_x000D_
+[[4, 7], 0.0015058525345459132]_x000D_
+[[2, 3, 8], 0.001407531227731311]_x000D_
+[[3, 5, 8], 0.0010898039471556402]_x000D_
+[[3, 5, 7], 0.0006003745175178208]_x000D_
+[[2, 3, 7], 0.000467073355514592]</t>
+  </si>
+  <si>
+    <t>[[0], 0.4282488217433343]_x000D_
+[[1], 0.4282488217433343]_x000D_
+[[2, 4], 0.06316160284361111]_x000D_
+[[4, 6], 0.0624485697819007]_x000D_
+[[3, 4], 0.003633816152084917]_x000D_
+[[5, 6], 0.003613591428629146]_x000D_
+[[6, 8], 0.0036135914286291454]_x000D_
+[[3, 6], 0.002117196933667607]_x000D_
+[[2, 3, 8], 0.0014408701354126773]_x000D_
+[[4, 7], 0.0012546352199511747]_x000D_
+[[3, 5, 8], 0.0011206767719876378]_x000D_
+[[3, 5, 7], 0.0006175157723197188]_x000D_
+[[2, 3, 7], 0.0004802900451375591]</t>
+  </si>
+  <si>
+    <t>[0]_x000D_
+[1, 2]_x000D_
 [1, 7]_x000D_
-[2, 8]_x000D_
+[1, 8]_x000D_
+[2, 3]_x000D_
+[2, 4]_x000D_
 [3, 8]_x000D_
-[4, 5]_x000D_
 [4, 7]_x000D_
 [4, 8]_x000D_
-[6, 8]_x000D_
-[7, 8]_x000D_
+[5, 7]_x000D_
+[2, 6, 7]_x000D_
+[2, 7, 8]_x000D_
+[6, 7, 8]</t>
+  </si>
+  <si>
+    <t>[[0], 0.5513013164095]_x000D_
+[[1, 8], 0.137825319947808]_x000D_
+[[1, 7], 0.1378253199477699]_x000D_
+[[1, 2], 0.13782531167207]_x000D_
+[[2, 4], 0.008433301934709734]_x000D_
+[[2, 3], 0.008433301926666728]_x000D_
+[[2, 7, 8], 0.003423175784950898]_x000D_
+[[2, 6, 7], 0.0034231757845407233]_x000D_
+[[6, 7, 8], 0.002933284628092365]_x000D_
+[[5, 7], 0.0021441229916233373]_x000D_
+[[3, 8], 0.0021441229911030404]_x000D_
+[[4, 8], 0.002144122990582742]_x000D_
+[[4, 7], 0.0021441229905827417]</t>
+  </si>
+  <si>
+    <t>[[1, 7], 0.31476354251181127]_x000D_
+[[1, 8], 0.31476354251181127]_x000D_
+[[1, 2], 0.31159898492090127]_x000D_
+[[2, 6, 7], 0.00817510269379268]_x000D_
+[[2, 7, 8], 0.00817510269379268]_x000D_
+[[6, 7, 8], 0.00700516262762826]_x000D_
+[[2, 3], 0.006509057749459895]_x000D_
+[[2, 4], 0.006509057749459895]_x000D_
+[[0], 0.005142959209449793]_x000D_
+[[3, 8], 0.004339371832973263]_x000D_
+[[4, 7], 0.004339371832973263]_x000D_
+[[4, 8], 0.004339371832973263]_x000D_
+[[5, 7], 0.004339371832973263]</t>
+  </si>
+  <si>
+    <t>[3]_x000D_
+[0, 1]_x000D_
+[0, 2, 4]_x000D_
+[0, 2, 6]_x000D_
+[0, 4, 5]_x000D_
+[0, 4, 6]_x000D_
+[0, 4, 7]_x000D_
+[0, 4, 8]_x000D_
 [0, 5, 6]_x000D_
-[2, 4, 6]_x000D_
-[3, 4, 6]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.21170480239934694]_x000D_
-[[0, 3], 0.21170480239934694]_x000D_
-[[2, 8], 0.21170480239934694]_x000D_
-[[3, 8], 0.21170480239934694]_x000D_
-[[6, 8], 0.031363674429532876]_x000D_
-[[0, 7], 0.031361274597457765]_x000D_
-[[7, 8], 0.031361274594184765]_x000D_
-[[1, 2], 0.01323154800898159]_x000D_
-[[1, 3], 0.01323154800898159]_x000D_
-[[0, 5, 6], 0.013231274262561125]_x000D_
-[[4, 8], 0.013230095775992151]_x000D_
-[[2, 4, 6], 0.0016180207022663546]_x000D_
-[[3, 4, 6], 0.0016180207022663546]_x000D_
-[[1, 7], 0.0008494124857282069]_x000D_
-[[4, 5], 0.0005610264451127609]_x000D_
-[[4, 7], 0.0005610264448955899]_x000D_
-[[1, 6], 0.0005608252950424508]_x000D_
-[[1, 4], 0.00040176864960852105]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.22874958334344553]_x000D_
-[[0, 3], 0.22874958334344553]_x000D_
-[[2, 8], 0.22874958334344553]_x000D_
-[[3, 8], 0.22874958334344553]_x000D_
-[[0, 7], 0.03322372760067597]_x000D_
-[[7, 8], 0.03322372760067597]_x000D_
-[[0, 5, 6], 0.004010775693138668]_x000D_
-[[6, 8], 0.002481834632729356]_x000D_
-[[1, 2], 0.0022327478778758486]_x000D_
-[[1, 3], 0.0022327478778758486]_x000D_
-[[2, 4, 6], 0.0017482908183144108]_x000D_
-[[3, 4, 6], 0.0017482908183144108]_x000D_
-[[4, 8], 0.0011309030914806572]_x000D_
-[[1, 7], 0.000848177318610493]_x000D_
-[[1, 6], 0.0005654515457403286]_x000D_
-[[4, 5], 0.0005654515457403286]_x000D_
-[[4, 7], 0.0005654515457403286]_x000D_
-[[1, 4], 0.0004240886593052465]</t>
-  </si>
-  <si>
-    <t>[6]_x000D_
-[0, 2]_x000D_
-[0, 5]_x000D_
-[1, 2]_x000D_
-[1, 5]_x000D_
-[2, 4]_x000D_
-[4, 5]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.22730470966714175]_x000D_
-[[0, 5], 0.22730470966714175]_x000D_
-[[2, 4], 0.22730470966714175]_x000D_
-[[4, 5], 0.22730470966714175]_x000D_
-[[1, 5], 0.05682616765854455]_x000D_
-[[1, 2], 0.033671335147998784]_x000D_
-[[6], 0.00028365852488956215]</t>
-  </si>
-  <si>
-    <t>[[0, 2], 0.22907585894836796]_x000D_
-[[0, 5], 0.22907585894836796]_x000D_
-[[2, 4], 0.22907585894836796]_x000D_
-[[4, 5], 0.22907585894836796]_x000D_
-[[1, 5], 0.05127060142500024]_x000D_
-[[1, 2], 0.032202255888023675]_x000D_
-[[6], 0.0002237068935042656]</t>
+[0, 6, 7]</t>
+  </si>
+  <si>
+    <t>[[0, 1], 0.2101520254125238]_x000D_
+[[0, 2, 6], 0.2101520254125238]_x000D_
+[[0, 5, 6], 0.2101520254125238]_x000D_
+[[0, 6, 7], 0.2101520254125238]_x000D_
+[[0, 4, 7], 0.052538006353130946]_x000D_
+[[0, 4, 6], 0.031133582764751724]_x000D_
+[[0, 4, 5], 0.031133582764549864]_x000D_
+[[0, 4, 8], 0.02216223657857836]_x000D_
+[[0, 2, 4], 0.022162236574308575]_x000D_
+[[3], 0.0002622533145853575]</t>
+  </si>
+  <si>
+    <t>[[0, 2, 6], 0.2801944306837809]_x000D_
+[[0, 5, 6], 0.2801944306837809]_x000D_
+[[0, 6, 7], 0.2801944306837809]_x000D_
+[[0, 4, 7], 0.06964809047111609]_x000D_
+[[0, 4, 5], 0.04142947713230514]_x000D_
+[[0, 4, 6], 0.04142947713230514]_x000D_
+[[0, 2, 4], 0.002702356328750189]_x000D_
+[[0, 4, 8], 0.002702356328750189]_x000D_
+[[0, 1], 0.001231323181715834]_x000D_
+[[3], 0.0002736273737146298]</t>
   </si>
 </sst>
 </file>
@@ -1105,9 +1172,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD61" totalsRowShown="0">
-  <autoFilter ref="A1:AD61"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AH61" totalsRowShown="0">
+  <autoFilter ref="A1:AH61"/>
+  <tableColumns count="34">
     <tableColumn id="1" name="instance_number"/>
     <tableColumn id="2" name="noa"/>
     <tableColumn id="3" name="nof"/>
@@ -1117,27 +1184,31 @@
     <tableColumn id="7" name="diagnosis algorithm"/>
     <tableColumn id="8" name="diagnoses"/>
     <tableColumn id="9" name="ranked diagnoses"/>
-    <tableColumn id="10" name="Wasted Effort"/>
-    <tableColumn id="11" name="Weighted Precision 10"/>
-    <tableColumn id="12" name="Weighted Precision 20"/>
-    <tableColumn id="13" name="Weighted Precision 30"/>
-    <tableColumn id="14" name="Weighted Precision 40"/>
-    <tableColumn id="15" name="Weighted Precision 50"/>
-    <tableColumn id="16" name="Weighted Precision 60"/>
-    <tableColumn id="17" name="Weighted Precision 70"/>
-    <tableColumn id="18" name="Weighted Precision 80"/>
-    <tableColumn id="19" name="Weighted Precision 90"/>
-    <tableColumn id="20" name="Weighted Precision 100"/>
-    <tableColumn id="21" name="Weighted Recall 10"/>
-    <tableColumn id="22" name="Weighted Recall 20"/>
-    <tableColumn id="23" name="Weighted Recall 30"/>
-    <tableColumn id="24" name="Weighted Recall 40"/>
-    <tableColumn id="25" name="Weighted Recall 50"/>
-    <tableColumn id="26" name="Weighted Recall 60"/>
-    <tableColumn id="27" name="Weighted Recall 70"/>
-    <tableColumn id="28" name="Weighted Recall 80"/>
-    <tableColumn id="29" name="Weighted Recall 90"/>
-    <tableColumn id="30" name="Weighted Recall 100"/>
+    <tableColumn id="10" name="number of diagnoses"/>
+    <tableColumn id="11" name="Information Sent - Diagnosis"/>
+    <tableColumn id="12" name="Information Sent - Ranking"/>
+    <tableColumn id="13" name="Information Sent - Both"/>
+    <tableColumn id="14" name="Wasted Effort"/>
+    <tableColumn id="15" name="Weighted Precision 10"/>
+    <tableColumn id="16" name="Weighted Precision 20"/>
+    <tableColumn id="17" name="Weighted Precision 30"/>
+    <tableColumn id="18" name="Weighted Precision 40"/>
+    <tableColumn id="19" name="Weighted Precision 50"/>
+    <tableColumn id="20" name="Weighted Precision 60"/>
+    <tableColumn id="21" name="Weighted Precision 70"/>
+    <tableColumn id="22" name="Weighted Precision 80"/>
+    <tableColumn id="23" name="Weighted Precision 90"/>
+    <tableColumn id="24" name="Weighted Precision 100"/>
+    <tableColumn id="25" name="Weighted Recall 10"/>
+    <tableColumn id="26" name="Weighted Recall 20"/>
+    <tableColumn id="27" name="Weighted Recall 30"/>
+    <tableColumn id="28" name="Weighted Recall 40"/>
+    <tableColumn id="29" name="Weighted Recall 50"/>
+    <tableColumn id="30" name="Weighted Recall 60"/>
+    <tableColumn id="31" name="Weighted Recall 70"/>
+    <tableColumn id="32" name="Weighted Recall 80"/>
+    <tableColumn id="33" name="Weighted Recall 90"/>
+    <tableColumn id="34" name="Weighted Recall 100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1428,13 +1499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,8 +1596,20 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1543,82 +1626,94 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="N2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6982795468780149</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6982795468780149</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6532322558565382</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.6532322558565382</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.6521277457224974</v>
+        <v>0.9962620262122289</v>
       </c>
       <c r="T2">
-        <v>0.6521277457224974</v>
+        <v>0.9962620262122289</v>
       </c>
       <c r="U2">
-        <v>0.5</v>
+        <v>0.9942157088934038</v>
       </c>
       <c r="V2">
-        <v>0.5</v>
+        <v>0.9942157088934038</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>0.9933618014128675</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>0.9933618014128675</v>
       </c>
       <c r="Y2">
-        <v>0.4655196979186766</v>
+        <v>0.5</v>
       </c>
       <c r="Z2">
-        <v>0.4655196979186766</v>
+        <v>0.5</v>
       </c>
       <c r="AA2">
-        <v>0.4354881705710255</v>
+        <v>0.5</v>
       </c>
       <c r="AB2">
-        <v>0.4354881705710255</v>
+        <v>0.5</v>
       </c>
       <c r="AC2">
-        <v>0.4347518304816649</v>
+        <v>0.4981310131061145</v>
       </c>
       <c r="AD2">
-        <v>0.4347518304816649</v>
+        <v>0.4981310131061145</v>
+      </c>
+      <c r="AE2">
+        <v>0.4971078544467019</v>
+      </c>
+      <c r="AF2">
+        <v>0.4971078544467019</v>
+      </c>
+      <c r="AG2">
+        <v>0.4966809007064337</v>
+      </c>
+      <c r="AH2">
+        <v>0.4966809007064337</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1635,82 +1730,94 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>86</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-      <c r="M3">
-        <v>0.4365894802777017</v>
-      </c>
-      <c r="N3">
-        <v>0.4365894802777017</v>
-      </c>
       <c r="O3">
-        <v>0.3874523682064848</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3874523682064848</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.3893009369427584</v>
+        <v>0.3423457782105454</v>
       </c>
       <c r="R3">
-        <v>0.3893009369427584</v>
+        <v>0.3423457782105454</v>
       </c>
       <c r="S3">
-        <v>0.3883121777482719</v>
+        <v>0.5100709277261182</v>
       </c>
       <c r="T3">
-        <v>0.3883121777482719</v>
+        <v>0.5100709277261182</v>
       </c>
       <c r="U3">
-        <v>0.5</v>
+        <v>0.4106572062006557</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>0.4106572062006557</v>
       </c>
       <c r="W3">
-        <v>0.4365894802777017</v>
+        <v>0.3766564671823113</v>
       </c>
       <c r="X3">
-        <v>0.4365894802777017</v>
+        <v>0.3766564671823113</v>
       </c>
       <c r="Y3">
-        <v>0.3874523682064848</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.3874523682064848</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.3877920185825151</v>
+        <v>0.1711728891052727</v>
       </c>
       <c r="AB3">
-        <v>0.3877920185825151</v>
+        <v>0.1711728891052727</v>
       </c>
       <c r="AC3">
-        <v>0.3868070917880073</v>
+        <v>0.2550354638630591</v>
       </c>
       <c r="AD3">
-        <v>0.3868070917880073</v>
+        <v>0.2550354638630591</v>
+      </c>
+      <c r="AE3">
+        <v>0.2053286031003278</v>
+      </c>
+      <c r="AF3">
+        <v>0.2053286031003278</v>
+      </c>
+      <c r="AG3">
+        <v>0.1883282335911556</v>
+      </c>
+      <c r="AH3">
+        <v>0.1883282335911556</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1727,82 +1834,94 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N4">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="O4">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
-        <v>0.1333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>0.1111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S4">
-        <v>0.111323293477357</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T4">
-        <v>0.111323293477357</v>
+        <v>0.625</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W4">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="X4">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Y4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC4">
-        <v>0.1667462350540089</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD4">
-        <v>0.1667462350540089</v>
+        <v>0.625</v>
+      </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AH4">
+        <v>0.4166666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1819,82 +1938,94 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>436</v>
+      </c>
+      <c r="M5">
+        <v>471</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N5">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="O5">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.1333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
-        <v>0.1333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>0.1111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S5">
-        <v>0.111255763493355</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T5">
-        <v>0.111255763493355</v>
+        <v>0.625</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="X5">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Y5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC5">
-        <v>0.1667209113100081</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD5">
-        <v>0.1667209113100081</v>
+        <v>0.625</v>
+      </c>
+      <c r="AE5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AH5">
+        <v>0.4166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1911,82 +2042,94 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.935487994332622</v>
-      </c>
-      <c r="N6">
-        <v>0.935487994332622</v>
-      </c>
       <c r="O6">
-        <v>0.8857208934951486</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.8857208934951486</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
-        <v>0.8679806171143478</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="R6">
-        <v>0.8679806171143478</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="S6">
-        <v>0.8671972693729403</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="T6">
-        <v>0.8671972693729403</v>
+        <v>0.6818181829160589</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.6818181829160589</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.6666666693456602</v>
       </c>
       <c r="W6">
-        <v>0.935487994332622</v>
+        <v>0.6627659188725948</v>
       </c>
       <c r="X6">
-        <v>0.935487994332622</v>
+        <v>0.6627659188725948</v>
       </c>
       <c r="Y6">
-        <v>0.8857208934951486</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.8857208934951486</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>0.8679806171143478</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="AB6">
-        <v>0.8679806171143478</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="AC6">
-        <v>0.8671972693729403</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="AD6">
-        <v>0.8671972693729403</v>
+        <v>0.6818181829160589</v>
+      </c>
+      <c r="AE6">
+        <v>0.6818181829160589</v>
+      </c>
+      <c r="AF6">
+        <v>0.6666666693456602</v>
+      </c>
+      <c r="AG6">
+        <v>0.6627659188725948</v>
+      </c>
+      <c r="AH6">
+        <v>0.6627659188725948</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2003,82 +2146,94 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>482</v>
+      </c>
+      <c r="M7">
+        <v>522</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.9365894802777018</v>
-      </c>
-      <c r="N7">
-        <v>0.9365894802777018</v>
-      </c>
       <c r="O7">
-        <v>0.9324434514598</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9324434514598</v>
+        <v>0.75</v>
       </c>
       <c r="Q7">
-        <v>0.9306022525987243</v>
+        <v>0.7222422002317239</v>
       </c>
       <c r="R7">
-        <v>0.9306022525987243</v>
+        <v>0.7222422002317239</v>
       </c>
       <c r="S7">
-        <v>0.9297889650652806</v>
+        <v>0.700032366703233</v>
       </c>
       <c r="T7">
-        <v>0.9297889650652806</v>
+        <v>0.682570441847019</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.682570441847019</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.6680480876143801</v>
       </c>
       <c r="W7">
-        <v>0.9365894802777018</v>
+        <v>0.6669398947575333</v>
       </c>
       <c r="X7">
-        <v>0.9365894802777018</v>
+        <v>0.6669398947575333</v>
       </c>
       <c r="Y7">
-        <v>0.9324434514598</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9324434514598</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.9306022525987243</v>
+        <v>0.7222422002317239</v>
       </c>
       <c r="AB7">
-        <v>0.9306022525987243</v>
+        <v>0.7222422002317239</v>
       </c>
       <c r="AC7">
-        <v>0.9297889650652806</v>
+        <v>0.700032366703233</v>
       </c>
       <c r="AD7">
-        <v>0.9297889650652806</v>
+        <v>0.682570441847019</v>
+      </c>
+      <c r="AE7">
+        <v>0.682570441847019</v>
+      </c>
+      <c r="AF7">
+        <v>0.6680480876143801</v>
+      </c>
+      <c r="AG7">
+        <v>0.6669398947575333</v>
+      </c>
+      <c r="AH7">
+        <v>0.6669398947575333</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2095,82 +2250,94 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="N8">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0.4761904776966298</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>0.4641072912621461</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.4650410535283473</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.4654205843489103</v>
       </c>
       <c r="W8">
-        <v>0.75</v>
+        <v>0.4652065165028368</v>
       </c>
       <c r="X8">
-        <v>0.75</v>
+        <v>0.4651159930778385</v>
       </c>
       <c r="Y8">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AA8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AB8">
-        <v>0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>0.4761904776966298</v>
       </c>
       <c r="AD8">
-        <v>0.5</v>
+        <v>0.4641072912621461</v>
+      </c>
+      <c r="AE8">
+        <v>0.4650410535283473</v>
+      </c>
+      <c r="AF8">
+        <v>0.4654205843489103</v>
+      </c>
+      <c r="AG8">
+        <v>0.4652065165028368</v>
+      </c>
+      <c r="AH8">
+        <v>0.4651159930778385</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2187,82 +2354,94 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>732</v>
       </c>
       <c r="M9">
-        <v>0.75</v>
+        <v>800</v>
       </c>
       <c r="N9">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
         <v>0.5</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.4771836119174735</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>0.4656402782008264</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.4657076856232171</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.4657681021706508</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.4655603761852975</v>
       </c>
       <c r="X9">
-        <v>0.75</v>
+        <v>0.4654783626482606</v>
       </c>
       <c r="Y9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Z9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AA9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
         <v>0.5</v>
       </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>0.4771836119174735</v>
       </c>
       <c r="AD9">
-        <v>0.5</v>
+        <v>0.4656402782008264</v>
+      </c>
+      <c r="AE9">
+        <v>0.4657076856232171</v>
+      </c>
+      <c r="AF9">
+        <v>0.4657681021706508</v>
+      </c>
+      <c r="AG9">
+        <v>0.4655603761852975</v>
+      </c>
+      <c r="AH9">
+        <v>0.4654783626482606</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2279,82 +2458,94 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>0.8333333403592785</v>
-      </c>
-      <c r="N10">
-        <v>0.8033725895923312</v>
-      </c>
       <c r="O10">
-        <v>0.8033725895923312</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.7873130996169203</v>
+        <v>0.75</v>
       </c>
       <c r="Q10">
-        <v>0.7781933369369961</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>0.7704667339877409</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S10">
-        <v>0.7692750257496219</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T10">
-        <v>0.7692750257496219</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V10">
-        <v>0.9</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="W10">
-        <v>0.8333333403592785</v>
+        <v>0.3888888890579076</v>
       </c>
       <c r="X10">
-        <v>0.8033725895923312</v>
+        <v>0.3888888890579076</v>
       </c>
       <c r="Y10">
-        <v>0.8033725895923312</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.7873130996169203</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
-        <v>0.7781933369369961</v>
+        <v>0.75</v>
       </c>
       <c r="AB10">
-        <v>0.7704667339877409</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC10">
-        <v>0.7692750257496219</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD10">
-        <v>0.7692750257496219</v>
+        <v>0.625</v>
+      </c>
+      <c r="AE10">
+        <v>0.5</v>
+      </c>
+      <c r="AF10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>0.4166666668477582</v>
+      </c>
+      <c r="AH10">
+        <v>0.4166666668477582</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2371,82 +2562,94 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L11">
-        <v>0.9000647334064662</v>
+        <v>412</v>
       </c>
       <c r="M11">
-        <v>0.8363679055359817</v>
+        <v>449</v>
       </c>
       <c r="N11">
-        <v>0.806228533237046</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>0.806228533237046</v>
+        <v>0.5</v>
       </c>
       <c r="P11">
-        <v>0.8014557532215368</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>0.7990506350639754</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>0.7981558880523579</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="S11">
-        <v>0.7969636470771174</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="T11">
-        <v>0.7969636470771174</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.2086933772243981</v>
       </c>
       <c r="V11">
-        <v>0.9000647334064662</v>
+        <v>0.2086933772243981</v>
       </c>
       <c r="W11">
-        <v>0.8363679055359817</v>
+        <v>0.209344053438098</v>
       </c>
       <c r="X11">
-        <v>0.806228533237046</v>
+        <v>0.209344053438098</v>
       </c>
       <c r="Y11">
-        <v>0.806228533237046</v>
+        <v>0.5</v>
       </c>
       <c r="Z11">
-        <v>0.8014557532215368</v>
+        <v>0.25</v>
       </c>
       <c r="AA11">
-        <v>0.7990506350639754</v>
+        <v>0.25</v>
       </c>
       <c r="AB11">
-        <v>0.7981558880523579</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC11">
-        <v>0.7969636470771174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AD11">
-        <v>0.7969636470771174</v>
+        <v>0.25</v>
+      </c>
+      <c r="AE11">
+        <v>0.2503086090494842</v>
+      </c>
+      <c r="AF11">
+        <v>0.2503086090494842</v>
+      </c>
+      <c r="AG11">
+        <v>0.2509250658585981</v>
+      </c>
+      <c r="AH11">
+        <v>0.2509250658585981</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2463,82 +2666,94 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="M12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>0.3333333332608968</v>
+        <v>0.5</v>
       </c>
       <c r="T12">
-        <v>0.3333333332608968</v>
+        <v>0.4655183941563129</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.4655183941563129</v>
       </c>
       <c r="V12">
-        <v>0.75</v>
+        <v>0.464903487016657</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>0.464903487016657</v>
       </c>
       <c r="X12">
-        <v>0.5</v>
+        <v>0.464903487016657</v>
       </c>
       <c r="Y12">
         <v>0.5</v>
       </c>
       <c r="Z12">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AB12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AC12">
-        <v>0.3333333332608968</v>
+        <v>0.25</v>
       </c>
       <c r="AD12">
-        <v>0.3333333332608968</v>
+        <v>0.2327591970781564</v>
+      </c>
+      <c r="AE12">
+        <v>0.2327591970781564</v>
+      </c>
+      <c r="AF12">
+        <v>0.2324517435083285</v>
+      </c>
+      <c r="AG12">
+        <v>0.2324517435083285</v>
+      </c>
+      <c r="AH12">
+        <v>0.2324517435083285</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2555,82 +2770,94 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>144</v>
+      </c>
+      <c r="M13">
+        <v>168</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.75</v>
-      </c>
-      <c r="M13">
-        <v>0.75</v>
-      </c>
-      <c r="N13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4</v>
+        <v>0.02710200872252635</v>
       </c>
       <c r="R13">
-        <v>0.4</v>
+        <v>0.02710200872252635</v>
       </c>
       <c r="S13">
-        <v>0.3333333333333334</v>
+        <v>0.02710200872252635</v>
       </c>
       <c r="T13">
-        <v>0.3333333333333334</v>
+        <v>0.02638687150094749</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.02638687150094749</v>
       </c>
       <c r="V13">
-        <v>0.75</v>
+        <v>0.02590032903145984</v>
       </c>
       <c r="W13">
-        <v>0.75</v>
+        <v>0.02590032903145984</v>
       </c>
       <c r="X13">
-        <v>0.6666666666666666</v>
+        <v>0.02590032903145984</v>
       </c>
       <c r="Y13">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.4</v>
+        <v>0.01355100436126318</v>
       </c>
       <c r="AB13">
-        <v>0.4</v>
+        <v>0.01355100436126318</v>
       </c>
       <c r="AC13">
-        <v>0.3333333333333334</v>
+        <v>0.01355100436126318</v>
       </c>
       <c r="AD13">
-        <v>0.3333333333333334</v>
+        <v>0.01319343575047375</v>
+      </c>
+      <c r="AE13">
+        <v>0.01319343575047375</v>
+      </c>
+      <c r="AF13">
+        <v>0.01295016451572992</v>
+      </c>
+      <c r="AG13">
+        <v>0.01295016451572992</v>
+      </c>
+      <c r="AH13">
+        <v>0.01295016451572992</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2647,82 +2874,94 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.75</v>
-      </c>
-      <c r="M14">
-        <v>0.5</v>
-      </c>
-      <c r="N14">
-        <v>0.4871794871794871</v>
-      </c>
       <c r="O14">
-        <v>0.4871794871794871</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.4880952379492173</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.4555555602619868</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="R14">
-        <v>0.4382439841821272</v>
+        <v>0.7786006720751522</v>
       </c>
       <c r="S14">
-        <v>0.4395150715303766</v>
+        <v>0.7786006720751522</v>
       </c>
       <c r="T14">
-        <v>0.4395150715303766</v>
+        <v>0.7306145009015004</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.7220079163415334</v>
       </c>
       <c r="V14">
-        <v>0.75</v>
+        <v>0.7136017408349555</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
+        <v>0.7124520069696508</v>
       </c>
       <c r="X14">
-        <v>0.4999999999999999</v>
+        <v>0.7124520069696508</v>
       </c>
       <c r="Y14">
-        <v>0.4999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.4666666716274991</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB14">
-        <v>0.4489328619794107</v>
+        <v>0.7786006720751522</v>
       </c>
       <c r="AC14">
-        <v>0.4499839465124659</v>
+        <v>0.7786006720751522</v>
       </c>
       <c r="AD14">
-        <v>0.4499839465124659</v>
+        <v>0.7306145009015004</v>
+      </c>
+      <c r="AE14">
+        <v>0.7220079163415334</v>
+      </c>
+      <c r="AF14">
+        <v>0.7136017408349555</v>
+      </c>
+      <c r="AG14">
+        <v>0.7124520069696508</v>
+      </c>
+      <c r="AH14">
+        <v>0.7124520069696508</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2739,82 +2978,94 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>568</v>
+      </c>
+      <c r="M15">
+        <v>608</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.75</v>
-      </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
-      <c r="N15">
-        <v>0.4872088413113609</v>
-      </c>
       <c r="O15">
-        <v>0.4872088413113609</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.488033111917463</v>
+        <v>0.9000647334064661</v>
       </c>
       <c r="Q15">
-        <v>0.4584878555579424</v>
+        <v>0.8334232505433931</v>
       </c>
       <c r="R15">
-        <v>0.4416929775719904</v>
+        <v>0.778902663893885</v>
       </c>
       <c r="S15">
-        <v>0.4417430114188937</v>
+        <v>0.778902663893885</v>
       </c>
       <c r="T15">
-        <v>0.4417430114188937</v>
+        <v>0.7310773078301391</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.7269426465861238</v>
       </c>
       <c r="V15">
-        <v>0.75</v>
+        <v>0.7228544900899142</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>0.7220388440179981</v>
       </c>
       <c r="X15">
-        <v>0.5</v>
+        <v>0.7220388440179981</v>
       </c>
       <c r="Y15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.5000000000000001</v>
+        <v>0.9000647334064661</v>
       </c>
       <c r="AA15">
-        <v>0.4697302748132823</v>
+        <v>0.8334232505433931</v>
       </c>
       <c r="AB15">
-        <v>0.4525235755383442</v>
+        <v>0.778902663893885</v>
       </c>
       <c r="AC15">
-        <v>0.4525643155393614</v>
+        <v>0.778902663893885</v>
       </c>
       <c r="AD15">
-        <v>0.4525643155393614</v>
+        <v>0.7310773078301391</v>
+      </c>
+      <c r="AE15">
+        <v>0.7269426465861238</v>
+      </c>
+      <c r="AF15">
+        <v>0.7228544900899142</v>
+      </c>
+      <c r="AG15">
+        <v>0.7220388440179981</v>
+      </c>
+      <c r="AH15">
+        <v>0.7220388440179981</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2831,31 +3082,31 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>0.6666666666666666</v>
+        <v>-1</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>0.5</v>
@@ -2864,28 +3115,28 @@
         <v>0.5</v>
       </c>
       <c r="Q16">
-        <v>0.4827602589104546</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>0.4757646964636427</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
-        <v>0.4754486213593824</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="T16">
-        <v>0.4754486213593824</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.1250000000814912</v>
       </c>
       <c r="V16">
-        <v>0.75</v>
+        <v>0.1250000000814912</v>
       </c>
       <c r="W16">
-        <v>0.6666666666666666</v>
+        <v>0.1253132632180623</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>0.1253132632180623</v>
       </c>
       <c r="Y16">
         <v>0.5</v>
@@ -2894,19 +3145,31 @@
         <v>0.5</v>
       </c>
       <c r="AA16">
-        <v>0.4827602589104546</v>
+        <v>0.25</v>
       </c>
       <c r="AB16">
-        <v>0.4757646964636427</v>
+        <v>0.25</v>
       </c>
       <c r="AC16">
-        <v>0.4754486213593824</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AD16">
-        <v>0.4754486213593824</v>
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AE16">
+        <v>0.1250000000814912</v>
+      </c>
+      <c r="AF16">
+        <v>0.1250000000814912</v>
+      </c>
+      <c r="AG16">
+        <v>0.1251342557114336</v>
+      </c>
+      <c r="AH16">
+        <v>0.1251342557114336</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2923,82 +3186,94 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L17">
-        <v>0.75</v>
+        <v>330</v>
       </c>
       <c r="M17">
-        <v>0.6666666666666667</v>
+        <v>357</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="O17">
         <v>0.5</v>
       </c>
       <c r="P17">
-        <v>0.4999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
-        <v>0.4835821377975826</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>0.483024343939665</v>
+        <v>0.25</v>
       </c>
       <c r="S17">
-        <v>0.4827459292782877</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="T17">
-        <v>0.4827459292782877</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="V17">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="W17">
-        <v>0.6666666666666667</v>
+        <v>0.1252135709055406</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>0.1252135709055406</v>
       </c>
       <c r="Y17">
         <v>0.5</v>
       </c>
       <c r="Z17">
-        <v>0.4999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA17">
-        <v>0.4835821377975826</v>
+        <v>0.25</v>
       </c>
       <c r="AB17">
-        <v>0.483024343939665</v>
+        <v>0.25</v>
       </c>
       <c r="AC17">
-        <v>0.4827459292782877</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AD17">
-        <v>0.4827459292782877</v>
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AE17">
+        <v>0.125</v>
+      </c>
+      <c r="AF17">
+        <v>0.125</v>
+      </c>
+      <c r="AG17">
+        <v>0.1250915303880888</v>
+      </c>
+      <c r="AH17">
+        <v>0.1250915303880888</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3015,35 +3290,35 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.5</v>
-      </c>
-      <c r="N18">
-        <v>0.5</v>
-      </c>
-      <c r="O18">
-        <v>0.5</v>
-      </c>
       <c r="P18">
         <v>0.5</v>
       </c>
@@ -3054,26 +3329,26 @@
         <v>0.5</v>
       </c>
       <c r="S18">
-        <v>0.4932327410772169</v>
+        <v>0.5</v>
       </c>
       <c r="T18">
-        <v>0.4932327410772169</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="U18">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="V18">
+        <v>0.4651534143634595</v>
+      </c>
+      <c r="W18">
+        <v>0.4627253442489866</v>
+      </c>
+      <c r="X18">
+        <v>0.4627253442489866</v>
+      </c>
+      <c r="Y18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0.5</v>
-      </c>
-      <c r="W18">
-        <v>0.5</v>
-      </c>
-      <c r="X18">
-        <v>0.5</v>
-      </c>
-      <c r="Y18">
-        <v>0.5</v>
-      </c>
       <c r="Z18">
         <v>0.5</v>
       </c>
@@ -3087,10 +3362,22 @@
         <v>0.5</v>
       </c>
       <c r="AD18">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AE18">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AF18">
+        <v>0.4651534143634595</v>
+      </c>
+      <c r="AG18">
+        <v>0.4627253442489866</v>
+      </c>
+      <c r="AH18">
+        <v>0.4627253442489866</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3107,82 +3394,94 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>39</v>
+      </c>
+      <c r="L19">
+        <v>442</v>
+      </c>
+      <c r="M19">
+        <v>481</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>0.75</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>0.7237999266309022</v>
+      </c>
+      <c r="R19">
+        <v>0.7237999266309022</v>
+      </c>
+      <c r="S19">
+        <v>0.6551409615880678</v>
+      </c>
+      <c r="T19">
+        <v>0.6463570318246694</v>
+      </c>
+      <c r="U19">
+        <v>0.6463570318246694</v>
+      </c>
+      <c r="V19">
+        <v>0.6445605751447288</v>
+      </c>
+      <c r="W19">
+        <v>0.6440811121080996</v>
+      </c>
+      <c r="X19">
+        <v>0.6440811121080996</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
         <v>0.75</v>
       </c>
-      <c r="N19">
-        <v>0.7222648906225412</v>
-      </c>
-      <c r="O19">
-        <v>0.7222648906225412</v>
-      </c>
-      <c r="P19">
-        <v>0.7203782710838944</v>
-      </c>
-      <c r="Q19">
-        <v>0.7191355894272615</v>
-      </c>
-      <c r="R19">
-        <v>0.7191355894272615</v>
-      </c>
-      <c r="S19">
-        <v>0.7188524424404839</v>
-      </c>
-      <c r="T19">
-        <v>0.7188524424404839</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0.75</v>
-      </c>
-      <c r="W19">
-        <v>0.75</v>
-      </c>
-      <c r="X19">
-        <v>0.7222648906225412</v>
-      </c>
-      <c r="Y19">
-        <v>0.7222648906225412</v>
-      </c>
-      <c r="Z19">
-        <v>0.7211867336112502</v>
-      </c>
       <c r="AA19">
-        <v>0.7199426573240556</v>
+        <v>0.7237999266309022</v>
       </c>
       <c r="AB19">
-        <v>0.7199426573240556</v>
+        <v>0.7237999266309022</v>
       </c>
       <c r="AC19">
-        <v>0.7196584675178815</v>
+        <v>0.6551409615880678</v>
       </c>
       <c r="AD19">
-        <v>0.7196584675178815</v>
+        <v>0.6463570318246694</v>
+      </c>
+      <c r="AE19">
+        <v>0.6463570318246694</v>
+      </c>
+      <c r="AF19">
+        <v>0.6445605751447288</v>
+      </c>
+      <c r="AG19">
+        <v>0.6440811121080996</v>
+      </c>
+      <c r="AH19">
+        <v>0.6440811121080996</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3199,82 +3498,94 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>0.6652965434906263</v>
+        <v>0.75</v>
       </c>
       <c r="S20">
-        <v>0.6652965434906263</v>
+        <v>0.75</v>
       </c>
       <c r="T20">
-        <v>0.6652965434906263</v>
+        <v>0.7327602588650335</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>0.7327602588650335</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>0.685489605469047</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.685489605469047</v>
       </c>
       <c r="X20">
-        <v>0.5</v>
+        <v>0.685489605469047</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AB20">
-        <v>0.3326482717453131</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.3326482717453131</v>
+        <v>0.75</v>
       </c>
       <c r="AD20">
-        <v>0.3326482717453131</v>
+        <v>0.7327602588650335</v>
+      </c>
+      <c r="AE20">
+        <v>0.7327602588650335</v>
+      </c>
+      <c r="AF20">
+        <v>0.685489605469047</v>
+      </c>
+      <c r="AG20">
+        <v>0.685489605469047</v>
+      </c>
+      <c r="AH20">
+        <v>0.685489605469047</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>10</v>
       </c>
@@ -3291,82 +3602,94 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>384</v>
+      </c>
+      <c r="M21">
+        <v>410</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.3873518093676345</v>
-      </c>
-      <c r="N21">
-        <v>0.3873518093676345</v>
-      </c>
       <c r="O21">
-        <v>0.3873518093676345</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.5584045903168461</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.5584045903168461</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
-        <v>0.4365256319741752</v>
+        <v>0.75</v>
       </c>
       <c r="S21">
-        <v>0.4365256319741752</v>
+        <v>0.75</v>
       </c>
       <c r="T21">
-        <v>0.4365256319741752</v>
+        <v>0.7335821377975826</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.7335821377975826</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.6883755200695088</v>
       </c>
       <c r="W21">
-        <v>0.1936759046838173</v>
+        <v>0.6883755200695088</v>
       </c>
       <c r="X21">
-        <v>0.1936759046838173</v>
+        <v>0.6883755200695088</v>
       </c>
       <c r="Y21">
-        <v>0.1936759046838173</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.279202295158423</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.279202295158423</v>
+        <v>0.75</v>
       </c>
       <c r="AB21">
-        <v>0.2182628159870876</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
-        <v>0.2182628159870876</v>
+        <v>0.75</v>
       </c>
       <c r="AD21">
-        <v>0.2182628159870876</v>
+        <v>0.7335821377975826</v>
+      </c>
+      <c r="AE21">
+        <v>0.7335821377975826</v>
+      </c>
+      <c r="AF21">
+        <v>0.6883755200695088</v>
+      </c>
+      <c r="AG21">
+        <v>0.6883755200695088</v>
+      </c>
+      <c r="AH21">
+        <v>0.6883755200695088</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>11</v>
       </c>
@@ -3383,82 +3706,94 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="O22">
         <v>0.75</v>
       </c>
-      <c r="M22">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.6563706563706564</v>
-      </c>
-      <c r="O22">
-        <v>0.6181818181818182</v>
-      </c>
       <c r="P22">
-        <v>0.6025200517083376</v>
+        <v>0.7222222262439422</v>
       </c>
       <c r="Q22">
-        <v>0.57111853258498</v>
+        <v>0.7000000065151863</v>
       </c>
       <c r="R22">
-        <v>0.5588315237851853</v>
+        <v>0.6818181898948593</v>
       </c>
       <c r="S22">
-        <v>0.5581009357731702</v>
+        <v>0.6725242949062393</v>
       </c>
       <c r="T22">
-        <v>0.5581009357731702</v>
+        <v>0.6565226270480864</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.6355461435330901</v>
       </c>
       <c r="V22">
+        <v>0.6302745435733776</v>
+      </c>
+      <c r="W22">
+        <v>0.625089675815089</v>
+      </c>
+      <c r="X22">
+        <v>0.6199894172495114</v>
+      </c>
+      <c r="Y22">
         <v>0.75</v>
       </c>
-      <c r="W22">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="X22">
-        <v>0.6563706563706564</v>
-      </c>
-      <c r="Y22">
-        <v>0.6181818181818182</v>
-      </c>
       <c r="Z22">
-        <v>0.6116838512406932</v>
+        <v>0.7222222262439422</v>
       </c>
       <c r="AA22">
-        <v>0.5798047426571311</v>
+        <v>0.7000000065151863</v>
       </c>
       <c r="AB22">
-        <v>0.5673308592708818</v>
+        <v>0.6818181898948593</v>
       </c>
       <c r="AC22">
-        <v>0.5665891596584082</v>
+        <v>0.6725242949062393</v>
       </c>
       <c r="AD22">
-        <v>0.5665891596584082</v>
+        <v>0.6565226270480864</v>
+      </c>
+      <c r="AE22">
+        <v>0.6355461435330901</v>
+      </c>
+      <c r="AF22">
+        <v>0.6302745435733776</v>
+      </c>
+      <c r="AG22">
+        <v>0.625089675815089</v>
+      </c>
+      <c r="AH22">
+        <v>0.6199894172495114</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>11</v>
       </c>
@@ -3475,82 +3810,94 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>79</v>
+      </c>
+      <c r="L23">
+        <v>958</v>
+      </c>
+      <c r="M23">
+        <v>1037</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
+      <c r="O23">
         <v>0.75</v>
       </c>
-      <c r="M23">
-        <v>0.6671103272396803</v>
-      </c>
-      <c r="N23">
-        <v>0.6464780788377222</v>
-      </c>
-      <c r="O23">
-        <v>0.6430045195450416</v>
-      </c>
       <c r="P23">
-        <v>0.6423635069489755</v>
+        <v>0.7230443990732957</v>
       </c>
       <c r="Q23">
-        <v>0.6394969848019243</v>
+        <v>0.7013358804867822</v>
       </c>
       <c r="R23">
-        <v>0.6371186220034879</v>
+        <v>0.6834782641385501</v>
       </c>
       <c r="S23">
-        <v>0.6362414306962874</v>
+        <v>0.6741588932849498</v>
       </c>
       <c r="T23">
-        <v>0.6362414306962874</v>
+        <v>0.643275275500226</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.6392403353493481</v>
       </c>
       <c r="V23">
+        <v>0.6352556979486117</v>
+      </c>
+      <c r="W23">
+        <v>0.6313204284545584</v>
+      </c>
+      <c r="X23">
+        <v>0.6309139380540674</v>
+      </c>
+      <c r="Y23">
         <v>0.75</v>
       </c>
-      <c r="W23">
-        <v>0.6671103272396803</v>
-      </c>
-      <c r="X23">
-        <v>0.6567804907168282</v>
-      </c>
-      <c r="Y23">
-        <v>0.6532515760459975</v>
-      </c>
       <c r="Z23">
-        <v>0.6525646313891085</v>
+        <v>0.7230443990732957</v>
       </c>
       <c r="AA23">
-        <v>0.6496525871213015</v>
+        <v>0.7013358804867822</v>
       </c>
       <c r="AB23">
-        <v>0.6472364544704244</v>
+        <v>0.6834782641385501</v>
       </c>
       <c r="AC23">
-        <v>0.6463453328300315</v>
+        <v>0.6741588932849498</v>
       </c>
       <c r="AD23">
-        <v>0.6463453328300315</v>
+        <v>0.643275275500226</v>
+      </c>
+      <c r="AE23">
+        <v>0.6392403353493481</v>
+      </c>
+      <c r="AF23">
+        <v>0.6352556979486117</v>
+      </c>
+      <c r="AG23">
+        <v>0.6313204284545584</v>
+      </c>
+      <c r="AH23">
+        <v>0.6309139380540674</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3567,82 +3914,94 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0.9000000011937067</v>
-      </c>
-      <c r="L24">
-        <v>0.8576165795079317</v>
-      </c>
-      <c r="M24">
-        <v>0.7950852995053992</v>
-      </c>
-      <c r="N24">
-        <v>0.793838669304721</v>
-      </c>
       <c r="O24">
-        <v>0.7926629010607161</v>
+        <v>0.75</v>
       </c>
       <c r="P24">
-        <v>0.7912022099913328</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="Q24">
-        <v>0.7902968863564529</v>
+        <v>0.6428571461812178</v>
       </c>
       <c r="R24">
-        <v>0.7887386182029564</v>
+        <v>0.6333333376767929</v>
       </c>
       <c r="S24">
-        <v>0.7882268371466656</v>
+        <v>0.5869583410094363</v>
       </c>
       <c r="T24">
-        <v>0.7879976697444426</v>
+        <v>0.5838871397930696</v>
       </c>
       <c r="U24">
-        <v>0.9000000011937067</v>
+        <v>0.5783526743691143</v>
       </c>
       <c r="V24">
-        <v>0.8576165795079317</v>
+        <v>0.5704138495268987</v>
       </c>
       <c r="W24">
-        <v>0.7950852995053992</v>
+        <v>0.5593453679731648</v>
       </c>
       <c r="X24">
-        <v>0.793838669304721</v>
+        <v>0.5583699683955605</v>
       </c>
       <c r="Y24">
-        <v>0.7926629010607161</v>
+        <v>0.75</v>
       </c>
       <c r="Z24">
-        <v>0.7912022099913328</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AA24">
-        <v>0.7902968863564529</v>
+        <v>0.6428571461812178</v>
       </c>
       <c r="AB24">
-        <v>0.7887386182029564</v>
+        <v>0.6333333376767929</v>
       </c>
       <c r="AC24">
-        <v>0.7882268371466656</v>
+        <v>0.5869583410094363</v>
       </c>
       <c r="AD24">
-        <v>0.7880816335001721</v>
+        <v>0.5838871397930696</v>
+      </c>
+      <c r="AE24">
+        <v>0.5783526743691143</v>
+      </c>
+      <c r="AF24">
+        <v>0.5704138495268987</v>
+      </c>
+      <c r="AG24">
+        <v>0.5593453679731648</v>
+      </c>
+      <c r="AH24">
+        <v>0.5583699683955605</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>12</v>
       </c>
@@ -3659,82 +4018,94 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>101</v>
+      </c>
+      <c r="L25">
+        <v>1255</v>
+      </c>
+      <c r="M25">
+        <v>1356</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0.9007970406981538</v>
-      </c>
-      <c r="L25">
-        <v>0.8594828895956442</v>
-      </c>
-      <c r="M25">
-        <v>0.8558315844259625</v>
-      </c>
-      <c r="N25">
-        <v>0.8542731067854548</v>
-      </c>
       <c r="O25">
-        <v>0.8527756551919398</v>
+        <v>0.75</v>
       </c>
       <c r="P25">
-        <v>0.8509636576060523</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q25">
-        <v>0.8498084598699573</v>
+        <v>0.6435374162997618</v>
       </c>
       <c r="R25">
-        <v>0.8478354008859011</v>
+        <v>0.6342239203245215</v>
       </c>
       <c r="S25">
-        <v>0.8471797489777496</v>
+        <v>0.5881746716268582</v>
       </c>
       <c r="T25">
-        <v>0.8468708691783442</v>
+        <v>0.5851358703264254</v>
       </c>
       <c r="U25">
-        <v>0.9007970406981538</v>
+        <v>0.5796652716057982</v>
       </c>
       <c r="V25">
-        <v>0.8594828895956442</v>
+        <v>0.5771071117004168</v>
       </c>
       <c r="W25">
-        <v>0.8558315844259625</v>
+        <v>0.5737939368922903</v>
       </c>
       <c r="X25">
-        <v>0.8542731067854548</v>
+        <v>0.5727595410405224</v>
       </c>
       <c r="Y25">
-        <v>0.8527756551919398</v>
+        <v>0.75</v>
       </c>
       <c r="Z25">
-        <v>0.8509636576060523</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA25">
-        <v>0.8498084598699573</v>
+        <v>0.6435374162997618</v>
       </c>
       <c r="AB25">
-        <v>0.8478354008859011</v>
+        <v>0.6342239203245215</v>
       </c>
       <c r="AC25">
-        <v>0.8471797489777496</v>
+        <v>0.5881746716268582</v>
       </c>
       <c r="AD25">
-        <v>0.8469710546909803</v>
+        <v>0.5851358703264254</v>
+      </c>
+      <c r="AE25">
+        <v>0.5796652716057982</v>
+      </c>
+      <c r="AF25">
+        <v>0.5771071117004168</v>
+      </c>
+      <c r="AG25">
+        <v>0.5737939368922903</v>
+      </c>
+      <c r="AH25">
+        <v>0.5727595410405224</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:34">
       <c r="A26">
         <v>13</v>
       </c>
@@ -3751,82 +4122,94 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.900000010117306</v>
-      </c>
-      <c r="M26">
-        <v>0.8576186827376204</v>
-      </c>
-      <c r="N26">
-        <v>0.8536058914087126</v>
-      </c>
       <c r="O26">
-        <v>0.8511906293879687</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0.8488624475143938</v>
+        <v>0.8666666661601438</v>
       </c>
       <c r="Q26">
-        <v>0.8475351047414081</v>
+        <v>0.7777777893141072</v>
       </c>
       <c r="R26">
-        <v>0.8464083353418699</v>
+        <v>0.7273245260957425</v>
       </c>
       <c r="S26">
-        <v>0.8453805458308083</v>
+        <v>0.6687804327271586</v>
       </c>
       <c r="T26">
-        <v>0.8453805458308083</v>
+        <v>0.6631787526283948</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.6579369583024013</v>
       </c>
       <c r="V26">
-        <v>0.900000010117306</v>
+        <v>0.637459823771974</v>
       </c>
       <c r="W26">
-        <v>0.8576186827376204</v>
+        <v>0.6284528315108232</v>
       </c>
       <c r="X26">
-        <v>0.8536058914087126</v>
+        <v>0.6284528315108232</v>
       </c>
       <c r="Y26">
-        <v>0.8511906293879687</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0.8488624475143938</v>
+        <v>0.8999999996201078</v>
       </c>
       <c r="AA26">
-        <v>0.8479642246289416</v>
+        <v>0.8333333419855804</v>
       </c>
       <c r="AB26">
-        <v>0.8468368847289541</v>
+        <v>0.7954933945718069</v>
       </c>
       <c r="AC26">
-        <v>0.8458085748324632</v>
+        <v>0.7314622256850684</v>
       </c>
       <c r="AD26">
-        <v>0.8458085748324632</v>
+        <v>0.7237801897862055</v>
+      </c>
+      <c r="AE26">
+        <v>0.7165916942854318</v>
+      </c>
+      <c r="AF26">
+        <v>0.694289033913334</v>
+      </c>
+      <c r="AG26">
+        <v>0.6844790729993169</v>
+      </c>
+      <c r="AH26">
+        <v>0.6844790729993169</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>13</v>
       </c>
@@ -3843,82 +4226,94 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>59</v>
+      </c>
+      <c r="L27">
+        <v>953</v>
+      </c>
+      <c r="M27">
+        <v>1012</v>
+      </c>
+      <c r="N27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.9043116181677935</v>
-      </c>
-      <c r="M27">
-        <v>0.9007534764299698</v>
-      </c>
-      <c r="N27">
-        <v>0.8991717470973657</v>
-      </c>
       <c r="O27">
-        <v>0.8965179048650493</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0.8950136411950559</v>
+        <v>0.8666666861136296</v>
       </c>
       <c r="Q27">
-        <v>0.89267796201955</v>
+        <v>0.7778178746501645</v>
       </c>
       <c r="R27">
-        <v>0.8913694918482808</v>
+        <v>0.7144891758566013</v>
       </c>
       <c r="S27">
-        <v>0.8902096232901664</v>
+        <v>0.6588401252976899</v>
       </c>
       <c r="T27">
-        <v>0.8902096232901664</v>
+        <v>0.6543647140457789</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0.6539661405992641</v>
       </c>
       <c r="V27">
-        <v>0.9043116181677935</v>
+        <v>0.6535696201046457</v>
       </c>
       <c r="W27">
-        <v>0.9007534764299698</v>
+        <v>0.6518907571775948</v>
       </c>
       <c r="X27">
-        <v>0.8991717470973657</v>
+        <v>0.6518907571775948</v>
       </c>
       <c r="Y27">
-        <v>0.8965179048650493</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.8954588071749826</v>
+        <v>0.9000000145852223</v>
       </c>
       <c r="AA27">
-        <v>0.8931219662686818</v>
+        <v>0.8333634059876234</v>
       </c>
       <c r="AB27">
-        <v>0.891812845284532</v>
+        <v>0.7858668818924511</v>
       </c>
       <c r="AC27">
-        <v>0.8906523998256872</v>
+        <v>0.7246584726949626</v>
       </c>
       <c r="AD27">
-        <v>0.8906523998256872</v>
+        <v>0.7197359663721634</v>
+      </c>
+      <c r="AE27">
+        <v>0.7191686027620172</v>
+      </c>
+      <c r="AF27">
+        <v>0.7186041614995828</v>
+      </c>
+      <c r="AG27">
+        <v>0.7167582405007258</v>
+      </c>
+      <c r="AH27">
+        <v>0.7167582405007258</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>14</v>
       </c>
@@ -3935,82 +4330,94 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L28">
-        <v>0.997625291498211</v>
+        <v>-1</v>
       </c>
       <c r="M28">
-        <v>0.9967851926217701</v>
+        <v>-1</v>
       </c>
       <c r="N28">
-        <v>0.9959465074470539</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>0.9959465074470539</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>0.9952281331248775</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0.9947500131414209</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>0.9942723523269569</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0.9938634895062274</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0.9938634895062274</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="U28">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="W28">
-        <v>0.4995789506924092</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X28">
-        <v>0.499158609918241</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Y28">
-        <v>0.499158609918241</v>
+        <v>0.5</v>
       </c>
       <c r="Z28">
-        <v>0.4987985677619833</v>
+        <v>0.5</v>
       </c>
       <c r="AA28">
-        <v>0.4985589387211344</v>
+        <v>0.5</v>
       </c>
       <c r="AB28">
-        <v>0.4983195398112759</v>
+        <v>0.5</v>
       </c>
       <c r="AC28">
-        <v>0.4981146217803208</v>
+        <v>0.5</v>
       </c>
       <c r="AD28">
-        <v>0.4981146217803208</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE28">
+        <v>0.5</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>14</v>
       </c>
@@ -4027,82 +4434,94 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L29">
-        <v>0.6915005246589717</v>
+        <v>229</v>
       </c>
       <c r="M29">
-        <v>0.6197977897954385</v>
+        <v>243</v>
       </c>
       <c r="N29">
-        <v>0.5615679590967192</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>0.5615679590967192</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0.5197160883280757</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>0.4951164537941397</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>0.4727403156384505</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0.455110497237569</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0.455110497237569</v>
+        <v>0.8675691693595809</v>
       </c>
       <c r="U29">
-        <v>0.5</v>
+        <v>0.8675691693595809</v>
       </c>
       <c r="V29">
-        <v>0.5</v>
+        <v>0.8675691693595809</v>
       </c>
       <c r="W29">
-        <v>0.4481542440630144</v>
+        <v>0.8675691693595809</v>
       </c>
       <c r="X29">
-        <v>0.406050276949297</v>
+        <v>0.8675691693595809</v>
       </c>
       <c r="Y29">
-        <v>0.406050276949297</v>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <v>0.375788643533123</v>
+        <v>0.5</v>
       </c>
       <c r="AA29">
-        <v>0.3580015026296018</v>
+        <v>0.5</v>
       </c>
       <c r="AB29">
-        <v>0.3418220946915351</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>0.3290745856353591</v>
+        <v>0.5</v>
       </c>
       <c r="AD29">
-        <v>0.3290745856353591</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE29">
+        <v>0.5</v>
+      </c>
+      <c r="AF29">
+        <v>0.5</v>
+      </c>
+      <c r="AG29">
+        <v>0.5</v>
+      </c>
+      <c r="AH29">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>15</v>
       </c>
@@ -4119,82 +4538,94 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0.75</v>
+      </c>
+      <c r="Q30">
+        <v>0.75</v>
+      </c>
+      <c r="R30">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M30">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="N30">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="O30">
-        <v>0.5000000000796666</v>
-      </c>
-      <c r="P30">
-        <v>0.4888889366666896</v>
-      </c>
-      <c r="Q30">
-        <v>0.4791791545140911</v>
-      </c>
-      <c r="R30">
-        <v>0.4799228175395979</v>
-      </c>
       <c r="S30">
-        <v>0.4727986574599909</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T30">
-        <v>0.4724936936835036</v>
+        <v>0.6000003737399855</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0.5454551632074397</v>
       </c>
       <c r="V30">
+        <v>0.5454551632074397</v>
+      </c>
+      <c r="W30">
+        <v>0.5431315740927573</v>
+      </c>
+      <c r="X30">
+        <v>0.5431315740927573</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
         <v>0.75</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
+        <v>0.75</v>
+      </c>
+      <c r="AB30">
         <v>0.6666666666666666</v>
       </c>
-      <c r="X30">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="Y30">
-        <v>0.6071428571940714</v>
-      </c>
-      <c r="Z30">
-        <v>0.6000000307143005</v>
-      </c>
-      <c r="AA30">
-        <v>0.5937580279019158</v>
-      </c>
-      <c r="AB30">
-        <v>0.590409250411478</v>
-      </c>
       <c r="AC30">
-        <v>0.5816449869535</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD30">
-        <v>0.5812698153048551</v>
+        <v>0.6000003737399855</v>
+      </c>
+      <c r="AE30">
+        <v>0.5454551632074397</v>
+      </c>
+      <c r="AF30">
+        <v>0.5454551632074397</v>
+      </c>
+      <c r="AG30">
+        <v>0.5431315740927573</v>
+      </c>
+      <c r="AH30">
+        <v>0.5431315740927573</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>15</v>
       </c>
@@ -4211,82 +4642,94 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>723</v>
       </c>
       <c r="M31">
-        <v>0.5555555555555556</v>
+        <v>761</v>
       </c>
       <c r="N31">
-        <v>0.5128255354546156</v>
+        <v>5</v>
       </c>
       <c r="O31">
-        <v>0.5000152046056928</v>
+        <v>0.5</v>
       </c>
       <c r="P31">
-        <v>0.4889132081317077</v>
+        <v>0.4001723130039693</v>
       </c>
       <c r="Q31">
-        <v>0.488727286364416</v>
+        <v>0.4001723130039693</v>
       </c>
       <c r="R31">
-        <v>0.4882167842090002</v>
+        <v>0.3337898812445698</v>
       </c>
       <c r="S31">
-        <v>0.4882271097414656</v>
+        <v>0.3337898812445698</v>
       </c>
       <c r="T31">
-        <v>0.4879361216749261</v>
+        <v>0.2862975252833548</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0.2880888978233687</v>
       </c>
       <c r="V31">
-        <v>0.75</v>
+        <v>0.2880888978233687</v>
       </c>
       <c r="W31">
-        <v>0.6666666666666666</v>
+        <v>0.2884870663263481</v>
       </c>
       <c r="X31">
-        <v>0.6153906425455388</v>
+        <v>0.2884870663263481</v>
       </c>
       <c r="Y31">
-        <v>0.6071552301409412</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
-        <v>0.6000180593249866</v>
+        <v>0.4001723130039693</v>
       </c>
       <c r="AA31">
-        <v>0.5998985352903073</v>
+        <v>0.4001723130039693</v>
       </c>
       <c r="AB31">
-        <v>0.5992719087363152</v>
+        <v>0.3337898812445698</v>
       </c>
       <c r="AC31">
-        <v>0.5991849176012339</v>
+        <v>0.3337898812445698</v>
       </c>
       <c r="AD31">
-        <v>0.5988277976109803</v>
+        <v>0.2862975252833548</v>
+      </c>
+      <c r="AE31">
+        <v>0.2880888978233687</v>
+      </c>
+      <c r="AF31">
+        <v>0.2880888978233687</v>
+      </c>
+      <c r="AG31">
+        <v>0.2884870663263481</v>
+      </c>
+      <c r="AH31">
+        <v>0.2884870663263481</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>16</v>
       </c>
@@ -4303,61 +4746,61 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="R32">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S32">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="T32">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="U32">
-        <v>0.5</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="V32">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W32">
-        <v>0.5</v>
+        <v>0.3478260884221632</v>
       </c>
       <c r="X32">
-        <v>0.5</v>
+        <v>0.3478260884221632</v>
       </c>
       <c r="Y32">
         <v>0.5</v>
@@ -4366,19 +4809,31 @@
         <v>0.5</v>
       </c>
       <c r="AA32">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AB32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD32">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="AE32">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="AF32">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AG32">
+        <v>0.1739130442110816</v>
+      </c>
+      <c r="AH32">
+        <v>0.1739130442110816</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>16</v>
       </c>
@@ -4395,82 +4850,94 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>56</v>
       </c>
       <c r="L33">
-        <v>0.5</v>
+        <v>516</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>572</v>
       </c>
       <c r="N33">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0.5009746588693957</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.5009746588693957</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0.5009746588693957</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0.5009746588693957</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0.5009746588693957</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0.5</v>
+        <v>0.0007182195015993309</v>
       </c>
       <c r="V33">
-        <v>0.5</v>
+        <v>0.00143540806513353</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
+        <v>0.001434378605823903</v>
       </c>
       <c r="X33">
-        <v>0.5</v>
+        <v>0.001434378605823903</v>
       </c>
       <c r="Y33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.0003591097507996655</v>
+      </c>
+      <c r="AF33">
+        <v>0.000717704032566765</v>
+      </c>
+      <c r="AG33">
+        <v>0.0007171893029119514</v>
+      </c>
+      <c r="AH33">
+        <v>0.0007171893029119514</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>17</v>
       </c>
@@ -4487,82 +4954,94 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="M34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="N34">
-        <v>0.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>0.6666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P34">
-        <v>0.625</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Q34">
-        <v>0.4999999999999999</v>
+        <v>0.3999999994741913</v>
       </c>
       <c r="R34">
-        <v>0.4999999999999999</v>
+        <v>0.3809523804357133</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>0.3775956315737935</v>
       </c>
       <c r="T34">
-        <v>0.5</v>
+        <v>0.3764643288231093</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0.3581568232352085</v>
       </c>
       <c r="V34">
-        <v>0.75</v>
+        <v>0.3580396479870927</v>
       </c>
       <c r="W34">
-        <v>0.75</v>
+        <v>0.3577089169938972</v>
       </c>
       <c r="X34">
-        <v>0.6666666666666667</v>
+        <v>0.3574953629228579</v>
       </c>
       <c r="Y34">
-        <v>0.6666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Z34">
-        <v>0.625</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="AA34">
-        <v>0.4999999999999999</v>
+        <v>0.4999999995618262</v>
       </c>
       <c r="AB34">
-        <v>0.4999999999999999</v>
+        <v>0.4761904757532959</v>
       </c>
       <c r="AC34">
-        <v>0.5</v>
+        <v>0.4778688502332838</v>
       </c>
       <c r="AD34">
-        <v>0.5</v>
+        <v>0.4784345016251495</v>
+      </c>
+      <c r="AE34">
+        <v>0.4551681742699685</v>
+      </c>
+      <c r="AF34">
+        <v>0.4552167443013938</v>
+      </c>
+      <c r="AG34">
+        <v>0.4549932511651003</v>
+      </c>
+      <c r="AH34">
+        <v>0.4547216178440799</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>17</v>
       </c>
@@ -4579,82 +5058,94 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>96</v>
+      </c>
+      <c r="L35">
+        <v>1236</v>
+      </c>
+      <c r="M35">
+        <v>1332</v>
+      </c>
+      <c r="N35">
         <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.75</v>
-      </c>
-      <c r="M35">
-        <v>0.75</v>
-      </c>
-      <c r="N35">
-        <v>0.6666666666666666</v>
       </c>
       <c r="O35">
         <v>0.6666666666666666</v>
       </c>
       <c r="P35">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R35">
-        <v>0.5</v>
+        <v>0.3809575964896575</v>
       </c>
       <c r="S35">
-        <v>0.5</v>
+        <v>0.378723803786215</v>
       </c>
       <c r="T35">
-        <v>0.5</v>
+        <v>0.3786311889234881</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0.3776551202791223</v>
       </c>
       <c r="V35">
+        <v>0.3775028732505392</v>
+      </c>
+      <c r="W35">
+        <v>0.377122244840505</v>
+      </c>
+      <c r="X35">
+        <v>0.3768937778928277</v>
+      </c>
+      <c r="Y35">
         <v>0.75</v>
       </c>
-      <c r="W35">
-        <v>0.75</v>
-      </c>
-      <c r="X35">
+      <c r="Z35">
         <v>0.6666666666666666</v>
       </c>
-      <c r="Y35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="Z35">
-        <v>0.625</v>
-      </c>
       <c r="AA35">
         <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>0.5</v>
+        <v>0.4761969956120718</v>
       </c>
       <c r="AC35">
-        <v>0.5</v>
+        <v>0.4773134638574121</v>
       </c>
       <c r="AD35">
-        <v>0.5</v>
+        <v>0.4773597535391366</v>
+      </c>
+      <c r="AE35">
+        <v>0.4761291737529428</v>
+      </c>
+      <c r="AF35">
+        <v>0.4761576431348055</v>
+      </c>
+      <c r="AG35">
+        <v>0.4758973883667417</v>
+      </c>
+      <c r="AH35">
+        <v>0.4756090817891924</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:34">
       <c r="A36">
         <v>18</v>
       </c>
@@ -4671,82 +5162,94 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0.9976471784035029</v>
+        <v>0.5</v>
       </c>
       <c r="Q36">
-        <v>0.9976471784035029</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="R36">
-        <v>0.9976471784035029</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="S36">
-        <v>0.9976471784035029</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="T36">
-        <v>0.9976471784035029</v>
+        <v>0.4</v>
       </c>
       <c r="U36">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="V36">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.3541666666066936</v>
       </c>
       <c r="X36">
-        <v>0.5</v>
+        <v>0.3541666666066936</v>
       </c>
       <c r="Y36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.4988235892017515</v>
+        <v>0.5</v>
       </c>
       <c r="AA36">
-        <v>0.4988235892017515</v>
+        <v>0.5</v>
       </c>
       <c r="AB36">
-        <v>0.4988235892017515</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>0.4988235892017515</v>
+        <v>0.5</v>
       </c>
       <c r="AD36">
-        <v>0.4988235892017515</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE36">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="AF36">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AG36">
+        <v>0.4374999999742973</v>
+      </c>
+      <c r="AH36">
+        <v>0.4374999999742973</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>18</v>
       </c>
@@ -4763,82 +5266,94 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>737</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>790</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37">
-        <v>0.9980506822612085</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q37">
-        <v>0.9980506822612085</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R37">
-        <v>0.9980506822612085</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S37">
-        <v>0.9980506822612085</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="T37">
-        <v>0.9980506822612085</v>
+        <v>0.4</v>
       </c>
       <c r="U37">
-        <v>0.5</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="V37">
-        <v>0.5</v>
+        <v>0.3889803662482424</v>
       </c>
       <c r="W37">
-        <v>0.5</v>
+        <v>0.3888380867226846</v>
       </c>
       <c r="X37">
-        <v>0.5</v>
+        <v>0.3888380867226846</v>
       </c>
       <c r="Y37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.4990253411306043</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
-        <v>0.4990253411306043</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB37">
-        <v>0.4990253411306043</v>
+        <v>0.625</v>
       </c>
       <c r="AC37">
-        <v>0.4990253411306043</v>
+        <v>0.625</v>
       </c>
       <c r="AD37">
-        <v>0.4990253411306043</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE37">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AF37">
+        <v>0.5</v>
+      </c>
+      <c r="AG37">
+        <v>0.4998171122016643</v>
+      </c>
+      <c r="AH37">
+        <v>0.4998171122016643</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:34">
       <c r="A38">
         <v>19</v>
       </c>
@@ -4855,82 +5370,94 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="L38">
-        <v>0.6666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="M38">
-        <v>0.6153846153846154</v>
+        <v>-1</v>
       </c>
       <c r="N38">
-        <v>0.5333333428848543</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.5000000137611724</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0.4821446272567401</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>0.4831030351139142</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>0.4736851298754717</v>
+        <v>0.5</v>
       </c>
       <c r="S38">
-        <v>0.4716990813719699</v>
+        <v>0.5</v>
       </c>
       <c r="T38">
-        <v>0.471222752421891</v>
+        <v>0.5</v>
       </c>
       <c r="U38">
         <v>0.5</v>
       </c>
       <c r="V38">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="W38">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="X38">
-        <v>0.4000000071636408</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="Y38">
-        <v>0.3750000103208793</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.3616084704425551</v>
+        <v>0.5</v>
       </c>
       <c r="AA38">
-        <v>0.3690367964260757</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
-        <v>0.3618425680200801</v>
+        <v>0.5</v>
       </c>
       <c r="AC38">
-        <v>0.3603254486397263</v>
+        <v>0.5</v>
       </c>
       <c r="AD38">
-        <v>0.3599615864881654</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE38">
+        <v>0.5</v>
+      </c>
+      <c r="AF38">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AG38">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AH38">
+        <v>0.3571428571428572</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:34">
       <c r="A39">
         <v>19</v>
       </c>
@@ -4947,82 +5474,94 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>49</v>
       </c>
       <c r="L39">
-        <v>0.4446087293029353</v>
+        <v>532</v>
       </c>
       <c r="M39">
-        <v>0.4026888386619711</v>
+        <v>581</v>
       </c>
       <c r="N39">
-        <v>0.3411878336660557</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>0.3488285222881886</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0.3328162398792981</v>
+        <v>0.25</v>
       </c>
       <c r="Q39">
-        <v>0.326179606317998</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R39">
-        <v>0.325503040342381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S39">
-        <v>0.3251601010873838</v>
+        <v>0.375</v>
       </c>
       <c r="T39">
-        <v>0.325534406103202</v>
+        <v>0.3</v>
       </c>
       <c r="U39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="V39">
-        <v>0.4446087293029353</v>
+        <v>0.25</v>
       </c>
       <c r="W39">
-        <v>0.4026888386619711</v>
+        <v>0.2504117611175502</v>
       </c>
       <c r="X39">
-        <v>0.3411878336660557</v>
+        <v>0.2504117611175502</v>
       </c>
       <c r="Y39">
-        <v>0.3488285222881886</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.3328162398792981</v>
+        <v>0.25</v>
       </c>
       <c r="AA39">
-        <v>0.326179606317998</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AB39">
-        <v>0.325503040342381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AC39">
-        <v>0.3251601010873838</v>
+        <v>0.375</v>
       </c>
       <c r="AD39">
-        <v>0.3252570773498034</v>
+        <v>0.3</v>
+      </c>
+      <c r="AE39">
+        <v>0.3</v>
+      </c>
+      <c r="AF39">
+        <v>0.25</v>
+      </c>
+      <c r="AG39">
+        <v>0.2504117611175502</v>
+      </c>
+      <c r="AH39">
+        <v>0.2504117611175502</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:34">
       <c r="A40">
         <v>20</v>
       </c>
@@ -5039,82 +5578,94 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="L40">
-        <v>0.7222222238622633</v>
+        <v>-1</v>
       </c>
       <c r="M40">
-        <v>0.6981982218581977</v>
+        <v>-1</v>
       </c>
       <c r="N40">
-        <v>0.6973310459560559</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.6964679823220368</v>
+        <v>0.970588510013778</v>
       </c>
       <c r="P40">
-        <v>0.6934964097360808</v>
+        <v>0.9681623929612778</v>
       </c>
       <c r="Q40">
-        <v>0.6931691127645574</v>
+        <v>0.9670815610423744</v>
       </c>
       <c r="R40">
-        <v>0.6926892830720771</v>
+        <v>0.9659662660122563</v>
       </c>
       <c r="S40">
-        <v>0.6919567954342247</v>
+        <v>0.964963135028607</v>
       </c>
       <c r="T40">
-        <v>0.6913273338183197</v>
+        <v>0.9642201555402551</v>
       </c>
       <c r="U40">
-        <v>0.75</v>
+        <v>0.963478319295198</v>
       </c>
       <c r="V40">
-        <v>0.7222222238622633</v>
+        <v>0.9631472252718229</v>
       </c>
       <c r="W40">
-        <v>0.7084942226736621</v>
+        <v>0.9628191841112587</v>
       </c>
       <c r="X40">
-        <v>0.7079986935851567</v>
+        <v>0.962634759138516</v>
       </c>
       <c r="Y40">
-        <v>0.7075055143641573</v>
+        <v>0.5</v>
       </c>
       <c r="Z40">
-        <v>0.7044868486907004</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.7041409615169585</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.7038687459664591</v>
+        <v>0.4994233707501796</v>
       </c>
       <c r="AC40">
-        <v>0.7031244365514144</v>
+        <v>0.4989047324966654</v>
       </c>
       <c r="AD40">
-        <v>0.7024848159176778</v>
+        <v>0.498520597632409</v>
+      </c>
+      <c r="AE40">
+        <v>0.4981370538471995</v>
+      </c>
+      <c r="AF40">
+        <v>0.4979658717893913</v>
+      </c>
+      <c r="AG40">
+        <v>0.4977962681211078</v>
+      </c>
+      <c r="AH40">
+        <v>0.497700916818709</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:34">
       <c r="A41">
         <v>20</v>
       </c>
@@ -5131,82 +5682,94 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K41">
-        <v>0.75</v>
+        <v>76</v>
       </c>
       <c r="L41">
-        <v>0.7233066522418566</v>
+        <v>160</v>
       </c>
       <c r="M41">
-        <v>0.7208180034052527</v>
+        <v>236</v>
       </c>
       <c r="N41">
-        <v>0.7198380833433516</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.7188631070696472</v>
+        <v>0.9957930513602113</v>
       </c>
       <c r="P41">
-        <v>0.7157450217008383</v>
+        <v>0.9933744063658256</v>
       </c>
       <c r="Q41">
-        <v>0.7154328793964367</v>
+        <v>0.9923070112901398</v>
       </c>
       <c r="R41">
-        <v>0.7149497683451479</v>
+        <v>0.9911008955826479</v>
       </c>
       <c r="S41">
-        <v>0.7141596833160473</v>
+        <v>0.9900312514953507</v>
       </c>
       <c r="T41">
-        <v>0.7134838561202864</v>
+        <v>0.989230532369801</v>
       </c>
       <c r="U41">
-        <v>0.75</v>
+        <v>0.9884311074114502</v>
       </c>
       <c r="V41">
-        <v>0.7233066522418566</v>
+        <v>0.9880762220213348</v>
       </c>
       <c r="W41">
-        <v>0.7218816013130829</v>
+        <v>0.9877215913752005</v>
       </c>
       <c r="X41">
-        <v>0.7213204791596489</v>
+        <v>0.9875222234818498</v>
       </c>
       <c r="Y41">
-        <v>0.7207621879198647</v>
+        <v>0.5</v>
       </c>
       <c r="Z41">
-        <v>0.7176358652439035</v>
+        <v>0.5</v>
       </c>
       <c r="AA41">
-        <v>0.7173209872459684</v>
+        <v>0.5</v>
       </c>
       <c r="AB41">
-        <v>0.7170462154706622</v>
+        <v>0.4993922668620855</v>
       </c>
       <c r="AC41">
-        <v>0.7162538136753193</v>
+        <v>0.4988532985412296</v>
       </c>
       <c r="AD41">
-        <v>0.7155760047515483</v>
+        <v>0.498449835139057</v>
+      </c>
+      <c r="AE41">
+        <v>0.4980470238370833</v>
+      </c>
+      <c r="AF41">
+        <v>0.4978682054945353</v>
+      </c>
+      <c r="AG41">
+        <v>0.4976895155114457</v>
+      </c>
+      <c r="AH41">
+        <v>0.4975890587520545</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:34">
       <c r="A42">
         <v>21</v>
       </c>
@@ -5223,82 +5786,94 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="L42">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="M42">
-        <v>0.1666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="N42">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q42">
-        <v>0.1428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>0.1250000000407456</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="S42">
-        <v>0.1251566596522339</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="T42">
-        <v>0.1251566596522339</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="U42">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="V42">
-        <v>0.25</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="W42">
-        <v>0.1666666666666667</v>
+        <v>0.3611111111111112</v>
       </c>
       <c r="X42">
-        <v>0.125</v>
+        <v>0.3611111111111112</v>
       </c>
       <c r="Y42">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="AA42">
-        <v>0.1428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0.1250000000407456</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC42">
-        <v>0.1250671398742364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD42">
-        <v>0.1250671398742364</v>
+        <v>0.625</v>
+      </c>
+      <c r="AE42">
+        <v>0.5</v>
+      </c>
+      <c r="AF42">
+        <v>0.5</v>
+      </c>
+      <c r="AG42">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AH42">
+        <v>0.4166666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:34">
       <c r="A43">
         <v>21</v>
       </c>
@@ -5315,82 +5890,94 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>47</v>
       </c>
       <c r="L43">
-        <v>0.25</v>
+        <v>642</v>
       </c>
       <c r="M43">
-        <v>0.1666666666666667</v>
+        <v>689</v>
       </c>
       <c r="N43">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q43">
-        <v>0.1428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R43">
-        <v>0.1427563192151191</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="S43">
-        <v>0.1428758112993858</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T43">
-        <v>0.1428758112993858</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="U43">
-        <v>0.5</v>
+        <v>0.4156188479663084</v>
       </c>
       <c r="V43">
-        <v>0.25</v>
+        <v>0.4156188479663084</v>
       </c>
       <c r="W43">
-        <v>0.1666666666666667</v>
+        <v>0.4157227494915179</v>
       </c>
       <c r="X43">
-        <v>0.125</v>
+        <v>0.4157227494915179</v>
       </c>
       <c r="Y43">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
-        <v>0.1428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.1427563192151191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AC43">
-        <v>0.1428061157816788</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AD43">
-        <v>0.1428061157816788</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE43">
+        <v>0.4987426175595701</v>
+      </c>
+      <c r="AF43">
+        <v>0.4987426175595701</v>
+      </c>
+      <c r="AG43">
+        <v>0.4987441658194621</v>
+      </c>
+      <c r="AH43">
+        <v>0.4987441658194621</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:34">
       <c r="A44">
         <v>22</v>
       </c>
@@ -5407,82 +5994,94 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="L44">
-        <v>0.6666666667567478</v>
+        <v>-1</v>
       </c>
       <c r="M44">
-        <v>0.615384615442182</v>
+        <v>-1</v>
       </c>
       <c r="N44">
-        <v>0.5714285714616625</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>0.5333333333477462</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>0.5294117649739298</v>
+        <v>0.9364149678426823</v>
       </c>
       <c r="Q44">
-        <v>0.5115789474703926</v>
+        <v>0.9364149678426823</v>
       </c>
       <c r="R44">
-        <v>0.5044110016318079</v>
+        <v>0.8718146790866271</v>
       </c>
       <c r="S44">
-        <v>0.4974411502848568</v>
+        <v>0.8718146790866271</v>
       </c>
       <c r="T44">
-        <v>0.4906612897345074</v>
+        <v>0.8689683323341326</v>
       </c>
       <c r="U44">
-        <v>0.75</v>
+        <v>0.867130109386006</v>
       </c>
       <c r="V44">
-        <v>0.6666666667567478</v>
+        <v>0.867130109386006</v>
       </c>
       <c r="W44">
-        <v>0.615384615442182</v>
+        <v>0.865972572346369</v>
       </c>
       <c r="X44">
-        <v>0.5714285714616625</v>
+        <v>0.865972572346369</v>
       </c>
       <c r="Y44">
-        <v>0.5333333333477462</v>
+        <v>0.5</v>
       </c>
       <c r="Z44">
-        <v>0.5294117649739298</v>
+        <v>0.5</v>
       </c>
       <c r="AA44">
-        <v>0.5115789474703926</v>
+        <v>0.5</v>
       </c>
       <c r="AB44">
-        <v>0.5044110016318079</v>
+        <v>0.4655065911083835</v>
       </c>
       <c r="AC44">
-        <v>0.4974411502848568</v>
+        <v>0.4655065911083835</v>
       </c>
       <c r="AD44">
-        <v>0.4906612897345074</v>
+        <v>0.4639867805274763</v>
+      </c>
+      <c r="AE44">
+        <v>0.4630052589738634</v>
+      </c>
+      <c r="AF44">
+        <v>0.4630052589738634</v>
+      </c>
+      <c r="AG44">
+        <v>0.4623871905536716</v>
+      </c>
+      <c r="AH44">
+        <v>0.4623871905536716</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:34">
       <c r="A45">
         <v>22</v>
       </c>
@@ -5499,82 +6098,94 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45">
-        <v>0.75</v>
+        <v>48</v>
       </c>
       <c r="L45">
-        <v>0.6666666666666666</v>
+        <v>83</v>
       </c>
       <c r="M45">
-        <v>0.6153906425455389</v>
+        <v>131</v>
       </c>
       <c r="N45">
-        <v>0.5714889120327845</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>0.5667373121493727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P45">
-        <v>0.529898986347292</v>
+        <v>0.2480033766143694</v>
       </c>
       <c r="Q45">
-        <v>0.5281431273337995</v>
+        <v>0.2480033766143694</v>
       </c>
       <c r="R45">
-        <v>0.5271538405333285</v>
+        <v>0.387398691626375</v>
       </c>
       <c r="S45">
-        <v>0.527120572483921</v>
+        <v>0.387398691626375</v>
       </c>
       <c r="T45">
-        <v>0.5266903825899359</v>
+        <v>0.3350030843247153</v>
       </c>
       <c r="U45">
-        <v>0.75</v>
+        <v>0.3072953240388283</v>
       </c>
       <c r="V45">
-        <v>0.6666666666666666</v>
+        <v>0.3072953240388283</v>
       </c>
       <c r="W45">
-        <v>0.6153906425455389</v>
+        <v>0.2909200044278056</v>
       </c>
       <c r="X45">
-        <v>0.5714889120327845</v>
+        <v>0.2909200044278056</v>
       </c>
       <c r="Y45">
-        <v>0.5667373121493727</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>0.529898986347292</v>
+        <v>0.3720050649215541</v>
       </c>
       <c r="AA45">
-        <v>0.5281431273337995</v>
+        <v>0.3720050649215541</v>
       </c>
       <c r="AB45">
-        <v>0.5271538405333285</v>
+        <v>0.3957310947205625</v>
       </c>
       <c r="AC45">
-        <v>0.527120572483921</v>
+        <v>0.3957310947205625</v>
       </c>
       <c r="AD45">
-        <v>0.5266903825899359</v>
+        <v>0.3422085313144066</v>
+      </c>
+      <c r="AE45">
+        <v>0.3139048159245675</v>
+      </c>
+      <c r="AF45">
+        <v>0.3139048159245675</v>
+      </c>
+      <c r="AG45">
+        <v>0.2971772861312585</v>
+      </c>
+      <c r="AH45">
+        <v>0.2971772861312585</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:34">
       <c r="A46">
         <v>23</v>
       </c>
@@ -5591,61 +6202,61 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="M46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="N46">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>0.6666666666666666</v>
       </c>
       <c r="P46">
-        <v>0.6538461538461537</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="Q46">
-        <v>0.6428571441476154</v>
+        <v>0.5238095256667117</v>
       </c>
       <c r="R46">
-        <v>0.6428571441476154</v>
+        <v>0.4959357187616956</v>
       </c>
       <c r="S46">
-        <v>0.6333333355816254</v>
+        <v>0.4896192022025715</v>
       </c>
       <c r="T46">
-        <v>0.6333333355816254</v>
+        <v>0.488166998338824</v>
       </c>
       <c r="U46">
-        <v>0.5</v>
+        <v>0.4872352786665869</v>
       </c>
       <c r="V46">
-        <v>0.5</v>
+        <v>0.4869304269258767</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>0.4864183672980972</v>
       </c>
       <c r="X46">
-        <v>0.5</v>
+        <v>0.48620273579316</v>
       </c>
       <c r="Y46">
         <v>0.5</v>
@@ -5657,16 +6268,28 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.4999999999999999</v>
+        <v>0.4804882736860285</v>
       </c>
       <c r="AC46">
-        <v>0.5</v>
+        <v>0.4743685044853328</v>
       </c>
       <c r="AD46">
-        <v>0.5</v>
+        <v>0.4740608928082977</v>
+      </c>
+      <c r="AE46">
+        <v>0.473156096168683</v>
+      </c>
+      <c r="AF46">
+        <v>0.4728600534438224</v>
+      </c>
+      <c r="AG46">
+        <v>0.4723627903245572</v>
+      </c>
+      <c r="AH46">
+        <v>0.4721533897216981</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:34">
       <c r="A47">
         <v>23</v>
       </c>
@@ -5683,61 +6306,61 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J47">
+        <v>16</v>
+      </c>
+      <c r="K47">
+        <v>120</v>
+      </c>
+      <c r="L47">
+        <v>1458</v>
+      </c>
+      <c r="M47">
+        <v>1578</v>
+      </c>
+      <c r="N47">
         <v>5</v>
       </c>
-      <c r="K47">
-        <v>0.5</v>
-      </c>
-      <c r="L47">
-        <v>0.5</v>
-      </c>
-      <c r="M47">
-        <v>0.5</v>
-      </c>
-      <c r="N47">
-        <v>0.5</v>
-      </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P47">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R47">
-        <v>0.5</v>
+        <v>0.314267274598064</v>
       </c>
       <c r="S47">
-        <v>0.5007162059649911</v>
+        <v>0.3143304573326742</v>
       </c>
       <c r="T47">
-        <v>0.5007162059649911</v>
+        <v>0.3149053230144455</v>
       </c>
       <c r="U47">
-        <v>0.5</v>
+        <v>0.3141631702317097</v>
       </c>
       <c r="V47">
-        <v>0.5</v>
+        <v>0.3139140223948227</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>0.3134840298775227</v>
       </c>
       <c r="X47">
-        <v>0.5</v>
+        <v>0.313301734450088</v>
       </c>
       <c r="Y47">
         <v>0.5</v>
@@ -5749,16 +6372,28 @@
         <v>0.5</v>
       </c>
       <c r="AB47">
-        <v>0.5</v>
+        <v>0.471400911897096</v>
       </c>
       <c r="AC47">
-        <v>0.5</v>
+        <v>0.4714956859990114</v>
       </c>
       <c r="AD47">
-        <v>0.5</v>
+        <v>0.4709725252393266</v>
+      </c>
+      <c r="AE47">
+        <v>0.4698625612449027</v>
+      </c>
+      <c r="AF47">
+        <v>0.4694899356418379</v>
+      </c>
+      <c r="AG47">
+        <v>0.4688468386634564</v>
+      </c>
+      <c r="AH47">
+        <v>0.4685741975503224</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:34">
       <c r="A48">
         <v>24</v>
       </c>
@@ -5775,82 +6410,94 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+      <c r="N48">
         <v>0</v>
       </c>
-      <c r="K48">
+      <c r="O48">
         <v>0.75</v>
       </c>
-      <c r="L48">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M48">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="N48">
-        <v>0.5</v>
-      </c>
-      <c r="O48">
-        <v>0.4761904761904762</v>
-      </c>
       <c r="P48">
-        <v>0.4583333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="Q48">
-        <v>0.4324324324324322</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="R48">
-        <v>0.4210526315789473</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="S48">
-        <v>0.4145876911878939</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="T48">
-        <v>0.4083202287368743</v>
+        <v>0.3555555567819604</v>
       </c>
       <c r="U48">
+        <v>0.3333333372095293</v>
+      </c>
+      <c r="V48">
+        <v>0.3214291701385299</v>
+      </c>
+      <c r="W48">
+        <v>0.3205584910566435</v>
+      </c>
+      <c r="X48">
+        <v>0.3152094123613111</v>
+      </c>
+      <c r="Y48">
         <v>0.75</v>
       </c>
-      <c r="V48">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="W48">
-        <v>0.625</v>
-      </c>
-      <c r="X48">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="Y48">
-        <v>0.5714285714285713</v>
-      </c>
       <c r="Z48">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>0.5405405405405405</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="AB48">
-        <v>0.5263157894736842</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="AC48">
-        <v>0.5182346139848671</v>
+        <v>0.4285714285714284</v>
       </c>
       <c r="AD48">
-        <v>0.5104002859210928</v>
+        <v>0.4000000013797055</v>
+      </c>
+      <c r="AE48">
+        <v>0.3750000043607205</v>
+      </c>
+      <c r="AF48">
+        <v>0.3616078164058463</v>
+      </c>
+      <c r="AG48">
+        <v>0.35954544209816</v>
+      </c>
+      <c r="AH48">
+        <v>0.3535457979833165</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:34">
       <c r="A49">
         <v>24</v>
       </c>
@@ -5867,82 +6514,94 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>154</v>
+      </c>
+      <c r="L49">
+        <v>2304</v>
+      </c>
+      <c r="M49">
+        <v>2458</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="K49">
+      <c r="O49">
         <v>0.75</v>
       </c>
-      <c r="L49">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="M49">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="N49">
-        <v>0.4722222222222223</v>
-      </c>
-      <c r="O49">
-        <v>0.4523809523809523</v>
-      </c>
       <c r="P49">
-        <v>0.4374999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="Q49">
-        <v>0.4119460766946102</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="R49">
-        <v>0.4049113578808214</v>
+        <v>0.3846206818937507</v>
       </c>
       <c r="S49">
-        <v>0.4045431912164063</v>
+        <v>0.3690966013870049</v>
       </c>
       <c r="T49">
-        <v>0.4045916525969789</v>
+        <v>0.355685871307416</v>
       </c>
       <c r="U49">
+        <v>0.3388739087602901</v>
+      </c>
+      <c r="V49">
+        <v>0.3412897743827554</v>
+      </c>
+      <c r="W49">
+        <v>0.3409393102346253</v>
+      </c>
+      <c r="X49">
+        <v>0.3406594567253434</v>
+      </c>
+      <c r="Y49">
         <v>0.75</v>
       </c>
-      <c r="V49">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="W49">
-        <v>0.625</v>
-      </c>
-      <c r="X49">
-        <v>0.5833333333333333</v>
-      </c>
-      <c r="Y49">
-        <v>0.5714285714285713</v>
-      </c>
       <c r="Z49">
-        <v>0.5624999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA49">
-        <v>0.5296449557502132</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="AB49">
-        <v>0.5206003172753417</v>
+        <v>0.4230689771593739</v>
       </c>
       <c r="AC49">
-        <v>0.5201269601353795</v>
+        <v>0.4107502304730759</v>
       </c>
       <c r="AD49">
-        <v>0.5201167421081134</v>
+        <v>0.4000845208492874</v>
+      </c>
+      <c r="AE49">
+        <v>0.3811739974836021</v>
+      </c>
+      <c r="AF49">
+        <v>0.3827968816604805</v>
+      </c>
+      <c r="AG49">
+        <v>0.3824037946326589</v>
+      </c>
+      <c r="AH49">
+        <v>0.3820899057947394</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:34">
       <c r="A50">
         <v>25</v>
       </c>
@@ -5959,82 +6618,94 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H50" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>-1</v>
+      </c>
+      <c r="L50">
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <v>-1</v>
+      </c>
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="O50">
         <v>0.75</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>0.625</v>
       </c>
-      <c r="O50">
+      <c r="R50">
+        <v>0.6</v>
+      </c>
+      <c r="S50">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="T50">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="U50">
+        <v>0.5624999999999999</v>
+      </c>
+      <c r="V50">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0.4499999999999999</v>
+      </c>
+      <c r="X50">
+        <v>0.4500098365991352</v>
+      </c>
+      <c r="Y50">
+        <v>0.75</v>
+      </c>
+      <c r="Z50">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA50">
         <v>0.625</v>
       </c>
-      <c r="P50">
+      <c r="AB50">
         <v>0.6</v>
       </c>
-      <c r="Q50">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="R50">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="S50">
-        <v>0.375</v>
-      </c>
-      <c r="T50">
-        <v>0.375</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>0.75</v>
-      </c>
-      <c r="W50">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="X50">
-        <v>0.625</v>
-      </c>
-      <c r="Y50">
-        <v>0.625</v>
-      </c>
-      <c r="Z50">
-        <v>0.6</v>
-      </c>
-      <c r="AA50">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="AC50">
-        <v>0.375</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="AD50">
-        <v>0.375</v>
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="AE50">
+        <v>0.5624999999999999</v>
+      </c>
+      <c r="AF50">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="AG50">
+        <v>0.4499999999999999</v>
+      </c>
+      <c r="AH50">
+        <v>0.4500098365991352</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:34">
       <c r="A51">
         <v>25</v>
       </c>
@@ -6051,82 +6722,94 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="L51">
-        <v>0.75</v>
+        <v>686</v>
       </c>
       <c r="M51">
-        <v>0.6666666666666667</v>
+        <v>770</v>
       </c>
       <c r="N51">
-        <v>0.625</v>
+        <v>7</v>
       </c>
       <c r="O51">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="P51">
-        <v>0.4999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>0.5</v>
+      </c>
+      <c r="S51">
         <v>0.4166666666666666</v>
       </c>
-      <c r="R51">
-        <v>0.4167352746861818</v>
-      </c>
-      <c r="S51">
+      <c r="T51">
+        <v>0.4167352746861819</v>
+      </c>
+      <c r="U51">
         <v>0.4163924603416408</v>
       </c>
-      <c r="T51">
+      <c r="V51">
+        <v>0.4167123426715388</v>
+      </c>
+      <c r="W51">
+        <v>0.4167579686327023</v>
+      </c>
+      <c r="X51">
+        <v>0.4167782307957565</v>
+      </c>
+      <c r="Y51">
+        <v>0.5</v>
+      </c>
+      <c r="Z51">
+        <v>0.5</v>
+      </c>
+      <c r="AA51">
+        <v>0.5</v>
+      </c>
+      <c r="AB51">
+        <v>0.5</v>
+      </c>
+      <c r="AC51">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="AD51">
+        <v>0.4167352746861819</v>
+      </c>
+      <c r="AE51">
         <v>0.4163924603416408</v>
       </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>0.75</v>
-      </c>
-      <c r="W51">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="X51">
-        <v>0.625</v>
-      </c>
-      <c r="Y51">
-        <v>0.625</v>
-      </c>
-      <c r="Z51">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="AA51">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="AB51">
-        <v>0.4167352746861818</v>
-      </c>
-      <c r="AC51">
-        <v>0.4163924603416408</v>
-      </c>
-      <c r="AD51">
-        <v>0.4163924603416408</v>
+      <c r="AF51">
+        <v>0.4167123426715388</v>
+      </c>
+      <c r="AG51">
+        <v>0.4167579686327023</v>
+      </c>
+      <c r="AH51">
+        <v>0.4167782307957565</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>26</v>
       </c>
@@ -6143,82 +6826,94 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>-1</v>
+      </c>
+      <c r="M52">
+        <v>-1</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
-      <c r="K52">
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
         <v>0.75</v>
       </c>
-      <c r="L52">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M52">
-        <v>0.5</v>
-      </c>
-      <c r="N52">
-        <v>0.3809523809973797</v>
-      </c>
-      <c r="O52">
-        <v>0.3636363641940202</v>
-      </c>
-      <c r="P52">
-        <v>0.3478260884712289</v>
-      </c>
       <c r="Q52">
-        <v>0.3333333363550203</v>
+        <v>0.7222222234945711</v>
       </c>
       <c r="R52">
-        <v>0.3205128419499035</v>
+        <v>0.7000000020612105</v>
       </c>
       <c r="S52">
-        <v>0.3190080311519531</v>
+        <v>0.66083917860729</v>
       </c>
       <c r="T52">
-        <v>0.3190624386836481</v>
+        <v>0.6258445771878165</v>
       </c>
       <c r="U52">
+        <v>0.6249330352011073</v>
+      </c>
+      <c r="V52">
+        <v>0.6242558233771766</v>
+      </c>
+      <c r="W52">
+        <v>0.6238552483298248</v>
+      </c>
+      <c r="X52">
+        <v>0.6234683214190404</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
         <v>0.75</v>
       </c>
-      <c r="V52">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="W52">
-        <v>0.5</v>
-      </c>
-      <c r="X52">
-        <v>0.3809523809973797</v>
-      </c>
-      <c r="Y52">
-        <v>0.3636363641940202</v>
-      </c>
-      <c r="Z52">
-        <v>0.3478260884712289</v>
-      </c>
       <c r="AA52">
-        <v>0.3400000022921918</v>
+        <v>0.7222222234945711</v>
       </c>
       <c r="AB52">
-        <v>0.3269230980293546</v>
+        <v>0.7000000020612105</v>
       </c>
       <c r="AC52">
-        <v>0.3253881910190113</v>
+        <v>0.66083917860729</v>
       </c>
       <c r="AD52">
-        <v>0.326051367084071</v>
+        <v>0.6258445771878165</v>
+      </c>
+      <c r="AE52">
+        <v>0.6249330352011073</v>
+      </c>
+      <c r="AF52">
+        <v>0.6242558233771766</v>
+      </c>
+      <c r="AG52">
+        <v>0.6238552483298248</v>
+      </c>
+      <c r="AH52">
+        <v>0.6234683214190404</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>26</v>
       </c>
@@ -6235,82 +6930,94 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>80</v>
+      </c>
+      <c r="L53">
+        <v>262</v>
+      </c>
+      <c r="M53">
+        <v>342</v>
+      </c>
+      <c r="N53">
         <v>0</v>
       </c>
-      <c r="K53">
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
         <v>0.75</v>
       </c>
-      <c r="L53">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M53">
-        <v>0.5</v>
-      </c>
-      <c r="N53">
-        <v>0.380983725725751</v>
-      </c>
-      <c r="O53">
-        <v>0.3788344169299219</v>
-      </c>
-      <c r="P53">
-        <v>0.3626294661980257</v>
-      </c>
       <c r="Q53">
-        <v>0.3348886932572759</v>
+        <v>0.7493835428780176</v>
       </c>
       <c r="R53">
-        <v>0.3341044021763462</v>
+        <v>0.7487701184330398</v>
       </c>
       <c r="S53">
-        <v>0.3341028858153053</v>
+        <v>0.7469328405682955</v>
       </c>
       <c r="T53">
-        <v>0.3339462441082918</v>
+        <v>0.7455100683316198</v>
       </c>
       <c r="U53">
+        <v>0.7442948563148996</v>
+      </c>
+      <c r="V53">
+        <v>0.7433524268917696</v>
+      </c>
+      <c r="W53">
+        <v>0.7427478386601198</v>
+      </c>
+      <c r="X53">
+        <v>0.742211251918967</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
         <v>0.75</v>
       </c>
-      <c r="V53">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="W53">
-        <v>0.5</v>
-      </c>
-      <c r="X53">
-        <v>0.380983725725751</v>
-      </c>
-      <c r="Y53">
-        <v>0.3863520493071779</v>
-      </c>
-      <c r="Z53">
-        <v>0.3698255257274892</v>
-      </c>
       <c r="AA53">
-        <v>0.3415342617977751</v>
+        <v>0.7493835428780176</v>
       </c>
       <c r="AB53">
-        <v>0.340734407157254</v>
+        <v>0.7487701184330398</v>
       </c>
       <c r="AC53">
-        <v>0.341047614132653</v>
+        <v>0.7469328405682955</v>
       </c>
       <c r="AD53">
-        <v>0.3408877164402991</v>
+        <v>0.7455100683316198</v>
+      </c>
+      <c r="AE53">
+        <v>0.7442948563148996</v>
+      </c>
+      <c r="AF53">
+        <v>0.7433524268917696</v>
+      </c>
+      <c r="AG53">
+        <v>0.7427478386601198</v>
+      </c>
+      <c r="AH53">
+        <v>0.742211251918967</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:34">
       <c r="A54">
         <v>27</v>
       </c>
@@ -6327,82 +7034,94 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L54">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="M54">
-        <v>0.72222222230044</v>
+        <v>-1</v>
       </c>
       <c r="N54">
-        <v>0.6500000002534259</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>0.6492346277895804</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="P54">
-        <v>0.6484567252111822</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q54">
-        <v>0.6481139078449315</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="R54">
-        <v>0.6477483099530331</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="S54">
-        <v>0.6471619947360086</v>
+        <v>0.3611111111111112</v>
       </c>
       <c r="T54">
-        <v>0.6468774512343028</v>
+        <v>0.3124999999999999</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="V54">
-        <v>0.75</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="W54">
-        <v>0.72222222230044</v>
+        <v>0.2272727272727272</v>
       </c>
       <c r="X54">
-        <v>0.6500000002534259</v>
+        <v>0.2916666665536976</v>
       </c>
       <c r="Y54">
-        <v>0.6496374554018082</v>
+        <v>0.5</v>
       </c>
       <c r="Z54">
-        <v>0.6493458891039986</v>
+        <v>0.5</v>
       </c>
       <c r="AA54">
-        <v>0.6491834182570776</v>
+        <v>0.5</v>
       </c>
       <c r="AB54">
-        <v>0.6490464194179358</v>
+        <v>0.5</v>
       </c>
       <c r="AC54">
-        <v>0.6484589292054369</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AD54">
-        <v>0.6481738154689548</v>
+        <v>0.4374999999999999</v>
+      </c>
+      <c r="AE54">
+        <v>0.3888888888888888</v>
+      </c>
+      <c r="AF54">
+        <v>0.3499999999999999</v>
+      </c>
+      <c r="AG54">
+        <v>0.3181818181818181</v>
+      </c>
+      <c r="AH54">
+        <v>0.3749999999003214</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:34">
       <c r="A55">
         <v>27</v>
       </c>
@@ -6419,82 +7138,94 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <v>92</v>
+      </c>
+      <c r="L55">
+        <v>1774</v>
+      </c>
+      <c r="M55">
+        <v>1866</v>
+      </c>
+      <c r="N55">
         <v>0</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
+      <c r="O55">
         <v>0.75</v>
       </c>
-      <c r="M55">
-        <v>0.7222417073331079</v>
-      </c>
-      <c r="N55">
-        <v>0.6500631361880455</v>
-      </c>
-      <c r="O55">
-        <v>0.6492974905862131</v>
-      </c>
       <c r="P55">
-        <v>0.6485838746360447</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="Q55">
-        <v>0.648262255067367</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="R55">
-        <v>0.6479070523220799</v>
+        <v>0.5</v>
       </c>
       <c r="S55">
-        <v>0.6473414831083164</v>
+        <v>0.4722222222222223</v>
       </c>
       <c r="T55">
-        <v>0.6470590686112203</v>
+        <v>0.4375000000000001</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="V55">
+        <v>0.35</v>
+      </c>
+      <c r="W55">
+        <v>0.3181818181818181</v>
+      </c>
+      <c r="X55">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="Y55">
         <v>0.75</v>
       </c>
-      <c r="W55">
-        <v>0.7222417073331079</v>
-      </c>
-      <c r="X55">
-        <v>0.6500631361880455</v>
-      </c>
-      <c r="Y55">
-        <v>0.6497003816282156</v>
-      </c>
       <c r="Z55">
-        <v>0.649432840302275</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA55">
-        <v>0.6492803884604933</v>
+        <v>0.625</v>
       </c>
       <c r="AB55">
-        <v>0.6491472480407722</v>
+        <v>0.6</v>
       </c>
       <c r="AC55">
-        <v>0.6485805962388272</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="AD55">
-        <v>0.6482976411560887</v>
+        <v>0.5625</v>
+      </c>
+      <c r="AE55">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>0.45</v>
+      </c>
+      <c r="AG55">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="AH55">
+        <v>0.375</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:34">
       <c r="A56">
         <v>28</v>
       </c>
@@ -6511,82 +7242,94 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J56">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56">
         <v>0</v>
       </c>
-      <c r="K56">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L56">
-        <v>0.7777777777777779</v>
-      </c>
-      <c r="M56">
-        <v>0.6666886450976819</v>
-      </c>
-      <c r="N56">
-        <v>0.6296643627785941</v>
-      </c>
       <c r="O56">
-        <v>0.6000733183546881</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>0.5807634336853806</v>
+        <v>0.9310344827586208</v>
       </c>
       <c r="Q56">
-        <v>0.5676711296002289</v>
+        <v>0.8709701169469244</v>
       </c>
       <c r="R56">
-        <v>0.5431810691118198</v>
+        <v>0.8410585990339398</v>
       </c>
       <c r="S56">
-        <v>0.5424461403354247</v>
+        <v>0.8343339178224026</v>
       </c>
       <c r="T56">
-        <v>0.542217775282855</v>
+        <v>0.8324258553544339</v>
       </c>
       <c r="U56">
-        <v>0.9</v>
+        <v>0.8299954363583415</v>
       </c>
       <c r="V56">
-        <v>0.8333333333333335</v>
+        <v>0.8290899374828282</v>
       </c>
       <c r="W56">
-        <v>0.7500164838232611</v>
+        <v>0.8285919404104695</v>
       </c>
       <c r="X56">
-        <v>0.7222482720839456</v>
+        <v>0.8282049271925097</v>
       </c>
       <c r="Y56">
-        <v>0.700054988766016</v>
+        <v>0.5</v>
       </c>
       <c r="Z56">
-        <v>0.6729739372454314</v>
+        <v>0.4655172413793104</v>
       </c>
       <c r="AA56">
-        <v>0.6578029073272976</v>
+        <v>0.4354850584734622</v>
       </c>
       <c r="AB56">
-        <v>0.6294244463665618</v>
+        <v>0.4205292995169699</v>
       </c>
       <c r="AC56">
-        <v>0.6285728295402284</v>
+        <v>0.4171669589112013</v>
       </c>
       <c r="AD56">
-        <v>0.6283082059092572</v>
+        <v>0.416212927677217</v>
+      </c>
+      <c r="AE56">
+        <v>0.4149977181791707</v>
+      </c>
+      <c r="AF56">
+        <v>0.4145449687414141</v>
+      </c>
+      <c r="AG56">
+        <v>0.4142959702052347</v>
+      </c>
+      <c r="AH56">
+        <v>0.4141024635962549</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:34">
       <c r="A57">
         <v>28</v>
       </c>
@@ -6603,82 +7346,94 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>104</v>
+      </c>
+      <c r="L57">
+        <v>578</v>
+      </c>
+      <c r="M57">
+        <v>682</v>
+      </c>
+      <c r="N57">
         <v>0</v>
       </c>
-      <c r="K57">
-        <v>0.8666731774362335</v>
-      </c>
-      <c r="L57">
-        <v>0.777803986655336</v>
-      </c>
-      <c r="M57">
-        <v>0.6668578174837769</v>
-      </c>
-      <c r="N57">
-        <v>0.6299603824222794</v>
-      </c>
       <c r="O57">
-        <v>0.6223102021801044</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>0.6184542121571435</v>
+        <v>0.9313206461027329</v>
       </c>
       <c r="Q57">
-        <v>0.6161667455596791</v>
+        <v>0.8721014428713556</v>
       </c>
       <c r="R57">
-        <v>0.6126261671844303</v>
+        <v>0.86571296433821</v>
       </c>
       <c r="S57">
-        <v>0.6117798581713609</v>
+        <v>0.8625624797510351</v>
       </c>
       <c r="T57">
-        <v>0.6115040185543543</v>
+        <v>0.8607272468012181</v>
       </c>
       <c r="U57">
-        <v>0.9000048830771752</v>
+        <v>0.8584019933636906</v>
       </c>
       <c r="V57">
-        <v>0.833352989991502</v>
+        <v>0.8574389449485473</v>
       </c>
       <c r="W57">
-        <v>0.7501433631128328</v>
+        <v>0.8569092084490733</v>
       </c>
       <c r="X57">
-        <v>0.7224702868167096</v>
+        <v>0.8564976434866683</v>
       </c>
       <c r="Y57">
-        <v>0.7093744666832621</v>
+        <v>0.5</v>
       </c>
       <c r="Z57">
-        <v>0.7055613915982348</v>
+        <v>0.4656603230513665</v>
       </c>
       <c r="AA57">
-        <v>0.7029517430842213</v>
+        <v>0.4360507214356778</v>
       </c>
       <c r="AB57">
-        <v>0.6989124862461283</v>
+        <v>0.432856482169105</v>
       </c>
       <c r="AC57">
-        <v>0.6979469774772565</v>
+        <v>0.4312812398755175</v>
       </c>
       <c r="AD57">
-        <v>0.6976322867851934</v>
+        <v>0.4303636234006091</v>
+      </c>
+      <c r="AE57">
+        <v>0.4292009966818453</v>
+      </c>
+      <c r="AF57">
+        <v>0.4287194724742737</v>
+      </c>
+      <c r="AG57">
+        <v>0.4284546042245366</v>
+      </c>
+      <c r="AH57">
+        <v>0.4282488217433342</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:34">
       <c r="A58">
         <v>29</v>
       </c>
@@ -6695,82 +7450,94 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="M58">
-        <v>0.4827585751982794</v>
+        <v>-1</v>
       </c>
       <c r="N58">
-        <v>0.4671300084485673</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.4607406615281116</v>
+        <v>0.9000000053137212</v>
       </c>
       <c r="P58">
-        <v>0.4529109470186246</v>
+        <v>0.8333333407135171</v>
       </c>
       <c r="Q58">
-        <v>0.4519819228636141</v>
+        <v>0.785714296298365</v>
       </c>
       <c r="R58">
-        <v>0.4513434571842437</v>
+        <v>0.7722141541754746</v>
       </c>
       <c r="S58">
-        <v>0.4508369132280107</v>
+        <v>0.7695306568442551</v>
       </c>
       <c r="T58">
-        <v>0.4506557810901894</v>
+        <v>0.7668657456012395</v>
       </c>
       <c r="U58">
-        <v>0.75</v>
+        <v>0.7629468478247619</v>
       </c>
       <c r="V58">
-        <v>0.5</v>
+        <v>0.7613039508007907</v>
       </c>
       <c r="W58">
-        <v>0.4827585751982794</v>
+        <v>0.7596681140618965</v>
       </c>
       <c r="X58">
-        <v>0.4671300084485673</v>
+        <v>0.7580392921933238</v>
       </c>
       <c r="Y58">
-        <v>0.4607406615281116</v>
+        <v>0.5</v>
       </c>
       <c r="Z58">
-        <v>0.4551298502521678</v>
+        <v>0.5</v>
       </c>
       <c r="AA58">
-        <v>0.4544640881780275</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.4538221162138178</v>
+        <v>0.4914090005829778</v>
       </c>
       <c r="AC58">
-        <v>0.4533127904519975</v>
+        <v>0.4897013204861144</v>
       </c>
       <c r="AD58">
-        <v>0.4531306635843273</v>
+        <v>0.488005467899767</v>
+      </c>
+      <c r="AE58">
+        <v>0.4855116238937839</v>
+      </c>
+      <c r="AF58">
+        <v>0.4844661439835219</v>
+      </c>
+      <c r="AG58">
+        <v>0.4834251569818848</v>
+      </c>
+      <c r="AH58">
+        <v>0.4823886339885739</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:34">
       <c r="A59">
         <v>29</v>
       </c>
@@ -6787,82 +7554,94 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K59">
-        <v>0.75</v>
+        <v>104</v>
       </c>
       <c r="L59">
-        <v>0.5</v>
+        <v>521</v>
       </c>
       <c r="M59">
-        <v>0.4830740892734838</v>
+        <v>625</v>
       </c>
       <c r="N59">
-        <v>0.4812526330054293</v>
+        <v>6</v>
       </c>
       <c r="O59">
-        <v>0.4812949066507571</v>
+        <v>0.5</v>
       </c>
       <c r="P59">
-        <v>0.4799537739137065</v>
+        <v>0.5</v>
       </c>
       <c r="Q59">
-        <v>0.4785677794391012</v>
+        <v>0.4956941469528199</v>
       </c>
       <c r="R59">
-        <v>0.4778902085954653</v>
+        <v>0.4878922667165998</v>
       </c>
       <c r="S59">
-        <v>0.4773495317862733</v>
+        <v>0.484621669369245</v>
       </c>
       <c r="T59">
-        <v>0.4771470932633181</v>
+        <v>0.481394629089377</v>
       </c>
       <c r="U59">
-        <v>0.75</v>
+        <v>0.4819804716296098</v>
       </c>
       <c r="V59">
-        <v>0.5</v>
+        <v>0.4798706687082368</v>
       </c>
       <c r="W59">
-        <v>0.4830740892734838</v>
+        <v>0.4777792560276972</v>
       </c>
       <c r="X59">
-        <v>0.481929256787101</v>
+        <v>0.4757059941817117</v>
       </c>
       <c r="Y59">
-        <v>0.4819700047059748</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>0.4809192643412277</v>
+        <v>0.5</v>
       </c>
       <c r="AA59">
-        <v>0.4795304817556197</v>
+        <v>0.4956941469528199</v>
       </c>
       <c r="AB59">
-        <v>0.4788515478887115</v>
+        <v>0.4878922667165998</v>
       </c>
       <c r="AC59">
-        <v>0.4783097834366839</v>
+        <v>0.484621669369245</v>
       </c>
       <c r="AD59">
-        <v>0.4781069376818936</v>
+        <v>0.481394629089377</v>
+      </c>
+      <c r="AE59">
+        <v>0.4793750746662959</v>
+      </c>
+      <c r="AF59">
+        <v>0.4772766765101533</v>
+      </c>
+      <c r="AG59">
+        <v>0.4751965691844313</v>
+      </c>
+      <c r="AH59">
+        <v>0.4731345145769869</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:34">
       <c r="A60">
         <v>30</v>
       </c>
@@ -6879,82 +7658,94 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
+      <c r="N60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q60">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R60">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="S60">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="T60">
+        <v>0.4849122890048645</v>
+      </c>
+      <c r="U60">
+        <v>0.4799728600765694</v>
+      </c>
+      <c r="V60">
+        <v>0.4766484520386829</v>
+      </c>
+      <c r="W60">
+        <v>0.473471435290087</v>
+      </c>
+      <c r="X60">
+        <v>0.4733472658368205</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
         <v>0.75</v>
       </c>
-      <c r="M60">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="N60">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="O60">
-        <v>0.5</v>
-      </c>
-      <c r="P60">
-        <v>0.4705882400476367</v>
-      </c>
-      <c r="Q60">
-        <v>0.4705882400476367</v>
-      </c>
-      <c r="R60">
-        <v>0.4715788542704544</v>
-      </c>
-      <c r="S60">
-        <v>0.471445086908283</v>
-      </c>
-      <c r="T60">
-        <v>0.471445086908283</v>
-      </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-      <c r="V60">
-        <v>0.75</v>
-      </c>
-      <c r="W60">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="X60">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="Y60">
-        <v>0.5</v>
-      </c>
-      <c r="Z60">
-        <v>0.4705882400476367</v>
-      </c>
       <c r="AA60">
-        <v>0.4705882400476367</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB60">
-        <v>0.4715788542704544</v>
+        <v>0.625</v>
       </c>
       <c r="AC60">
-        <v>0.471445086908283</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="AD60">
-        <v>0.471445086908283</v>
+        <v>0.6136842167536485</v>
+      </c>
+      <c r="AE60">
+        <v>0.6099796450574271</v>
+      </c>
+      <c r="AF60">
+        <v>0.6074863390290122</v>
+      </c>
+      <c r="AG60">
+        <v>0.6051035764675652</v>
+      </c>
+      <c r="AH60">
+        <v>0.604944886048969</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:34">
       <c r="A61">
         <v>30</v>
       </c>
@@ -6971,79 +7762,91 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="L61">
-        <v>0.75</v>
+        <v>1410</v>
       </c>
       <c r="M61">
-        <v>0.6666666666666666</v>
+        <v>1482</v>
       </c>
       <c r="N61">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P61">
-        <v>0.4735055926198732</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q61">
-        <v>0.4735055926198732</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R61">
-        <v>0.4743589632108135</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="S61">
-        <v>0.4742528458407477</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T61">
-        <v>0.4742528458407477</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V61">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W61">
-        <v>0.6666666666666666</v>
+        <v>0.334154440131774</v>
       </c>
       <c r="X61">
-        <v>0.6666666666666666</v>
+        <v>0.3340630063299057</v>
       </c>
       <c r="Y61">
         <v>0.5</v>
       </c>
       <c r="Z61">
-        <v>0.4735055926198732</v>
+        <v>0.5</v>
       </c>
       <c r="AA61">
-        <v>0.4735055926198732</v>
+        <v>0.5</v>
       </c>
       <c r="AB61">
-        <v>0.4743589632108135</v>
+        <v>0.5</v>
       </c>
       <c r="AC61">
-        <v>0.4742528458407477</v>
+        <v>0.5</v>
       </c>
       <c r="AD61">
-        <v>0.4742528458407477</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE61">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AF61">
+        <v>0.5</v>
+      </c>
+      <c r="AG61">
+        <v>0.5006158300988306</v>
+      </c>
+      <c r="AH61">
+        <v>0.5004788479040007</v>
       </c>
     </row>
   </sheetData>
